--- a/Ppgz/Ppgz.Web/App_Data/plantillaoc.xlsx
+++ b/Ppgz/Ppgz.Web/App_Data/plantillaoc.xlsx
@@ -22,9 +22,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>INFORMACIÓN LEGAL:</t>
-  </si>
-  <si>
-    <t>dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo.</t>
   </si>
   <si>
     <t>RFC:</t>
@@ -52,6 +49,10 @@
   </si>
   <si>
     <t>ORDEN #:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Información legal …</t>
   </si>
 </sst>
 </file>
@@ -236,32 +237,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -308,6 +285,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,6 +324,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>561824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="247650"/>
+          <a:ext cx="1190625" cy="504674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -613,3695 +663,3695 @@
   <dimension ref="A1:E908"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="D8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="E8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="21"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="21"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="21"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="21"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="21"/>
-      <c r="E13" s="26"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="21"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="21"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="21"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="21"/>
-      <c r="E17" s="26"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="21"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="21"/>
-      <c r="E19" s="26"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="21"/>
-      <c r="E20" s="26"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="21"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="21"/>
-      <c r="E22" s="26"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="21"/>
-      <c r="E23" s="26"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="21"/>
-      <c r="E24" s="26"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="21"/>
-      <c r="E25" s="26"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="21"/>
-      <c r="E26" s="26"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="21"/>
-      <c r="E27" s="26"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="21"/>
-      <c r="E28" s="26"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="21"/>
-      <c r="E29" s="26"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="21"/>
-      <c r="E30" s="26"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="21"/>
-      <c r="E31" s="26"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="21"/>
-      <c r="E32" s="26"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="21"/>
-      <c r="E33" s="26"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="21"/>
-      <c r="E34" s="26"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="21"/>
-      <c r="E35" s="26"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="21"/>
-      <c r="E36" s="26"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="21"/>
-      <c r="E37" s="26"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="21"/>
-      <c r="E38" s="26"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="21"/>
-      <c r="E39" s="26"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="21"/>
-      <c r="E40" s="26"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="21"/>
-      <c r="E41" s="26"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="21"/>
-      <c r="E42" s="26"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="18"/>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="21"/>
-      <c r="E43" s="26"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="18"/>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="21"/>
-      <c r="E44" s="26"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="18"/>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="21"/>
-      <c r="E45" s="26"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="18"/>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="21"/>
-      <c r="E46" s="26"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="18"/>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="21"/>
-      <c r="E47" s="26"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="18"/>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="21"/>
-      <c r="E48" s="26"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="18"/>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="21"/>
-      <c r="E49" s="26"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="18"/>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="21"/>
-      <c r="E50" s="26"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="18"/>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="21"/>
-      <c r="E51" s="26"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="18"/>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="21"/>
-      <c r="E52" s="26"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="18"/>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D53" s="21"/>
-      <c r="E53" s="26"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="18"/>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D54" s="21"/>
-      <c r="E54" s="26"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="18"/>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D55" s="21"/>
-      <c r="E55" s="26"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="18"/>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D56" s="21"/>
-      <c r="E56" s="26"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="18"/>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D57" s="21"/>
-      <c r="E57" s="26"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="18"/>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D58" s="21"/>
-      <c r="E58" s="26"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="18"/>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D59" s="21"/>
-      <c r="E59" s="26"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="18"/>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D60" s="21"/>
-      <c r="E60" s="26"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="18"/>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D61" s="21"/>
-      <c r="E61" s="26"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="18"/>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D62" s="21"/>
-      <c r="E62" s="26"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="18"/>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D63" s="21"/>
-      <c r="E63" s="26"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="18"/>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D64" s="21"/>
-      <c r="E64" s="26"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="18"/>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D65" s="21"/>
-      <c r="E65" s="26"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="18"/>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D66" s="21"/>
-      <c r="E66" s="26"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="18"/>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D67" s="21"/>
-      <c r="E67" s="26"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="18"/>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D68" s="21"/>
-      <c r="E68" s="26"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="18"/>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D69" s="21"/>
-      <c r="E69" s="26"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="18"/>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D70" s="21"/>
-      <c r="E70" s="26"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="18"/>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D71" s="21"/>
-      <c r="E71" s="26"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="18"/>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D72" s="21"/>
-      <c r="E72" s="26"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="18"/>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D73" s="21"/>
-      <c r="E73" s="26"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="18"/>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D74" s="21"/>
-      <c r="E74" s="26"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="18"/>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D75" s="21"/>
-      <c r="E75" s="26"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="18"/>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D76" s="21"/>
-      <c r="E76" s="26"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="18"/>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D77" s="21"/>
-      <c r="E77" s="26"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="18"/>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D78" s="21"/>
-      <c r="E78" s="26"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="18"/>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D79" s="21"/>
-      <c r="E79" s="26"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="18"/>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D80" s="21"/>
-      <c r="E80" s="26"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="18"/>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D81" s="21"/>
-      <c r="E81" s="26"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="18"/>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D82" s="21"/>
-      <c r="E82" s="26"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="18"/>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D83" s="21"/>
-      <c r="E83" s="26"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="18"/>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D84" s="21"/>
-      <c r="E84" s="26"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="18"/>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D85" s="21"/>
-      <c r="E85" s="26"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="18"/>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D86" s="21"/>
-      <c r="E86" s="26"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="18"/>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D87" s="21"/>
-      <c r="E87" s="26"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="18"/>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D88" s="21"/>
-      <c r="E88" s="26"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="18"/>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D89" s="21"/>
-      <c r="E89" s="26"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="18"/>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D90" s="21"/>
-      <c r="E90" s="26"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="18"/>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D91" s="21"/>
-      <c r="E91" s="26"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="18"/>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D92" s="21"/>
-      <c r="E92" s="26"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="18"/>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D93" s="21"/>
-      <c r="E93" s="26"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="18"/>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D94" s="21"/>
-      <c r="E94" s="26"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="18"/>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D95" s="21"/>
-      <c r="E95" s="26"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="18"/>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D96" s="21"/>
-      <c r="E96" s="26"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="18"/>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D97" s="21"/>
-      <c r="E97" s="26"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="18"/>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D98" s="21"/>
-      <c r="E98" s="26"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="18"/>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D99" s="21"/>
-      <c r="E99" s="26"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="18"/>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D100" s="21"/>
-      <c r="E100" s="26"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="18"/>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D101" s="21"/>
-      <c r="E101" s="26"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="18"/>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D102" s="21"/>
-      <c r="E102" s="26"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="18"/>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D103" s="21"/>
-      <c r="E103" s="26"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="18"/>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D104" s="21"/>
-      <c r="E104" s="26"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="18"/>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D105" s="21"/>
-      <c r="E105" s="26"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="18"/>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D106" s="21"/>
-      <c r="E106" s="26"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="18"/>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D107" s="21"/>
-      <c r="E107" s="26"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="18"/>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D108" s="21"/>
-      <c r="E108" s="26"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="18"/>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D109" s="21"/>
-      <c r="E109" s="26"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="18"/>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D110" s="21"/>
-      <c r="E110" s="26"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="18"/>
     </row>
     <row r="111" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D111" s="21"/>
-      <c r="E111" s="26"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="18"/>
     </row>
     <row r="112" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D112" s="21"/>
-      <c r="E112" s="26"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="18"/>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D113" s="21"/>
-      <c r="E113" s="26"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="18"/>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D114" s="21"/>
-      <c r="E114" s="26"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="18"/>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D115" s="21"/>
-      <c r="E115" s="26"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="18"/>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D116" s="21"/>
-      <c r="E116" s="26"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="18"/>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D117" s="21"/>
-      <c r="E117" s="26"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="18"/>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D118" s="21"/>
-      <c r="E118" s="26"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="18"/>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D119" s="21"/>
-      <c r="E119" s="26"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="18"/>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D120" s="21"/>
-      <c r="E120" s="26"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="18"/>
     </row>
     <row r="121" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D121" s="21"/>
-      <c r="E121" s="26"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="18"/>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D122" s="21"/>
-      <c r="E122" s="26"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="18"/>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D123" s="21"/>
-      <c r="E123" s="26"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="18"/>
     </row>
     <row r="124" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D124" s="21"/>
-      <c r="E124" s="26"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="18"/>
     </row>
     <row r="125" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D125" s="21"/>
-      <c r="E125" s="26"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="18"/>
     </row>
     <row r="126" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D126" s="21"/>
-      <c r="E126" s="26"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="18"/>
     </row>
     <row r="127" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D127" s="21"/>
-      <c r="E127" s="26"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="18"/>
     </row>
     <row r="128" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D128" s="21"/>
-      <c r="E128" s="26"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="18"/>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D129" s="21"/>
-      <c r="E129" s="26"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="18"/>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D130" s="21"/>
-      <c r="E130" s="26"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="18"/>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D131" s="21"/>
-      <c r="E131" s="26"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="18"/>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D132" s="21"/>
-      <c r="E132" s="26"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="18"/>
     </row>
     <row r="133" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D133" s="21"/>
-      <c r="E133" s="26"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="18"/>
     </row>
     <row r="134" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D134" s="21"/>
-      <c r="E134" s="26"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="18"/>
     </row>
     <row r="135" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D135" s="21"/>
-      <c r="E135" s="26"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="18"/>
     </row>
     <row r="136" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D136" s="21"/>
-      <c r="E136" s="26"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="18"/>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D137" s="21"/>
-      <c r="E137" s="26"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="18"/>
     </row>
     <row r="138" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D138" s="21"/>
-      <c r="E138" s="26"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="18"/>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D139" s="21"/>
-      <c r="E139" s="26"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="18"/>
     </row>
     <row r="140" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D140" s="21"/>
-      <c r="E140" s="26"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="18"/>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D141" s="21"/>
-      <c r="E141" s="26"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="18"/>
     </row>
     <row r="142" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D142" s="21"/>
-      <c r="E142" s="26"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="18"/>
     </row>
     <row r="143" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D143" s="21"/>
-      <c r="E143" s="26"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="18"/>
     </row>
     <row r="144" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D144" s="21"/>
-      <c r="E144" s="26"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="18"/>
     </row>
     <row r="145" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D145" s="21"/>
-      <c r="E145" s="26"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="18"/>
     </row>
     <row r="146" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D146" s="21"/>
-      <c r="E146" s="26"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="18"/>
     </row>
     <row r="147" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D147" s="21"/>
-      <c r="E147" s="26"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="18"/>
     </row>
     <row r="148" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D148" s="21"/>
-      <c r="E148" s="26"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="18"/>
     </row>
     <row r="149" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D149" s="21"/>
-      <c r="E149" s="26"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="18"/>
     </row>
     <row r="150" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D150" s="21"/>
-      <c r="E150" s="26"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="18"/>
     </row>
     <row r="151" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D151" s="21"/>
-      <c r="E151" s="26"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="18"/>
     </row>
     <row r="152" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D152" s="21"/>
-      <c r="E152" s="26"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="18"/>
     </row>
     <row r="153" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D153" s="21"/>
-      <c r="E153" s="26"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="18"/>
     </row>
     <row r="154" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D154" s="21"/>
-      <c r="E154" s="26"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="18"/>
     </row>
     <row r="155" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D155" s="21"/>
-      <c r="E155" s="26"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="18"/>
     </row>
     <row r="156" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D156" s="21"/>
-      <c r="E156" s="26"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="18"/>
     </row>
     <row r="157" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D157" s="21"/>
-      <c r="E157" s="26"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="18"/>
     </row>
     <row r="158" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D158" s="21"/>
-      <c r="E158" s="26"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="18"/>
     </row>
     <row r="159" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D159" s="21"/>
-      <c r="E159" s="26"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="18"/>
     </row>
     <row r="160" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D160" s="21"/>
-      <c r="E160" s="26"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="18"/>
     </row>
     <row r="161" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D161" s="21"/>
-      <c r="E161" s="26"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="18"/>
     </row>
     <row r="162" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D162" s="21"/>
-      <c r="E162" s="26"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="18"/>
     </row>
     <row r="163" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D163" s="21"/>
-      <c r="E163" s="26"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="18"/>
     </row>
     <row r="164" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D164" s="21"/>
-      <c r="E164" s="26"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="18"/>
     </row>
     <row r="165" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D165" s="21"/>
-      <c r="E165" s="26"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="18"/>
     </row>
     <row r="166" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D166" s="21"/>
-      <c r="E166" s="26"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="18"/>
     </row>
     <row r="167" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D167" s="21"/>
-      <c r="E167" s="26"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="18"/>
     </row>
     <row r="168" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D168" s="21"/>
-      <c r="E168" s="26"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="18"/>
     </row>
     <row r="169" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D169" s="21"/>
-      <c r="E169" s="26"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="18"/>
     </row>
     <row r="170" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D170" s="21"/>
-      <c r="E170" s="26"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="18"/>
     </row>
     <row r="171" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D171" s="21"/>
-      <c r="E171" s="26"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="18"/>
     </row>
     <row r="172" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D172" s="21"/>
-      <c r="E172" s="26"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="18"/>
     </row>
     <row r="173" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D173" s="21"/>
-      <c r="E173" s="26"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="18"/>
     </row>
     <row r="174" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D174" s="21"/>
-      <c r="E174" s="26"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="18"/>
     </row>
     <row r="175" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D175" s="21"/>
-      <c r="E175" s="26"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="18"/>
     </row>
     <row r="176" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D176" s="21"/>
-      <c r="E176" s="26"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="18"/>
     </row>
     <row r="177" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D177" s="21"/>
-      <c r="E177" s="26"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="18"/>
     </row>
     <row r="178" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D178" s="21"/>
-      <c r="E178" s="26"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="18"/>
     </row>
     <row r="179" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D179" s="21"/>
-      <c r="E179" s="26"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="18"/>
     </row>
     <row r="180" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D180" s="21"/>
-      <c r="E180" s="26"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="18"/>
     </row>
     <row r="181" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D181" s="21"/>
-      <c r="E181" s="26"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="18"/>
     </row>
     <row r="182" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D182" s="21"/>
-      <c r="E182" s="26"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="18"/>
     </row>
     <row r="183" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D183" s="21"/>
-      <c r="E183" s="26"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="18"/>
     </row>
     <row r="184" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D184" s="21"/>
-      <c r="E184" s="26"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="18"/>
     </row>
     <row r="185" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D185" s="21"/>
-      <c r="E185" s="26"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="18"/>
     </row>
     <row r="186" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D186" s="21"/>
-      <c r="E186" s="26"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="18"/>
     </row>
     <row r="187" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D187" s="21"/>
-      <c r="E187" s="26"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="18"/>
     </row>
     <row r="188" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D188" s="21"/>
-      <c r="E188" s="26"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="18"/>
     </row>
     <row r="189" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D189" s="21"/>
-      <c r="E189" s="26"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="18"/>
     </row>
     <row r="190" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D190" s="21"/>
-      <c r="E190" s="26"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="18"/>
     </row>
     <row r="191" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D191" s="21"/>
-      <c r="E191" s="26"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="18"/>
     </row>
     <row r="192" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D192" s="21"/>
-      <c r="E192" s="26"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="18"/>
     </row>
     <row r="193" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D193" s="21"/>
-      <c r="E193" s="26"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="18"/>
     </row>
     <row r="194" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D194" s="21"/>
-      <c r="E194" s="26"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="18"/>
     </row>
     <row r="195" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D195" s="21"/>
-      <c r="E195" s="26"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="18"/>
     </row>
     <row r="196" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D196" s="21"/>
-      <c r="E196" s="26"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="18"/>
     </row>
     <row r="197" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D197" s="21"/>
-      <c r="E197" s="26"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="18"/>
     </row>
     <row r="198" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D198" s="21"/>
-      <c r="E198" s="26"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="18"/>
     </row>
     <row r="199" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D199" s="21"/>
-      <c r="E199" s="26"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="18"/>
     </row>
     <row r="200" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D200" s="21"/>
-      <c r="E200" s="26"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="18"/>
     </row>
     <row r="201" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D201" s="21"/>
-      <c r="E201" s="26"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="18"/>
     </row>
     <row r="202" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D202" s="21"/>
-      <c r="E202" s="26"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="18"/>
     </row>
     <row r="203" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D203" s="21"/>
-      <c r="E203" s="26"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="18"/>
     </row>
     <row r="204" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D204" s="21"/>
-      <c r="E204" s="26"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="18"/>
     </row>
     <row r="205" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D205" s="21"/>
-      <c r="E205" s="26"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="18"/>
     </row>
     <row r="206" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D206" s="21"/>
-      <c r="E206" s="26"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="18"/>
     </row>
     <row r="207" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D207" s="21"/>
-      <c r="E207" s="26"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="18"/>
     </row>
     <row r="208" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D208" s="21"/>
-      <c r="E208" s="26"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="18"/>
     </row>
     <row r="209" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D209" s="21"/>
-      <c r="E209" s="26"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="18"/>
     </row>
     <row r="210" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D210" s="21"/>
-      <c r="E210" s="26"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="18"/>
     </row>
     <row r="211" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D211" s="21"/>
-      <c r="E211" s="26"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="18"/>
     </row>
     <row r="212" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D212" s="21"/>
-      <c r="E212" s="26"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="18"/>
     </row>
     <row r="213" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D213" s="21"/>
-      <c r="E213" s="26"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="18"/>
     </row>
     <row r="214" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D214" s="21"/>
-      <c r="E214" s="26"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="18"/>
     </row>
     <row r="215" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D215" s="21"/>
-      <c r="E215" s="26"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="18"/>
     </row>
     <row r="216" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D216" s="21"/>
-      <c r="E216" s="26"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="18"/>
     </row>
     <row r="217" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D217" s="21"/>
-      <c r="E217" s="26"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="18"/>
     </row>
     <row r="218" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D218" s="21"/>
-      <c r="E218" s="26"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="18"/>
     </row>
     <row r="219" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D219" s="21"/>
-      <c r="E219" s="26"/>
+      <c r="D219" s="13"/>
+      <c r="E219" s="18"/>
     </row>
     <row r="220" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D220" s="21"/>
-      <c r="E220" s="26"/>
+      <c r="D220" s="13"/>
+      <c r="E220" s="18"/>
     </row>
     <row r="221" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D221" s="21"/>
-      <c r="E221" s="26"/>
+      <c r="D221" s="13"/>
+      <c r="E221" s="18"/>
     </row>
     <row r="222" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D222" s="21"/>
-      <c r="E222" s="26"/>
+      <c r="D222" s="13"/>
+      <c r="E222" s="18"/>
     </row>
     <row r="223" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D223" s="21"/>
-      <c r="E223" s="26"/>
+      <c r="D223" s="13"/>
+      <c r="E223" s="18"/>
     </row>
     <row r="224" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D224" s="21"/>
-      <c r="E224" s="26"/>
+      <c r="D224" s="13"/>
+      <c r="E224" s="18"/>
     </row>
     <row r="225" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D225" s="21"/>
-      <c r="E225" s="26"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="18"/>
     </row>
     <row r="226" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D226" s="21"/>
-      <c r="E226" s="26"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="18"/>
     </row>
     <row r="227" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D227" s="21"/>
-      <c r="E227" s="26"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="18"/>
     </row>
     <row r="228" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D228" s="21"/>
-      <c r="E228" s="26"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="18"/>
     </row>
     <row r="229" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D229" s="21"/>
-      <c r="E229" s="26"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="18"/>
     </row>
     <row r="230" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D230" s="21"/>
-      <c r="E230" s="26"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="18"/>
     </row>
     <row r="231" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D231" s="21"/>
-      <c r="E231" s="26"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="18"/>
     </row>
     <row r="232" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D232" s="21"/>
-      <c r="E232" s="26"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="18"/>
     </row>
     <row r="233" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D233" s="21"/>
-      <c r="E233" s="26"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="18"/>
     </row>
     <row r="234" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D234" s="21"/>
-      <c r="E234" s="26"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="18"/>
     </row>
     <row r="235" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D235" s="21"/>
-      <c r="E235" s="26"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="18"/>
     </row>
     <row r="236" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D236" s="21"/>
-      <c r="E236" s="26"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="18"/>
     </row>
     <row r="237" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D237" s="21"/>
-      <c r="E237" s="26"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="18"/>
     </row>
     <row r="238" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D238" s="21"/>
-      <c r="E238" s="26"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="18"/>
     </row>
     <row r="239" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D239" s="21"/>
-      <c r="E239" s="26"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="18"/>
     </row>
     <row r="240" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D240" s="21"/>
-      <c r="E240" s="26"/>
+      <c r="D240" s="13"/>
+      <c r="E240" s="18"/>
     </row>
     <row r="241" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D241" s="21"/>
-      <c r="E241" s="26"/>
+      <c r="D241" s="13"/>
+      <c r="E241" s="18"/>
     </row>
     <row r="242" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D242" s="21"/>
-      <c r="E242" s="26"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="18"/>
     </row>
     <row r="243" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D243" s="21"/>
-      <c r="E243" s="26"/>
+      <c r="D243" s="13"/>
+      <c r="E243" s="18"/>
     </row>
     <row r="244" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D244" s="21"/>
-      <c r="E244" s="26"/>
+      <c r="D244" s="13"/>
+      <c r="E244" s="18"/>
     </row>
     <row r="245" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D245" s="21"/>
-      <c r="E245" s="26"/>
+      <c r="D245" s="13"/>
+      <c r="E245" s="18"/>
     </row>
     <row r="246" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D246" s="21"/>
-      <c r="E246" s="26"/>
+      <c r="D246" s="13"/>
+      <c r="E246" s="18"/>
     </row>
     <row r="247" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D247" s="21"/>
-      <c r="E247" s="26"/>
+      <c r="D247" s="13"/>
+      <c r="E247" s="18"/>
     </row>
     <row r="248" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D248" s="21"/>
-      <c r="E248" s="26"/>
+      <c r="D248" s="13"/>
+      <c r="E248" s="18"/>
     </row>
     <row r="249" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D249" s="21"/>
-      <c r="E249" s="26"/>
+      <c r="D249" s="13"/>
+      <c r="E249" s="18"/>
     </row>
     <row r="250" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D250" s="21"/>
-      <c r="E250" s="26"/>
+      <c r="D250" s="13"/>
+      <c r="E250" s="18"/>
     </row>
     <row r="251" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D251" s="21"/>
-      <c r="E251" s="26"/>
+      <c r="D251" s="13"/>
+      <c r="E251" s="18"/>
     </row>
     <row r="252" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D252" s="21"/>
-      <c r="E252" s="26"/>
+      <c r="D252" s="13"/>
+      <c r="E252" s="18"/>
     </row>
     <row r="253" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D253" s="21"/>
-      <c r="E253" s="26"/>
+      <c r="D253" s="13"/>
+      <c r="E253" s="18"/>
     </row>
     <row r="254" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D254" s="21"/>
-      <c r="E254" s="26"/>
+      <c r="D254" s="13"/>
+      <c r="E254" s="18"/>
     </row>
     <row r="255" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D255" s="21"/>
-      <c r="E255" s="26"/>
+      <c r="D255" s="13"/>
+      <c r="E255" s="18"/>
     </row>
     <row r="256" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D256" s="21"/>
-      <c r="E256" s="26"/>
+      <c r="D256" s="13"/>
+      <c r="E256" s="18"/>
     </row>
     <row r="257" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D257" s="21"/>
-      <c r="E257" s="26"/>
+      <c r="D257" s="13"/>
+      <c r="E257" s="18"/>
     </row>
     <row r="258" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D258" s="21"/>
-      <c r="E258" s="26"/>
+      <c r="D258" s="13"/>
+      <c r="E258" s="18"/>
     </row>
     <row r="259" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D259" s="21"/>
-      <c r="E259" s="26"/>
+      <c r="D259" s="13"/>
+      <c r="E259" s="18"/>
     </row>
     <row r="260" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D260" s="21"/>
-      <c r="E260" s="26"/>
+      <c r="D260" s="13"/>
+      <c r="E260" s="18"/>
     </row>
     <row r="261" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D261" s="21"/>
-      <c r="E261" s="26"/>
+      <c r="D261" s="13"/>
+      <c r="E261" s="18"/>
     </row>
     <row r="262" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D262" s="21"/>
-      <c r="E262" s="26"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="18"/>
     </row>
     <row r="263" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D263" s="21"/>
-      <c r="E263" s="26"/>
+      <c r="D263" s="13"/>
+      <c r="E263" s="18"/>
     </row>
     <row r="264" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D264" s="21"/>
-      <c r="E264" s="26"/>
+      <c r="D264" s="13"/>
+      <c r="E264" s="18"/>
     </row>
     <row r="265" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D265" s="21"/>
-      <c r="E265" s="26"/>
+      <c r="D265" s="13"/>
+      <c r="E265" s="18"/>
     </row>
     <row r="266" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D266" s="21"/>
-      <c r="E266" s="26"/>
+      <c r="D266" s="13"/>
+      <c r="E266" s="18"/>
     </row>
     <row r="267" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D267" s="21"/>
-      <c r="E267" s="26"/>
+      <c r="D267" s="13"/>
+      <c r="E267" s="18"/>
     </row>
     <row r="268" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D268" s="21"/>
-      <c r="E268" s="26"/>
+      <c r="D268" s="13"/>
+      <c r="E268" s="18"/>
     </row>
     <row r="269" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D269" s="21"/>
-      <c r="E269" s="26"/>
+      <c r="D269" s="13"/>
+      <c r="E269" s="18"/>
     </row>
     <row r="270" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D270" s="21"/>
-      <c r="E270" s="26"/>
+      <c r="D270" s="13"/>
+      <c r="E270" s="18"/>
     </row>
     <row r="271" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D271" s="21"/>
-      <c r="E271" s="26"/>
+      <c r="D271" s="13"/>
+      <c r="E271" s="18"/>
     </row>
     <row r="272" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D272" s="21"/>
-      <c r="E272" s="26"/>
+      <c r="D272" s="13"/>
+      <c r="E272" s="18"/>
     </row>
     <row r="273" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D273" s="21"/>
-      <c r="E273" s="26"/>
+      <c r="D273" s="13"/>
+      <c r="E273" s="18"/>
     </row>
     <row r="274" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D274" s="21"/>
-      <c r="E274" s="26"/>
+      <c r="D274" s="13"/>
+      <c r="E274" s="18"/>
     </row>
     <row r="275" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D275" s="21"/>
-      <c r="E275" s="26"/>
+      <c r="D275" s="13"/>
+      <c r="E275" s="18"/>
     </row>
     <row r="276" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D276" s="21"/>
-      <c r="E276" s="26"/>
+      <c r="D276" s="13"/>
+      <c r="E276" s="18"/>
     </row>
     <row r="277" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D277" s="21"/>
-      <c r="E277" s="26"/>
+      <c r="D277" s="13"/>
+      <c r="E277" s="18"/>
     </row>
     <row r="278" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D278" s="21"/>
-      <c r="E278" s="26"/>
+      <c r="D278" s="13"/>
+      <c r="E278" s="18"/>
     </row>
     <row r="279" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D279" s="21"/>
-      <c r="E279" s="26"/>
+      <c r="D279" s="13"/>
+      <c r="E279" s="18"/>
     </row>
     <row r="280" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D280" s="21"/>
-      <c r="E280" s="26"/>
+      <c r="D280" s="13"/>
+      <c r="E280" s="18"/>
     </row>
     <row r="281" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D281" s="21"/>
-      <c r="E281" s="26"/>
+      <c r="D281" s="13"/>
+      <c r="E281" s="18"/>
     </row>
     <row r="282" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D282" s="21"/>
-      <c r="E282" s="26"/>
+      <c r="D282" s="13"/>
+      <c r="E282" s="18"/>
     </row>
     <row r="283" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D283" s="21"/>
-      <c r="E283" s="26"/>
+      <c r="D283" s="13"/>
+      <c r="E283" s="18"/>
     </row>
     <row r="284" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D284" s="21"/>
-      <c r="E284" s="26"/>
+      <c r="D284" s="13"/>
+      <c r="E284" s="18"/>
     </row>
     <row r="285" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D285" s="21"/>
-      <c r="E285" s="26"/>
+      <c r="D285" s="13"/>
+      <c r="E285" s="18"/>
     </row>
     <row r="286" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D286" s="21"/>
-      <c r="E286" s="26"/>
+      <c r="D286" s="13"/>
+      <c r="E286" s="18"/>
     </row>
     <row r="287" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D287" s="21"/>
-      <c r="E287" s="26"/>
+      <c r="D287" s="13"/>
+      <c r="E287" s="18"/>
     </row>
     <row r="288" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D288" s="21"/>
-      <c r="E288" s="26"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="18"/>
     </row>
     <row r="289" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D289" s="21"/>
-      <c r="E289" s="26"/>
+      <c r="D289" s="13"/>
+      <c r="E289" s="18"/>
     </row>
     <row r="290" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D290" s="21"/>
-      <c r="E290" s="26"/>
+      <c r="D290" s="13"/>
+      <c r="E290" s="18"/>
     </row>
     <row r="291" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D291" s="21"/>
-      <c r="E291" s="26"/>
+      <c r="D291" s="13"/>
+      <c r="E291" s="18"/>
     </row>
     <row r="292" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D292" s="21"/>
-      <c r="E292" s="26"/>
+      <c r="D292" s="13"/>
+      <c r="E292" s="18"/>
     </row>
     <row r="293" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D293" s="21"/>
-      <c r="E293" s="26"/>
+      <c r="D293" s="13"/>
+      <c r="E293" s="18"/>
     </row>
     <row r="294" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D294" s="21"/>
-      <c r="E294" s="26"/>
+      <c r="D294" s="13"/>
+      <c r="E294" s="18"/>
     </row>
     <row r="295" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D295" s="21"/>
-      <c r="E295" s="26"/>
+      <c r="D295" s="13"/>
+      <c r="E295" s="18"/>
     </row>
     <row r="296" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D296" s="21"/>
-      <c r="E296" s="26"/>
+      <c r="D296" s="13"/>
+      <c r="E296" s="18"/>
     </row>
     <row r="297" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D297" s="21"/>
-      <c r="E297" s="26"/>
+      <c r="D297" s="13"/>
+      <c r="E297" s="18"/>
     </row>
     <row r="298" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D298" s="21"/>
-      <c r="E298" s="26"/>
+      <c r="D298" s="13"/>
+      <c r="E298" s="18"/>
     </row>
     <row r="299" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D299" s="21"/>
-      <c r="E299" s="26"/>
+      <c r="D299" s="13"/>
+      <c r="E299" s="18"/>
     </row>
     <row r="300" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D300" s="21"/>
-      <c r="E300" s="26"/>
+      <c r="D300" s="13"/>
+      <c r="E300" s="18"/>
     </row>
     <row r="301" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D301" s="21"/>
-      <c r="E301" s="26"/>
+      <c r="D301" s="13"/>
+      <c r="E301" s="18"/>
     </row>
     <row r="302" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D302" s="21"/>
-      <c r="E302" s="26"/>
+      <c r="D302" s="13"/>
+      <c r="E302" s="18"/>
     </row>
     <row r="303" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D303" s="21"/>
-      <c r="E303" s="26"/>
+      <c r="D303" s="13"/>
+      <c r="E303" s="18"/>
     </row>
     <row r="304" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D304" s="21"/>
-      <c r="E304" s="26"/>
+      <c r="D304" s="13"/>
+      <c r="E304" s="18"/>
     </row>
     <row r="305" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D305" s="21"/>
-      <c r="E305" s="26"/>
+      <c r="D305" s="13"/>
+      <c r="E305" s="18"/>
     </row>
     <row r="306" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D306" s="21"/>
-      <c r="E306" s="26"/>
+      <c r="D306" s="13"/>
+      <c r="E306" s="18"/>
     </row>
     <row r="307" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D307" s="21"/>
-      <c r="E307" s="26"/>
+      <c r="D307" s="13"/>
+      <c r="E307" s="18"/>
     </row>
     <row r="308" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D308" s="21"/>
-      <c r="E308" s="26"/>
+      <c r="D308" s="13"/>
+      <c r="E308" s="18"/>
     </row>
     <row r="309" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D309" s="21"/>
-      <c r="E309" s="26"/>
+      <c r="D309" s="13"/>
+      <c r="E309" s="18"/>
     </row>
     <row r="310" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D310" s="21"/>
-      <c r="E310" s="26"/>
+      <c r="D310" s="13"/>
+      <c r="E310" s="18"/>
     </row>
     <row r="311" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D311" s="21"/>
-      <c r="E311" s="26"/>
+      <c r="D311" s="13"/>
+      <c r="E311" s="18"/>
     </row>
     <row r="312" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D312" s="21"/>
-      <c r="E312" s="26"/>
+      <c r="D312" s="13"/>
+      <c r="E312" s="18"/>
     </row>
     <row r="313" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D313" s="21"/>
-      <c r="E313" s="26"/>
+      <c r="D313" s="13"/>
+      <c r="E313" s="18"/>
     </row>
     <row r="314" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D314" s="21"/>
-      <c r="E314" s="26"/>
+      <c r="D314" s="13"/>
+      <c r="E314" s="18"/>
     </row>
     <row r="315" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D315" s="21"/>
-      <c r="E315" s="26"/>
+      <c r="D315" s="13"/>
+      <c r="E315" s="18"/>
     </row>
     <row r="316" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D316" s="21"/>
-      <c r="E316" s="26"/>
+      <c r="D316" s="13"/>
+      <c r="E316" s="18"/>
     </row>
     <row r="317" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D317" s="21"/>
-      <c r="E317" s="26"/>
+      <c r="D317" s="13"/>
+      <c r="E317" s="18"/>
     </row>
     <row r="318" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D318" s="21"/>
-      <c r="E318" s="26"/>
+      <c r="D318" s="13"/>
+      <c r="E318" s="18"/>
     </row>
     <row r="319" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D319" s="21"/>
-      <c r="E319" s="26"/>
+      <c r="D319" s="13"/>
+      <c r="E319" s="18"/>
     </row>
     <row r="320" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D320" s="21"/>
-      <c r="E320" s="26"/>
+      <c r="D320" s="13"/>
+      <c r="E320" s="18"/>
     </row>
     <row r="321" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D321" s="21"/>
-      <c r="E321" s="26"/>
+      <c r="D321" s="13"/>
+      <c r="E321" s="18"/>
     </row>
     <row r="322" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D322" s="21"/>
-      <c r="E322" s="26"/>
+      <c r="D322" s="13"/>
+      <c r="E322" s="18"/>
     </row>
     <row r="323" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D323" s="21"/>
-      <c r="E323" s="26"/>
+      <c r="D323" s="13"/>
+      <c r="E323" s="18"/>
     </row>
     <row r="324" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D324" s="21"/>
-      <c r="E324" s="26"/>
+      <c r="D324" s="13"/>
+      <c r="E324" s="18"/>
     </row>
     <row r="325" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D325" s="21"/>
-      <c r="E325" s="26"/>
+      <c r="D325" s="13"/>
+      <c r="E325" s="18"/>
     </row>
     <row r="326" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D326" s="21"/>
-      <c r="E326" s="26"/>
+      <c r="D326" s="13"/>
+      <c r="E326" s="18"/>
     </row>
     <row r="327" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D327" s="21"/>
-      <c r="E327" s="26"/>
+      <c r="D327" s="13"/>
+      <c r="E327" s="18"/>
     </row>
     <row r="328" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D328" s="21"/>
-      <c r="E328" s="26"/>
+      <c r="D328" s="13"/>
+      <c r="E328" s="18"/>
     </row>
     <row r="329" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D329" s="21"/>
-      <c r="E329" s="26"/>
+      <c r="D329" s="13"/>
+      <c r="E329" s="18"/>
     </row>
     <row r="330" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D330" s="21"/>
-      <c r="E330" s="26"/>
+      <c r="D330" s="13"/>
+      <c r="E330" s="18"/>
     </row>
     <row r="331" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D331" s="21"/>
-      <c r="E331" s="26"/>
+      <c r="D331" s="13"/>
+      <c r="E331" s="18"/>
     </row>
     <row r="332" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D332" s="21"/>
-      <c r="E332" s="26"/>
+      <c r="D332" s="13"/>
+      <c r="E332" s="18"/>
     </row>
     <row r="333" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D333" s="21"/>
-      <c r="E333" s="26"/>
+      <c r="D333" s="13"/>
+      <c r="E333" s="18"/>
     </row>
     <row r="334" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D334" s="21"/>
-      <c r="E334" s="26"/>
+      <c r="D334" s="13"/>
+      <c r="E334" s="18"/>
     </row>
     <row r="335" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D335" s="21"/>
-      <c r="E335" s="26"/>
+      <c r="D335" s="13"/>
+      <c r="E335" s="18"/>
     </row>
     <row r="336" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D336" s="21"/>
-      <c r="E336" s="26"/>
+      <c r="D336" s="13"/>
+      <c r="E336" s="18"/>
     </row>
     <row r="337" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D337" s="21"/>
-      <c r="E337" s="26"/>
+      <c r="D337" s="13"/>
+      <c r="E337" s="18"/>
     </row>
     <row r="338" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D338" s="21"/>
-      <c r="E338" s="26"/>
+      <c r="D338" s="13"/>
+      <c r="E338" s="18"/>
     </row>
     <row r="339" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D339" s="21"/>
-      <c r="E339" s="26"/>
+      <c r="D339" s="13"/>
+      <c r="E339" s="18"/>
     </row>
     <row r="340" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D340" s="21"/>
-      <c r="E340" s="26"/>
+      <c r="D340" s="13"/>
+      <c r="E340" s="18"/>
     </row>
     <row r="341" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D341" s="21"/>
-      <c r="E341" s="26"/>
+      <c r="D341" s="13"/>
+      <c r="E341" s="18"/>
     </row>
     <row r="342" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D342" s="21"/>
-      <c r="E342" s="26"/>
+      <c r="D342" s="13"/>
+      <c r="E342" s="18"/>
     </row>
     <row r="343" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D343" s="21"/>
-      <c r="E343" s="26"/>
+      <c r="D343" s="13"/>
+      <c r="E343" s="18"/>
     </row>
     <row r="344" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D344" s="21"/>
-      <c r="E344" s="26"/>
+      <c r="D344" s="13"/>
+      <c r="E344" s="18"/>
     </row>
     <row r="345" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D345" s="21"/>
-      <c r="E345" s="26"/>
+      <c r="D345" s="13"/>
+      <c r="E345" s="18"/>
     </row>
     <row r="346" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D346" s="21"/>
-      <c r="E346" s="26"/>
+      <c r="D346" s="13"/>
+      <c r="E346" s="18"/>
     </row>
     <row r="347" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D347" s="21"/>
-      <c r="E347" s="26"/>
+      <c r="D347" s="13"/>
+      <c r="E347" s="18"/>
     </row>
     <row r="348" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D348" s="21"/>
-      <c r="E348" s="26"/>
+      <c r="D348" s="13"/>
+      <c r="E348" s="18"/>
     </row>
     <row r="349" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D349" s="21"/>
-      <c r="E349" s="26"/>
+      <c r="D349" s="13"/>
+      <c r="E349" s="18"/>
     </row>
     <row r="350" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D350" s="21"/>
-      <c r="E350" s="26"/>
+      <c r="D350" s="13"/>
+      <c r="E350" s="18"/>
     </row>
     <row r="351" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D351" s="21"/>
-      <c r="E351" s="26"/>
+      <c r="D351" s="13"/>
+      <c r="E351" s="18"/>
     </row>
     <row r="352" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D352" s="21"/>
-      <c r="E352" s="26"/>
+      <c r="D352" s="13"/>
+      <c r="E352" s="18"/>
     </row>
     <row r="353" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D353" s="21"/>
-      <c r="E353" s="26"/>
+      <c r="D353" s="13"/>
+      <c r="E353" s="18"/>
     </row>
     <row r="354" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D354" s="21"/>
-      <c r="E354" s="26"/>
+      <c r="D354" s="13"/>
+      <c r="E354" s="18"/>
     </row>
     <row r="355" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D355" s="21"/>
-      <c r="E355" s="26"/>
+      <c r="D355" s="13"/>
+      <c r="E355" s="18"/>
     </row>
     <row r="356" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D356" s="21"/>
-      <c r="E356" s="26"/>
+      <c r="D356" s="13"/>
+      <c r="E356" s="18"/>
     </row>
     <row r="357" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D357" s="21"/>
-      <c r="E357" s="26"/>
+      <c r="D357" s="13"/>
+      <c r="E357" s="18"/>
     </row>
     <row r="358" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D358" s="21"/>
-      <c r="E358" s="26"/>
+      <c r="D358" s="13"/>
+      <c r="E358" s="18"/>
     </row>
     <row r="359" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D359" s="21"/>
-      <c r="E359" s="26"/>
+      <c r="D359" s="13"/>
+      <c r="E359" s="18"/>
     </row>
     <row r="360" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D360" s="21"/>
-      <c r="E360" s="26"/>
+      <c r="D360" s="13"/>
+      <c r="E360" s="18"/>
     </row>
     <row r="361" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D361" s="21"/>
-      <c r="E361" s="26"/>
+      <c r="D361" s="13"/>
+      <c r="E361" s="18"/>
     </row>
     <row r="362" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D362" s="21"/>
-      <c r="E362" s="26"/>
+      <c r="D362" s="13"/>
+      <c r="E362" s="18"/>
     </row>
     <row r="363" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D363" s="21"/>
-      <c r="E363" s="26"/>
+      <c r="D363" s="13"/>
+      <c r="E363" s="18"/>
     </row>
     <row r="364" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D364" s="21"/>
-      <c r="E364" s="26"/>
+      <c r="D364" s="13"/>
+      <c r="E364" s="18"/>
     </row>
     <row r="365" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D365" s="21"/>
-      <c r="E365" s="26"/>
+      <c r="D365" s="13"/>
+      <c r="E365" s="18"/>
     </row>
     <row r="366" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D366" s="21"/>
-      <c r="E366" s="26"/>
+      <c r="D366" s="13"/>
+      <c r="E366" s="18"/>
     </row>
     <row r="367" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D367" s="21"/>
-      <c r="E367" s="26"/>
+      <c r="D367" s="13"/>
+      <c r="E367" s="18"/>
     </row>
     <row r="368" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D368" s="21"/>
-      <c r="E368" s="26"/>
+      <c r="D368" s="13"/>
+      <c r="E368" s="18"/>
     </row>
     <row r="369" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D369" s="21"/>
-      <c r="E369" s="26"/>
+      <c r="D369" s="13"/>
+      <c r="E369" s="18"/>
     </row>
     <row r="370" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D370" s="21"/>
-      <c r="E370" s="26"/>
+      <c r="D370" s="13"/>
+      <c r="E370" s="18"/>
     </row>
     <row r="371" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D371" s="21"/>
-      <c r="E371" s="26"/>
+      <c r="D371" s="13"/>
+      <c r="E371" s="18"/>
     </row>
     <row r="372" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D372" s="21"/>
-      <c r="E372" s="26"/>
+      <c r="D372" s="13"/>
+      <c r="E372" s="18"/>
     </row>
     <row r="373" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D373" s="21"/>
-      <c r="E373" s="26"/>
+      <c r="D373" s="13"/>
+      <c r="E373" s="18"/>
     </row>
     <row r="374" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D374" s="21"/>
-      <c r="E374" s="26"/>
+      <c r="D374" s="13"/>
+      <c r="E374" s="18"/>
     </row>
     <row r="375" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D375" s="21"/>
-      <c r="E375" s="26"/>
+      <c r="D375" s="13"/>
+      <c r="E375" s="18"/>
     </row>
     <row r="376" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D376" s="21"/>
-      <c r="E376" s="26"/>
+      <c r="D376" s="13"/>
+      <c r="E376" s="18"/>
     </row>
     <row r="377" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D377" s="21"/>
-      <c r="E377" s="26"/>
+      <c r="D377" s="13"/>
+      <c r="E377" s="18"/>
     </row>
     <row r="378" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D378" s="21"/>
-      <c r="E378" s="26"/>
+      <c r="D378" s="13"/>
+      <c r="E378" s="18"/>
     </row>
     <row r="379" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D379" s="21"/>
-      <c r="E379" s="26"/>
+      <c r="D379" s="13"/>
+      <c r="E379" s="18"/>
     </row>
     <row r="380" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D380" s="21"/>
-      <c r="E380" s="26"/>
+      <c r="D380" s="13"/>
+      <c r="E380" s="18"/>
     </row>
     <row r="381" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D381" s="21"/>
-      <c r="E381" s="26"/>
+      <c r="D381" s="13"/>
+      <c r="E381" s="18"/>
     </row>
     <row r="382" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D382" s="21"/>
-      <c r="E382" s="26"/>
+      <c r="D382" s="13"/>
+      <c r="E382" s="18"/>
     </row>
     <row r="383" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D383" s="21"/>
-      <c r="E383" s="26"/>
+      <c r="D383" s="13"/>
+      <c r="E383" s="18"/>
     </row>
     <row r="384" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D384" s="21"/>
-      <c r="E384" s="26"/>
+      <c r="D384" s="13"/>
+      <c r="E384" s="18"/>
     </row>
     <row r="385" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D385" s="21"/>
-      <c r="E385" s="26"/>
+      <c r="D385" s="13"/>
+      <c r="E385" s="18"/>
     </row>
     <row r="386" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D386" s="21"/>
-      <c r="E386" s="26"/>
+      <c r="D386" s="13"/>
+      <c r="E386" s="18"/>
     </row>
     <row r="387" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D387" s="21"/>
-      <c r="E387" s="26"/>
+      <c r="D387" s="13"/>
+      <c r="E387" s="18"/>
     </row>
     <row r="388" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D388" s="21"/>
-      <c r="E388" s="26"/>
+      <c r="D388" s="13"/>
+      <c r="E388" s="18"/>
     </row>
     <row r="389" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D389" s="21"/>
-      <c r="E389" s="26"/>
+      <c r="D389" s="13"/>
+      <c r="E389" s="18"/>
     </row>
     <row r="390" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D390" s="21"/>
-      <c r="E390" s="26"/>
+      <c r="D390" s="13"/>
+      <c r="E390" s="18"/>
     </row>
     <row r="391" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D391" s="21"/>
-      <c r="E391" s="26"/>
+      <c r="D391" s="13"/>
+      <c r="E391" s="18"/>
     </row>
     <row r="392" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D392" s="21"/>
-      <c r="E392" s="26"/>
+      <c r="D392" s="13"/>
+      <c r="E392" s="18"/>
     </row>
     <row r="393" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D393" s="21"/>
-      <c r="E393" s="26"/>
+      <c r="D393" s="13"/>
+      <c r="E393" s="18"/>
     </row>
     <row r="394" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D394" s="21"/>
-      <c r="E394" s="26"/>
+      <c r="D394" s="13"/>
+      <c r="E394" s="18"/>
     </row>
     <row r="395" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D395" s="21"/>
-      <c r="E395" s="26"/>
+      <c r="D395" s="13"/>
+      <c r="E395" s="18"/>
     </row>
     <row r="396" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D396" s="21"/>
-      <c r="E396" s="26"/>
+      <c r="D396" s="13"/>
+      <c r="E396" s="18"/>
     </row>
     <row r="397" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D397" s="21"/>
-      <c r="E397" s="26"/>
+      <c r="D397" s="13"/>
+      <c r="E397" s="18"/>
     </row>
     <row r="398" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D398" s="21"/>
-      <c r="E398" s="26"/>
+      <c r="D398" s="13"/>
+      <c r="E398" s="18"/>
     </row>
     <row r="399" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D399" s="21"/>
-      <c r="E399" s="26"/>
+      <c r="D399" s="13"/>
+      <c r="E399" s="18"/>
     </row>
     <row r="400" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D400" s="21"/>
-      <c r="E400" s="26"/>
+      <c r="D400" s="13"/>
+      <c r="E400" s="18"/>
     </row>
     <row r="401" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D401" s="21"/>
-      <c r="E401" s="26"/>
+      <c r="D401" s="13"/>
+      <c r="E401" s="18"/>
     </row>
     <row r="402" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D402" s="21"/>
-      <c r="E402" s="26"/>
+      <c r="D402" s="13"/>
+      <c r="E402" s="18"/>
     </row>
     <row r="403" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D403" s="21"/>
-      <c r="E403" s="26"/>
+      <c r="D403" s="13"/>
+      <c r="E403" s="18"/>
     </row>
     <row r="404" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D404" s="21"/>
-      <c r="E404" s="26"/>
+      <c r="D404" s="13"/>
+      <c r="E404" s="18"/>
     </row>
     <row r="405" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D405" s="21"/>
-      <c r="E405" s="26"/>
+      <c r="D405" s="13"/>
+      <c r="E405" s="18"/>
     </row>
     <row r="406" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D406" s="21"/>
-      <c r="E406" s="26"/>
+      <c r="D406" s="13"/>
+      <c r="E406" s="18"/>
     </row>
     <row r="407" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D407" s="21"/>
-      <c r="E407" s="26"/>
+      <c r="D407" s="13"/>
+      <c r="E407" s="18"/>
     </row>
     <row r="408" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D408" s="21"/>
-      <c r="E408" s="26"/>
+      <c r="D408" s="13"/>
+      <c r="E408" s="18"/>
     </row>
     <row r="409" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D409" s="21"/>
-      <c r="E409" s="26"/>
+      <c r="D409" s="13"/>
+      <c r="E409" s="18"/>
     </row>
     <row r="410" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D410" s="21"/>
-      <c r="E410" s="26"/>
+      <c r="D410" s="13"/>
+      <c r="E410" s="18"/>
     </row>
     <row r="411" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D411" s="21"/>
-      <c r="E411" s="26"/>
+      <c r="D411" s="13"/>
+      <c r="E411" s="18"/>
     </row>
     <row r="412" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D412" s="21"/>
-      <c r="E412" s="26"/>
+      <c r="D412" s="13"/>
+      <c r="E412" s="18"/>
     </row>
     <row r="413" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D413" s="21"/>
-      <c r="E413" s="26"/>
+      <c r="D413" s="13"/>
+      <c r="E413" s="18"/>
     </row>
     <row r="414" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D414" s="21"/>
-      <c r="E414" s="26"/>
+      <c r="D414" s="13"/>
+      <c r="E414" s="18"/>
     </row>
     <row r="415" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D415" s="21"/>
-      <c r="E415" s="26"/>
+      <c r="D415" s="13"/>
+      <c r="E415" s="18"/>
     </row>
     <row r="416" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D416" s="21"/>
-      <c r="E416" s="26"/>
+      <c r="D416" s="13"/>
+      <c r="E416" s="18"/>
     </row>
     <row r="417" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D417" s="21"/>
-      <c r="E417" s="26"/>
+      <c r="D417" s="13"/>
+      <c r="E417" s="18"/>
     </row>
     <row r="418" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D418" s="21"/>
-      <c r="E418" s="26"/>
+      <c r="D418" s="13"/>
+      <c r="E418" s="18"/>
     </row>
     <row r="419" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D419" s="21"/>
-      <c r="E419" s="26"/>
+      <c r="D419" s="13"/>
+      <c r="E419" s="18"/>
     </row>
     <row r="420" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D420" s="21"/>
-      <c r="E420" s="26"/>
+      <c r="D420" s="13"/>
+      <c r="E420" s="18"/>
     </row>
     <row r="421" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D421" s="21"/>
-      <c r="E421" s="26"/>
+      <c r="D421" s="13"/>
+      <c r="E421" s="18"/>
     </row>
     <row r="422" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D422" s="21"/>
-      <c r="E422" s="26"/>
+      <c r="D422" s="13"/>
+      <c r="E422" s="18"/>
     </row>
     <row r="423" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D423" s="21"/>
-      <c r="E423" s="26"/>
+      <c r="D423" s="13"/>
+      <c r="E423" s="18"/>
     </row>
     <row r="424" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D424" s="21"/>
-      <c r="E424" s="26"/>
+      <c r="D424" s="13"/>
+      <c r="E424" s="18"/>
     </row>
     <row r="425" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D425" s="21"/>
-      <c r="E425" s="26"/>
+      <c r="D425" s="13"/>
+      <c r="E425" s="18"/>
     </row>
     <row r="426" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D426" s="21"/>
-      <c r="E426" s="26"/>
+      <c r="D426" s="13"/>
+      <c r="E426" s="18"/>
     </row>
     <row r="427" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D427" s="21"/>
-      <c r="E427" s="26"/>
+      <c r="D427" s="13"/>
+      <c r="E427" s="18"/>
     </row>
     <row r="428" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D428" s="21"/>
-      <c r="E428" s="26"/>
+      <c r="D428" s="13"/>
+      <c r="E428" s="18"/>
     </row>
     <row r="429" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D429" s="21"/>
-      <c r="E429" s="26"/>
+      <c r="D429" s="13"/>
+      <c r="E429" s="18"/>
     </row>
     <row r="430" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D430" s="21"/>
-      <c r="E430" s="26"/>
+      <c r="D430" s="13"/>
+      <c r="E430" s="18"/>
     </row>
     <row r="431" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D431" s="21"/>
-      <c r="E431" s="26"/>
+      <c r="D431" s="13"/>
+      <c r="E431" s="18"/>
     </row>
     <row r="432" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D432" s="21"/>
-      <c r="E432" s="26"/>
+      <c r="D432" s="13"/>
+      <c r="E432" s="18"/>
     </row>
     <row r="433" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D433" s="21"/>
-      <c r="E433" s="26"/>
+      <c r="D433" s="13"/>
+      <c r="E433" s="18"/>
     </row>
     <row r="434" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D434" s="21"/>
-      <c r="E434" s="26"/>
+      <c r="D434" s="13"/>
+      <c r="E434" s="18"/>
     </row>
     <row r="435" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D435" s="21"/>
-      <c r="E435" s="26"/>
+      <c r="D435" s="13"/>
+      <c r="E435" s="18"/>
     </row>
     <row r="436" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D436" s="21"/>
-      <c r="E436" s="26"/>
+      <c r="D436" s="13"/>
+      <c r="E436" s="18"/>
     </row>
     <row r="437" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D437" s="21"/>
-      <c r="E437" s="26"/>
+      <c r="D437" s="13"/>
+      <c r="E437" s="18"/>
     </row>
     <row r="438" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D438" s="21"/>
-      <c r="E438" s="26"/>
+      <c r="D438" s="13"/>
+      <c r="E438" s="18"/>
     </row>
     <row r="439" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D439" s="21"/>
-      <c r="E439" s="26"/>
+      <c r="D439" s="13"/>
+      <c r="E439" s="18"/>
     </row>
     <row r="440" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D440" s="21"/>
-      <c r="E440" s="26"/>
+      <c r="D440" s="13"/>
+      <c r="E440" s="18"/>
     </row>
     <row r="441" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D441" s="21"/>
-      <c r="E441" s="26"/>
+      <c r="D441" s="13"/>
+      <c r="E441" s="18"/>
     </row>
     <row r="442" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D442" s="21"/>
-      <c r="E442" s="26"/>
+      <c r="D442" s="13"/>
+      <c r="E442" s="18"/>
     </row>
     <row r="443" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D443" s="21"/>
-      <c r="E443" s="26"/>
+      <c r="D443" s="13"/>
+      <c r="E443" s="18"/>
     </row>
     <row r="444" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D444" s="21"/>
-      <c r="E444" s="26"/>
+      <c r="D444" s="13"/>
+      <c r="E444" s="18"/>
     </row>
     <row r="445" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D445" s="21"/>
-      <c r="E445" s="26"/>
+      <c r="D445" s="13"/>
+      <c r="E445" s="18"/>
     </row>
     <row r="446" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D446" s="21"/>
-      <c r="E446" s="26"/>
+      <c r="D446" s="13"/>
+      <c r="E446" s="18"/>
     </row>
     <row r="447" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D447" s="21"/>
-      <c r="E447" s="26"/>
+      <c r="D447" s="13"/>
+      <c r="E447" s="18"/>
     </row>
     <row r="448" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D448" s="21"/>
-      <c r="E448" s="26"/>
+      <c r="D448" s="13"/>
+      <c r="E448" s="18"/>
     </row>
     <row r="449" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D449" s="21"/>
-      <c r="E449" s="26"/>
+      <c r="D449" s="13"/>
+      <c r="E449" s="18"/>
     </row>
     <row r="450" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D450" s="21"/>
-      <c r="E450" s="26"/>
+      <c r="D450" s="13"/>
+      <c r="E450" s="18"/>
     </row>
     <row r="451" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D451" s="21"/>
-      <c r="E451" s="26"/>
+      <c r="D451" s="13"/>
+      <c r="E451" s="18"/>
     </row>
     <row r="452" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D452" s="21"/>
-      <c r="E452" s="26"/>
+      <c r="D452" s="13"/>
+      <c r="E452" s="18"/>
     </row>
     <row r="453" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D453" s="21"/>
-      <c r="E453" s="26"/>
+      <c r="D453" s="13"/>
+      <c r="E453" s="18"/>
     </row>
     <row r="454" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D454" s="21"/>
-      <c r="E454" s="26"/>
+      <c r="D454" s="13"/>
+      <c r="E454" s="18"/>
     </row>
     <row r="455" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D455" s="21"/>
-      <c r="E455" s="26"/>
+      <c r="D455" s="13"/>
+      <c r="E455" s="18"/>
     </row>
     <row r="456" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D456" s="21"/>
-      <c r="E456" s="26"/>
+      <c r="D456" s="13"/>
+      <c r="E456" s="18"/>
     </row>
     <row r="457" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D457" s="21"/>
-      <c r="E457" s="26"/>
+      <c r="D457" s="13"/>
+      <c r="E457" s="18"/>
     </row>
     <row r="458" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D458" s="21"/>
-      <c r="E458" s="26"/>
+      <c r="D458" s="13"/>
+      <c r="E458" s="18"/>
     </row>
     <row r="459" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D459" s="21"/>
-      <c r="E459" s="26"/>
+      <c r="D459" s="13"/>
+      <c r="E459" s="18"/>
     </row>
     <row r="460" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D460" s="21"/>
-      <c r="E460" s="26"/>
+      <c r="D460" s="13"/>
+      <c r="E460" s="18"/>
     </row>
     <row r="461" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D461" s="21"/>
-      <c r="E461" s="26"/>
+      <c r="D461" s="13"/>
+      <c r="E461" s="18"/>
     </row>
     <row r="462" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D462" s="21"/>
-      <c r="E462" s="26"/>
+      <c r="D462" s="13"/>
+      <c r="E462" s="18"/>
     </row>
     <row r="463" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D463" s="21"/>
-      <c r="E463" s="26"/>
+      <c r="D463" s="13"/>
+      <c r="E463" s="18"/>
     </row>
     <row r="464" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D464" s="21"/>
-      <c r="E464" s="26"/>
+      <c r="D464" s="13"/>
+      <c r="E464" s="18"/>
     </row>
     <row r="465" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D465" s="21"/>
-      <c r="E465" s="26"/>
+      <c r="D465" s="13"/>
+      <c r="E465" s="18"/>
     </row>
     <row r="466" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D466" s="21"/>
-      <c r="E466" s="26"/>
+      <c r="D466" s="13"/>
+      <c r="E466" s="18"/>
     </row>
     <row r="467" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D467" s="21"/>
-      <c r="E467" s="26"/>
+      <c r="D467" s="13"/>
+      <c r="E467" s="18"/>
     </row>
     <row r="468" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D468" s="21"/>
-      <c r="E468" s="26"/>
+      <c r="D468" s="13"/>
+      <c r="E468" s="18"/>
     </row>
     <row r="469" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D469" s="21"/>
-      <c r="E469" s="26"/>
+      <c r="D469" s="13"/>
+      <c r="E469" s="18"/>
     </row>
     <row r="470" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D470" s="21"/>
-      <c r="E470" s="26"/>
+      <c r="D470" s="13"/>
+      <c r="E470" s="18"/>
     </row>
     <row r="471" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D471" s="21"/>
-      <c r="E471" s="26"/>
+      <c r="D471" s="13"/>
+      <c r="E471" s="18"/>
     </row>
     <row r="472" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D472" s="21"/>
-      <c r="E472" s="26"/>
+      <c r="D472" s="13"/>
+      <c r="E472" s="18"/>
     </row>
     <row r="473" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D473" s="21"/>
-      <c r="E473" s="26"/>
+      <c r="D473" s="13"/>
+      <c r="E473" s="18"/>
     </row>
     <row r="474" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D474" s="21"/>
-      <c r="E474" s="26"/>
+      <c r="D474" s="13"/>
+      <c r="E474" s="18"/>
     </row>
     <row r="475" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D475" s="21"/>
-      <c r="E475" s="26"/>
+      <c r="D475" s="13"/>
+      <c r="E475" s="18"/>
     </row>
     <row r="476" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D476" s="21"/>
-      <c r="E476" s="26"/>
+      <c r="D476" s="13"/>
+      <c r="E476" s="18"/>
     </row>
     <row r="477" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D477" s="21"/>
-      <c r="E477" s="26"/>
+      <c r="D477" s="13"/>
+      <c r="E477" s="18"/>
     </row>
     <row r="478" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D478" s="21"/>
-      <c r="E478" s="26"/>
+      <c r="D478" s="13"/>
+      <c r="E478" s="18"/>
     </row>
     <row r="479" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D479" s="21"/>
-      <c r="E479" s="26"/>
+      <c r="D479" s="13"/>
+      <c r="E479" s="18"/>
     </row>
     <row r="480" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D480" s="21"/>
-      <c r="E480" s="26"/>
+      <c r="D480" s="13"/>
+      <c r="E480" s="18"/>
     </row>
     <row r="481" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D481" s="21"/>
-      <c r="E481" s="26"/>
+      <c r="D481" s="13"/>
+      <c r="E481" s="18"/>
     </row>
     <row r="482" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D482" s="21"/>
-      <c r="E482" s="26"/>
+      <c r="D482" s="13"/>
+      <c r="E482" s="18"/>
     </row>
     <row r="483" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D483" s="21"/>
-      <c r="E483" s="26"/>
+      <c r="D483" s="13"/>
+      <c r="E483" s="18"/>
     </row>
     <row r="484" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D484" s="21"/>
-      <c r="E484" s="26"/>
+      <c r="D484" s="13"/>
+      <c r="E484" s="18"/>
     </row>
     <row r="485" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D485" s="21"/>
-      <c r="E485" s="26"/>
+      <c r="D485" s="13"/>
+      <c r="E485" s="18"/>
     </row>
     <row r="486" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D486" s="21"/>
-      <c r="E486" s="26"/>
+      <c r="D486" s="13"/>
+      <c r="E486" s="18"/>
     </row>
     <row r="487" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D487" s="21"/>
-      <c r="E487" s="26"/>
+      <c r="D487" s="13"/>
+      <c r="E487" s="18"/>
     </row>
     <row r="488" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D488" s="21"/>
-      <c r="E488" s="26"/>
+      <c r="D488" s="13"/>
+      <c r="E488" s="18"/>
     </row>
     <row r="489" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D489" s="21"/>
-      <c r="E489" s="26"/>
+      <c r="D489" s="13"/>
+      <c r="E489" s="18"/>
     </row>
     <row r="490" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D490" s="21"/>
-      <c r="E490" s="26"/>
+      <c r="D490" s="13"/>
+      <c r="E490" s="18"/>
     </row>
     <row r="491" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D491" s="21"/>
-      <c r="E491" s="26"/>
+      <c r="D491" s="13"/>
+      <c r="E491" s="18"/>
     </row>
     <row r="492" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D492" s="21"/>
-      <c r="E492" s="26"/>
+      <c r="D492" s="13"/>
+      <c r="E492" s="18"/>
     </row>
     <row r="493" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D493" s="21"/>
-      <c r="E493" s="26"/>
+      <c r="D493" s="13"/>
+      <c r="E493" s="18"/>
     </row>
     <row r="494" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D494" s="21"/>
-      <c r="E494" s="26"/>
+      <c r="D494" s="13"/>
+      <c r="E494" s="18"/>
     </row>
     <row r="495" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D495" s="21"/>
-      <c r="E495" s="26"/>
+      <c r="D495" s="13"/>
+      <c r="E495" s="18"/>
     </row>
     <row r="496" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D496" s="21"/>
-      <c r="E496" s="26"/>
+      <c r="D496" s="13"/>
+      <c r="E496" s="18"/>
     </row>
     <row r="497" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D497" s="21"/>
-      <c r="E497" s="26"/>
+      <c r="D497" s="13"/>
+      <c r="E497" s="18"/>
     </row>
     <row r="498" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D498" s="21"/>
-      <c r="E498" s="26"/>
+      <c r="D498" s="13"/>
+      <c r="E498" s="18"/>
     </row>
     <row r="499" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D499" s="21"/>
-      <c r="E499" s="26"/>
+      <c r="D499" s="13"/>
+      <c r="E499" s="18"/>
     </row>
     <row r="500" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D500" s="21"/>
-      <c r="E500" s="26"/>
+      <c r="D500" s="13"/>
+      <c r="E500" s="18"/>
     </row>
     <row r="501" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D501" s="21"/>
-      <c r="E501" s="26"/>
+      <c r="D501" s="13"/>
+      <c r="E501" s="18"/>
     </row>
     <row r="502" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D502" s="21"/>
-      <c r="E502" s="26"/>
+      <c r="D502" s="13"/>
+      <c r="E502" s="18"/>
     </row>
     <row r="503" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D503" s="21"/>
-      <c r="E503" s="26"/>
+      <c r="D503" s="13"/>
+      <c r="E503" s="18"/>
     </row>
     <row r="504" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D504" s="21"/>
-      <c r="E504" s="26"/>
+      <c r="D504" s="13"/>
+      <c r="E504" s="18"/>
     </row>
     <row r="505" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D505" s="21"/>
-      <c r="E505" s="26"/>
+      <c r="D505" s="13"/>
+      <c r="E505" s="18"/>
     </row>
     <row r="506" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D506" s="21"/>
-      <c r="E506" s="26"/>
+      <c r="D506" s="13"/>
+      <c r="E506" s="18"/>
     </row>
     <row r="507" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D507" s="21"/>
-      <c r="E507" s="26"/>
+      <c r="D507" s="13"/>
+      <c r="E507" s="18"/>
     </row>
     <row r="508" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D508" s="21"/>
-      <c r="E508" s="26"/>
+      <c r="D508" s="13"/>
+      <c r="E508" s="18"/>
     </row>
     <row r="509" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D509" s="21"/>
-      <c r="E509" s="26"/>
+      <c r="D509" s="13"/>
+      <c r="E509" s="18"/>
     </row>
     <row r="510" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D510" s="21"/>
-      <c r="E510" s="26"/>
+      <c r="D510" s="13"/>
+      <c r="E510" s="18"/>
     </row>
     <row r="511" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D511" s="21"/>
-      <c r="E511" s="26"/>
+      <c r="D511" s="13"/>
+      <c r="E511" s="18"/>
     </row>
     <row r="512" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D512" s="21"/>
-      <c r="E512" s="26"/>
+      <c r="D512" s="13"/>
+      <c r="E512" s="18"/>
     </row>
     <row r="513" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D513" s="21"/>
-      <c r="E513" s="26"/>
+      <c r="D513" s="13"/>
+      <c r="E513" s="18"/>
     </row>
     <row r="514" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D514" s="21"/>
-      <c r="E514" s="26"/>
+      <c r="D514" s="13"/>
+      <c r="E514" s="18"/>
     </row>
     <row r="515" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D515" s="21"/>
-      <c r="E515" s="26"/>
+      <c r="D515" s="13"/>
+      <c r="E515" s="18"/>
     </row>
     <row r="516" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D516" s="21"/>
-      <c r="E516" s="26"/>
+      <c r="D516" s="13"/>
+      <c r="E516" s="18"/>
     </row>
     <row r="517" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D517" s="21"/>
-      <c r="E517" s="26"/>
+      <c r="D517" s="13"/>
+      <c r="E517" s="18"/>
     </row>
     <row r="518" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D518" s="21"/>
-      <c r="E518" s="26"/>
+      <c r="D518" s="13"/>
+      <c r="E518" s="18"/>
     </row>
     <row r="519" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D519" s="21"/>
-      <c r="E519" s="26"/>
+      <c r="D519" s="13"/>
+      <c r="E519" s="18"/>
     </row>
     <row r="520" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D520" s="21"/>
-      <c r="E520" s="26"/>
+      <c r="D520" s="13"/>
+      <c r="E520" s="18"/>
     </row>
     <row r="521" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D521" s="21"/>
-      <c r="E521" s="26"/>
+      <c r="D521" s="13"/>
+      <c r="E521" s="18"/>
     </row>
     <row r="522" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D522" s="21"/>
-      <c r="E522" s="26"/>
+      <c r="D522" s="13"/>
+      <c r="E522" s="18"/>
     </row>
     <row r="523" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D523" s="21"/>
-      <c r="E523" s="26"/>
+      <c r="D523" s="13"/>
+      <c r="E523" s="18"/>
     </row>
     <row r="524" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D524" s="21"/>
-      <c r="E524" s="26"/>
+      <c r="D524" s="13"/>
+      <c r="E524" s="18"/>
     </row>
     <row r="525" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D525" s="21"/>
-      <c r="E525" s="26"/>
+      <c r="D525" s="13"/>
+      <c r="E525" s="18"/>
     </row>
     <row r="526" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D526" s="21"/>
-      <c r="E526" s="26"/>
+      <c r="D526" s="13"/>
+      <c r="E526" s="18"/>
     </row>
     <row r="527" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D527" s="21"/>
-      <c r="E527" s="26"/>
+      <c r="D527" s="13"/>
+      <c r="E527" s="18"/>
     </row>
     <row r="528" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D528" s="21"/>
-      <c r="E528" s="26"/>
+      <c r="D528" s="13"/>
+      <c r="E528" s="18"/>
     </row>
     <row r="529" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D529" s="21"/>
-      <c r="E529" s="26"/>
+      <c r="D529" s="13"/>
+      <c r="E529" s="18"/>
     </row>
     <row r="530" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D530" s="21"/>
-      <c r="E530" s="26"/>
+      <c r="D530" s="13"/>
+      <c r="E530" s="18"/>
     </row>
     <row r="531" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D531" s="21"/>
-      <c r="E531" s="26"/>
+      <c r="D531" s="13"/>
+      <c r="E531" s="18"/>
     </row>
     <row r="532" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D532" s="21"/>
-      <c r="E532" s="26"/>
+      <c r="D532" s="13"/>
+      <c r="E532" s="18"/>
     </row>
     <row r="533" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D533" s="21"/>
-      <c r="E533" s="26"/>
+      <c r="D533" s="13"/>
+      <c r="E533" s="18"/>
     </row>
     <row r="534" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D534" s="21"/>
-      <c r="E534" s="26"/>
+      <c r="D534" s="13"/>
+      <c r="E534" s="18"/>
     </row>
     <row r="535" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D535" s="21"/>
-      <c r="E535" s="26"/>
+      <c r="D535" s="13"/>
+      <c r="E535" s="18"/>
     </row>
     <row r="536" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D536" s="21"/>
-      <c r="E536" s="26"/>
+      <c r="D536" s="13"/>
+      <c r="E536" s="18"/>
     </row>
     <row r="537" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D537" s="21"/>
-      <c r="E537" s="26"/>
+      <c r="D537" s="13"/>
+      <c r="E537" s="18"/>
     </row>
     <row r="538" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D538" s="21"/>
-      <c r="E538" s="26"/>
+      <c r="D538" s="13"/>
+      <c r="E538" s="18"/>
     </row>
     <row r="539" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D539" s="21"/>
-      <c r="E539" s="26"/>
+      <c r="D539" s="13"/>
+      <c r="E539" s="18"/>
     </row>
     <row r="540" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D540" s="21"/>
-      <c r="E540" s="26"/>
+      <c r="D540" s="13"/>
+      <c r="E540" s="18"/>
     </row>
     <row r="541" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D541" s="21"/>
-      <c r="E541" s="26"/>
+      <c r="D541" s="13"/>
+      <c r="E541" s="18"/>
     </row>
     <row r="542" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D542" s="21"/>
-      <c r="E542" s="26"/>
+      <c r="D542" s="13"/>
+      <c r="E542" s="18"/>
     </row>
     <row r="543" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D543" s="21"/>
-      <c r="E543" s="26"/>
+      <c r="D543" s="13"/>
+      <c r="E543" s="18"/>
     </row>
     <row r="544" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D544" s="21"/>
-      <c r="E544" s="26"/>
+      <c r="D544" s="13"/>
+      <c r="E544" s="18"/>
     </row>
     <row r="545" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D545" s="21"/>
-      <c r="E545" s="26"/>
+      <c r="D545" s="13"/>
+      <c r="E545" s="18"/>
     </row>
     <row r="546" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D546" s="21"/>
-      <c r="E546" s="26"/>
+      <c r="D546" s="13"/>
+      <c r="E546" s="18"/>
     </row>
     <row r="547" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D547" s="21"/>
-      <c r="E547" s="26"/>
+      <c r="D547" s="13"/>
+      <c r="E547" s="18"/>
     </row>
     <row r="548" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D548" s="21"/>
-      <c r="E548" s="26"/>
+      <c r="D548" s="13"/>
+      <c r="E548" s="18"/>
     </row>
     <row r="549" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D549" s="21"/>
-      <c r="E549" s="26"/>
+      <c r="D549" s="13"/>
+      <c r="E549" s="18"/>
     </row>
     <row r="550" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D550" s="21"/>
-      <c r="E550" s="26"/>
+      <c r="D550" s="13"/>
+      <c r="E550" s="18"/>
     </row>
     <row r="551" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D551" s="21"/>
-      <c r="E551" s="26"/>
+      <c r="D551" s="13"/>
+      <c r="E551" s="18"/>
     </row>
     <row r="552" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D552" s="21"/>
-      <c r="E552" s="26"/>
+      <c r="D552" s="13"/>
+      <c r="E552" s="18"/>
     </row>
     <row r="553" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D553" s="21"/>
-      <c r="E553" s="26"/>
+      <c r="D553" s="13"/>
+      <c r="E553" s="18"/>
     </row>
     <row r="554" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D554" s="21"/>
-      <c r="E554" s="26"/>
+      <c r="D554" s="13"/>
+      <c r="E554" s="18"/>
     </row>
     <row r="555" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D555" s="21"/>
-      <c r="E555" s="26"/>
+      <c r="D555" s="13"/>
+      <c r="E555" s="18"/>
     </row>
     <row r="556" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D556" s="21"/>
-      <c r="E556" s="26"/>
+      <c r="D556" s="13"/>
+      <c r="E556" s="18"/>
     </row>
     <row r="557" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D557" s="21"/>
-      <c r="E557" s="26"/>
+      <c r="D557" s="13"/>
+      <c r="E557" s="18"/>
     </row>
     <row r="558" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D558" s="21"/>
-      <c r="E558" s="26"/>
+      <c r="D558" s="13"/>
+      <c r="E558" s="18"/>
     </row>
     <row r="559" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D559" s="21"/>
-      <c r="E559" s="26"/>
+      <c r="D559" s="13"/>
+      <c r="E559" s="18"/>
     </row>
     <row r="560" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D560" s="21"/>
-      <c r="E560" s="26"/>
+      <c r="D560" s="13"/>
+      <c r="E560" s="18"/>
     </row>
     <row r="561" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D561" s="21"/>
-      <c r="E561" s="26"/>
+      <c r="D561" s="13"/>
+      <c r="E561" s="18"/>
     </row>
     <row r="562" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D562" s="21"/>
-      <c r="E562" s="26"/>
+      <c r="D562" s="13"/>
+      <c r="E562" s="18"/>
     </row>
     <row r="563" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D563" s="21"/>
-      <c r="E563" s="26"/>
+      <c r="D563" s="13"/>
+      <c r="E563" s="18"/>
     </row>
     <row r="564" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D564" s="21"/>
-      <c r="E564" s="26"/>
+      <c r="D564" s="13"/>
+      <c r="E564" s="18"/>
     </row>
     <row r="565" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D565" s="21"/>
-      <c r="E565" s="26"/>
+      <c r="D565" s="13"/>
+      <c r="E565" s="18"/>
     </row>
     <row r="566" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D566" s="21"/>
-      <c r="E566" s="26"/>
+      <c r="D566" s="13"/>
+      <c r="E566" s="18"/>
     </row>
     <row r="567" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D567" s="21"/>
-      <c r="E567" s="26"/>
+      <c r="D567" s="13"/>
+      <c r="E567" s="18"/>
     </row>
     <row r="568" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D568" s="21"/>
-      <c r="E568" s="26"/>
+      <c r="D568" s="13"/>
+      <c r="E568" s="18"/>
     </row>
     <row r="569" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D569" s="21"/>
-      <c r="E569" s="26"/>
+      <c r="D569" s="13"/>
+      <c r="E569" s="18"/>
     </row>
     <row r="570" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D570" s="21"/>
-      <c r="E570" s="26"/>
+      <c r="D570" s="13"/>
+      <c r="E570" s="18"/>
     </row>
     <row r="571" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D571" s="21"/>
-      <c r="E571" s="26"/>
+      <c r="D571" s="13"/>
+      <c r="E571" s="18"/>
     </row>
     <row r="572" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D572" s="21"/>
-      <c r="E572" s="26"/>
+      <c r="D572" s="13"/>
+      <c r="E572" s="18"/>
     </row>
     <row r="573" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D573" s="21"/>
-      <c r="E573" s="26"/>
+      <c r="D573" s="13"/>
+      <c r="E573" s="18"/>
     </row>
     <row r="574" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D574" s="21"/>
-      <c r="E574" s="26"/>
+      <c r="D574" s="13"/>
+      <c r="E574" s="18"/>
     </row>
     <row r="575" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D575" s="21"/>
-      <c r="E575" s="26"/>
+      <c r="D575" s="13"/>
+      <c r="E575" s="18"/>
     </row>
     <row r="576" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D576" s="21"/>
-      <c r="E576" s="26"/>
+      <c r="D576" s="13"/>
+      <c r="E576" s="18"/>
     </row>
     <row r="577" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D577" s="21"/>
-      <c r="E577" s="26"/>
+      <c r="D577" s="13"/>
+      <c r="E577" s="18"/>
     </row>
     <row r="578" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D578" s="21"/>
-      <c r="E578" s="26"/>
+      <c r="D578" s="13"/>
+      <c r="E578" s="18"/>
     </row>
     <row r="579" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D579" s="21"/>
-      <c r="E579" s="26"/>
+      <c r="D579" s="13"/>
+      <c r="E579" s="18"/>
     </row>
     <row r="580" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D580" s="21"/>
-      <c r="E580" s="26"/>
+      <c r="D580" s="13"/>
+      <c r="E580" s="18"/>
     </row>
     <row r="581" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D581" s="21"/>
-      <c r="E581" s="26"/>
+      <c r="D581" s="13"/>
+      <c r="E581" s="18"/>
     </row>
     <row r="582" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D582" s="21"/>
-      <c r="E582" s="26"/>
+      <c r="D582" s="13"/>
+      <c r="E582" s="18"/>
     </row>
     <row r="583" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D583" s="21"/>
-      <c r="E583" s="26"/>
+      <c r="D583" s="13"/>
+      <c r="E583" s="18"/>
     </row>
     <row r="584" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D584" s="21"/>
-      <c r="E584" s="26"/>
+      <c r="D584" s="13"/>
+      <c r="E584" s="18"/>
     </row>
     <row r="585" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D585" s="21"/>
-      <c r="E585" s="26"/>
+      <c r="D585" s="13"/>
+      <c r="E585" s="18"/>
     </row>
     <row r="586" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D586" s="21"/>
-      <c r="E586" s="26"/>
+      <c r="D586" s="13"/>
+      <c r="E586" s="18"/>
     </row>
     <row r="587" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D587" s="21"/>
-      <c r="E587" s="26"/>
+      <c r="D587" s="13"/>
+      <c r="E587" s="18"/>
     </row>
     <row r="588" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D588" s="21"/>
-      <c r="E588" s="26"/>
+      <c r="D588" s="13"/>
+      <c r="E588" s="18"/>
     </row>
     <row r="589" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D589" s="21"/>
-      <c r="E589" s="26"/>
+      <c r="D589" s="13"/>
+      <c r="E589" s="18"/>
     </row>
     <row r="590" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D590" s="21"/>
-      <c r="E590" s="26"/>
+      <c r="D590" s="13"/>
+      <c r="E590" s="18"/>
     </row>
     <row r="591" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D591" s="21"/>
-      <c r="E591" s="26"/>
+      <c r="D591" s="13"/>
+      <c r="E591" s="18"/>
     </row>
     <row r="592" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D592" s="21"/>
-      <c r="E592" s="26"/>
+      <c r="D592" s="13"/>
+      <c r="E592" s="18"/>
     </row>
     <row r="593" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D593" s="21"/>
-      <c r="E593" s="26"/>
+      <c r="D593" s="13"/>
+      <c r="E593" s="18"/>
     </row>
     <row r="594" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D594" s="21"/>
-      <c r="E594" s="26"/>
+      <c r="D594" s="13"/>
+      <c r="E594" s="18"/>
     </row>
     <row r="595" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D595" s="21"/>
-      <c r="E595" s="26"/>
+      <c r="D595" s="13"/>
+      <c r="E595" s="18"/>
     </row>
     <row r="596" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D596" s="21"/>
-      <c r="E596" s="26"/>
+      <c r="D596" s="13"/>
+      <c r="E596" s="18"/>
     </row>
     <row r="597" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D597" s="21"/>
-      <c r="E597" s="26"/>
+      <c r="D597" s="13"/>
+      <c r="E597" s="18"/>
     </row>
     <row r="598" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D598" s="21"/>
-      <c r="E598" s="26"/>
+      <c r="D598" s="13"/>
+      <c r="E598" s="18"/>
     </row>
     <row r="599" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D599" s="21"/>
-      <c r="E599" s="26"/>
+      <c r="D599" s="13"/>
+      <c r="E599" s="18"/>
     </row>
     <row r="600" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D600" s="21"/>
-      <c r="E600" s="26"/>
+      <c r="D600" s="13"/>
+      <c r="E600" s="18"/>
     </row>
     <row r="601" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D601" s="21"/>
-      <c r="E601" s="26"/>
+      <c r="D601" s="13"/>
+      <c r="E601" s="18"/>
     </row>
     <row r="602" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D602" s="21"/>
-      <c r="E602" s="26"/>
+      <c r="D602" s="13"/>
+      <c r="E602" s="18"/>
     </row>
     <row r="603" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D603" s="21"/>
-      <c r="E603" s="26"/>
+      <c r="D603" s="13"/>
+      <c r="E603" s="18"/>
     </row>
     <row r="604" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D604" s="21"/>
-      <c r="E604" s="26"/>
+      <c r="D604" s="13"/>
+      <c r="E604" s="18"/>
     </row>
     <row r="605" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D605" s="21"/>
-      <c r="E605" s="26"/>
+      <c r="D605" s="13"/>
+      <c r="E605" s="18"/>
     </row>
     <row r="606" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D606" s="21"/>
-      <c r="E606" s="26"/>
+      <c r="D606" s="13"/>
+      <c r="E606" s="18"/>
     </row>
     <row r="607" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D607" s="21"/>
-      <c r="E607" s="26"/>
+      <c r="D607" s="13"/>
+      <c r="E607" s="18"/>
     </row>
     <row r="608" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D608" s="21"/>
-      <c r="E608" s="26"/>
+      <c r="D608" s="13"/>
+      <c r="E608" s="18"/>
     </row>
     <row r="609" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D609" s="21"/>
-      <c r="E609" s="26"/>
+      <c r="D609" s="13"/>
+      <c r="E609" s="18"/>
     </row>
     <row r="610" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D610" s="21"/>
-      <c r="E610" s="26"/>
+      <c r="D610" s="13"/>
+      <c r="E610" s="18"/>
     </row>
     <row r="611" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D611" s="21"/>
-      <c r="E611" s="26"/>
+      <c r="D611" s="13"/>
+      <c r="E611" s="18"/>
     </row>
     <row r="612" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D612" s="21"/>
-      <c r="E612" s="26"/>
+      <c r="D612" s="13"/>
+      <c r="E612" s="18"/>
     </row>
     <row r="613" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D613" s="21"/>
-      <c r="E613" s="26"/>
+      <c r="D613" s="13"/>
+      <c r="E613" s="18"/>
     </row>
     <row r="614" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D614" s="21"/>
-      <c r="E614" s="26"/>
+      <c r="D614" s="13"/>
+      <c r="E614" s="18"/>
     </row>
     <row r="615" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D615" s="21"/>
-      <c r="E615" s="26"/>
+      <c r="D615" s="13"/>
+      <c r="E615" s="18"/>
     </row>
     <row r="616" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D616" s="21"/>
-      <c r="E616" s="26"/>
+      <c r="D616" s="13"/>
+      <c r="E616" s="18"/>
     </row>
     <row r="617" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D617" s="21"/>
-      <c r="E617" s="26"/>
+      <c r="D617" s="13"/>
+      <c r="E617" s="18"/>
     </row>
     <row r="618" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D618" s="21"/>
-      <c r="E618" s="26"/>
+      <c r="D618" s="13"/>
+      <c r="E618" s="18"/>
     </row>
     <row r="619" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D619" s="21"/>
-      <c r="E619" s="26"/>
+      <c r="D619" s="13"/>
+      <c r="E619" s="18"/>
     </row>
     <row r="620" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D620" s="21"/>
-      <c r="E620" s="26"/>
+      <c r="D620" s="13"/>
+      <c r="E620" s="18"/>
     </row>
     <row r="621" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D621" s="21"/>
-      <c r="E621" s="26"/>
+      <c r="D621" s="13"/>
+      <c r="E621" s="18"/>
     </row>
     <row r="622" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D622" s="21"/>
-      <c r="E622" s="26"/>
+      <c r="D622" s="13"/>
+      <c r="E622" s="18"/>
     </row>
     <row r="623" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D623" s="21"/>
-      <c r="E623" s="26"/>
+      <c r="D623" s="13"/>
+      <c r="E623" s="18"/>
     </row>
     <row r="624" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D624" s="21"/>
-      <c r="E624" s="26"/>
+      <c r="D624" s="13"/>
+      <c r="E624" s="18"/>
     </row>
     <row r="625" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D625" s="21"/>
-      <c r="E625" s="26"/>
+      <c r="D625" s="13"/>
+      <c r="E625" s="18"/>
     </row>
     <row r="626" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D626" s="21"/>
-      <c r="E626" s="26"/>
+      <c r="D626" s="13"/>
+      <c r="E626" s="18"/>
     </row>
     <row r="627" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D627" s="21"/>
-      <c r="E627" s="26"/>
+      <c r="D627" s="13"/>
+      <c r="E627" s="18"/>
     </row>
     <row r="628" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D628" s="21"/>
-      <c r="E628" s="26"/>
+      <c r="D628" s="13"/>
+      <c r="E628" s="18"/>
     </row>
     <row r="629" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D629" s="21"/>
-      <c r="E629" s="26"/>
+      <c r="D629" s="13"/>
+      <c r="E629" s="18"/>
     </row>
     <row r="630" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D630" s="21"/>
-      <c r="E630" s="26"/>
+      <c r="D630" s="13"/>
+      <c r="E630" s="18"/>
     </row>
     <row r="631" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D631" s="21"/>
-      <c r="E631" s="26"/>
+      <c r="D631" s="13"/>
+      <c r="E631" s="18"/>
     </row>
     <row r="632" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D632" s="21"/>
-      <c r="E632" s="26"/>
+      <c r="D632" s="13"/>
+      <c r="E632" s="18"/>
     </row>
     <row r="633" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D633" s="21"/>
-      <c r="E633" s="26"/>
+      <c r="D633" s="13"/>
+      <c r="E633" s="18"/>
     </row>
     <row r="634" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D634" s="21"/>
-      <c r="E634" s="26"/>
+      <c r="D634" s="13"/>
+      <c r="E634" s="18"/>
     </row>
     <row r="635" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D635" s="21"/>
-      <c r="E635" s="26"/>
+      <c r="D635" s="13"/>
+      <c r="E635" s="18"/>
     </row>
     <row r="636" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D636" s="21"/>
-      <c r="E636" s="26"/>
+      <c r="D636" s="13"/>
+      <c r="E636" s="18"/>
     </row>
     <row r="637" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D637" s="21"/>
-      <c r="E637" s="26"/>
+      <c r="D637" s="13"/>
+      <c r="E637" s="18"/>
     </row>
     <row r="638" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D638" s="21"/>
-      <c r="E638" s="26"/>
+      <c r="D638" s="13"/>
+      <c r="E638" s="18"/>
     </row>
     <row r="639" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D639" s="21"/>
-      <c r="E639" s="26"/>
+      <c r="D639" s="13"/>
+      <c r="E639" s="18"/>
     </row>
     <row r="640" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D640" s="21"/>
-      <c r="E640" s="26"/>
+      <c r="D640" s="13"/>
+      <c r="E640" s="18"/>
     </row>
     <row r="641" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D641" s="21"/>
-      <c r="E641" s="26"/>
+      <c r="D641" s="13"/>
+      <c r="E641" s="18"/>
     </row>
     <row r="642" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D642" s="21"/>
-      <c r="E642" s="26"/>
+      <c r="D642" s="13"/>
+      <c r="E642" s="18"/>
     </row>
     <row r="643" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D643" s="21"/>
-      <c r="E643" s="26"/>
+      <c r="D643" s="13"/>
+      <c r="E643" s="18"/>
     </row>
     <row r="644" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D644" s="21"/>
-      <c r="E644" s="26"/>
+      <c r="D644" s="13"/>
+      <c r="E644" s="18"/>
     </row>
     <row r="645" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D645" s="21"/>
-      <c r="E645" s="26"/>
+      <c r="D645" s="13"/>
+      <c r="E645" s="18"/>
     </row>
     <row r="646" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D646" s="21"/>
-      <c r="E646" s="26"/>
+      <c r="D646" s="13"/>
+      <c r="E646" s="18"/>
     </row>
     <row r="647" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D647" s="21"/>
-      <c r="E647" s="26"/>
+      <c r="D647" s="13"/>
+      <c r="E647" s="18"/>
     </row>
     <row r="648" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D648" s="21"/>
-      <c r="E648" s="26"/>
+      <c r="D648" s="13"/>
+      <c r="E648" s="18"/>
     </row>
     <row r="649" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D649" s="21"/>
-      <c r="E649" s="26"/>
+      <c r="D649" s="13"/>
+      <c r="E649" s="18"/>
     </row>
     <row r="650" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D650" s="21"/>
-      <c r="E650" s="26"/>
+      <c r="D650" s="13"/>
+      <c r="E650" s="18"/>
     </row>
     <row r="651" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D651" s="21"/>
-      <c r="E651" s="26"/>
+      <c r="D651" s="13"/>
+      <c r="E651" s="18"/>
     </row>
     <row r="652" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D652" s="21"/>
-      <c r="E652" s="26"/>
+      <c r="D652" s="13"/>
+      <c r="E652" s="18"/>
     </row>
     <row r="653" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D653" s="21"/>
-      <c r="E653" s="26"/>
+      <c r="D653" s="13"/>
+      <c r="E653" s="18"/>
     </row>
     <row r="654" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D654" s="21"/>
-      <c r="E654" s="26"/>
+      <c r="D654" s="13"/>
+      <c r="E654" s="18"/>
     </row>
     <row r="655" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D655" s="21"/>
-      <c r="E655" s="26"/>
+      <c r="D655" s="13"/>
+      <c r="E655" s="18"/>
     </row>
     <row r="656" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D656" s="21"/>
-      <c r="E656" s="26"/>
+      <c r="D656" s="13"/>
+      <c r="E656" s="18"/>
     </row>
     <row r="657" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D657" s="21"/>
-      <c r="E657" s="26"/>
+      <c r="D657" s="13"/>
+      <c r="E657" s="18"/>
     </row>
     <row r="658" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D658" s="21"/>
-      <c r="E658" s="26"/>
+      <c r="D658" s="13"/>
+      <c r="E658" s="18"/>
     </row>
     <row r="659" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D659" s="21"/>
-      <c r="E659" s="26"/>
+      <c r="D659" s="13"/>
+      <c r="E659" s="18"/>
     </row>
     <row r="660" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D660" s="21"/>
-      <c r="E660" s="26"/>
+      <c r="D660" s="13"/>
+      <c r="E660" s="18"/>
     </row>
     <row r="661" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D661" s="21"/>
-      <c r="E661" s="26"/>
+      <c r="D661" s="13"/>
+      <c r="E661" s="18"/>
     </row>
     <row r="662" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D662" s="21"/>
-      <c r="E662" s="26"/>
+      <c r="D662" s="13"/>
+      <c r="E662" s="18"/>
     </row>
     <row r="663" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D663" s="21"/>
-      <c r="E663" s="26"/>
+      <c r="D663" s="13"/>
+      <c r="E663" s="18"/>
     </row>
     <row r="664" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D664" s="21"/>
-      <c r="E664" s="26"/>
+      <c r="D664" s="13"/>
+      <c r="E664" s="18"/>
     </row>
     <row r="665" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D665" s="21"/>
-      <c r="E665" s="26"/>
+      <c r="D665" s="13"/>
+      <c r="E665" s="18"/>
     </row>
     <row r="666" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D666" s="21"/>
-      <c r="E666" s="26"/>
+      <c r="D666" s="13"/>
+      <c r="E666" s="18"/>
     </row>
     <row r="667" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D667" s="21"/>
-      <c r="E667" s="26"/>
+      <c r="D667" s="13"/>
+      <c r="E667" s="18"/>
     </row>
     <row r="668" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D668" s="21"/>
-      <c r="E668" s="26"/>
+      <c r="D668" s="13"/>
+      <c r="E668" s="18"/>
     </row>
     <row r="669" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D669" s="21"/>
-      <c r="E669" s="26"/>
+      <c r="D669" s="13"/>
+      <c r="E669" s="18"/>
     </row>
     <row r="670" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D670" s="21"/>
-      <c r="E670" s="26"/>
+      <c r="D670" s="13"/>
+      <c r="E670" s="18"/>
     </row>
     <row r="671" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D671" s="21"/>
-      <c r="E671" s="26"/>
+      <c r="D671" s="13"/>
+      <c r="E671" s="18"/>
     </row>
     <row r="672" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D672" s="21"/>
-      <c r="E672" s="26"/>
+      <c r="D672" s="13"/>
+      <c r="E672" s="18"/>
     </row>
     <row r="673" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D673" s="21"/>
-      <c r="E673" s="26"/>
+      <c r="D673" s="13"/>
+      <c r="E673" s="18"/>
     </row>
     <row r="674" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D674" s="21"/>
-      <c r="E674" s="26"/>
+      <c r="D674" s="13"/>
+      <c r="E674" s="18"/>
     </row>
     <row r="675" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D675" s="21"/>
-      <c r="E675" s="26"/>
+      <c r="D675" s="13"/>
+      <c r="E675" s="18"/>
     </row>
     <row r="676" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D676" s="21"/>
-      <c r="E676" s="26"/>
+      <c r="D676" s="13"/>
+      <c r="E676" s="18"/>
     </row>
     <row r="677" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D677" s="21"/>
-      <c r="E677" s="26"/>
+      <c r="D677" s="13"/>
+      <c r="E677" s="18"/>
     </row>
     <row r="678" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D678" s="21"/>
-      <c r="E678" s="26"/>
+      <c r="D678" s="13"/>
+      <c r="E678" s="18"/>
     </row>
     <row r="679" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D679" s="21"/>
-      <c r="E679" s="26"/>
+      <c r="D679" s="13"/>
+      <c r="E679" s="18"/>
     </row>
     <row r="680" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D680" s="21"/>
-      <c r="E680" s="26"/>
+      <c r="D680" s="13"/>
+      <c r="E680" s="18"/>
     </row>
     <row r="681" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D681" s="21"/>
-      <c r="E681" s="26"/>
+      <c r="D681" s="13"/>
+      <c r="E681" s="18"/>
     </row>
     <row r="682" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D682" s="21"/>
-      <c r="E682" s="26"/>
+      <c r="D682" s="13"/>
+      <c r="E682" s="18"/>
     </row>
     <row r="683" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D683" s="21"/>
-      <c r="E683" s="26"/>
+      <c r="D683" s="13"/>
+      <c r="E683" s="18"/>
     </row>
     <row r="684" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D684" s="21"/>
-      <c r="E684" s="26"/>
+      <c r="D684" s="13"/>
+      <c r="E684" s="18"/>
     </row>
     <row r="685" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D685" s="21"/>
-      <c r="E685" s="26"/>
+      <c r="D685" s="13"/>
+      <c r="E685" s="18"/>
     </row>
     <row r="686" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D686" s="21"/>
-      <c r="E686" s="26"/>
+      <c r="D686" s="13"/>
+      <c r="E686" s="18"/>
     </row>
     <row r="687" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D687" s="21"/>
-      <c r="E687" s="26"/>
+      <c r="D687" s="13"/>
+      <c r="E687" s="18"/>
     </row>
     <row r="688" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D688" s="21"/>
-      <c r="E688" s="26"/>
+      <c r="D688" s="13"/>
+      <c r="E688" s="18"/>
     </row>
     <row r="689" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D689" s="21"/>
-      <c r="E689" s="26"/>
+      <c r="D689" s="13"/>
+      <c r="E689" s="18"/>
     </row>
     <row r="690" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D690" s="21"/>
-      <c r="E690" s="26"/>
+      <c r="D690" s="13"/>
+      <c r="E690" s="18"/>
     </row>
     <row r="691" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D691" s="21"/>
-      <c r="E691" s="26"/>
+      <c r="D691" s="13"/>
+      <c r="E691" s="18"/>
     </row>
     <row r="692" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D692" s="21"/>
-      <c r="E692" s="26"/>
+      <c r="D692" s="13"/>
+      <c r="E692" s="18"/>
     </row>
     <row r="693" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D693" s="21"/>
-      <c r="E693" s="26"/>
+      <c r="D693" s="13"/>
+      <c r="E693" s="18"/>
     </row>
     <row r="694" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D694" s="21"/>
-      <c r="E694" s="26"/>
+      <c r="D694" s="13"/>
+      <c r="E694" s="18"/>
     </row>
     <row r="695" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D695" s="21"/>
-      <c r="E695" s="26"/>
+      <c r="D695" s="13"/>
+      <c r="E695" s="18"/>
     </row>
     <row r="696" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D696" s="21"/>
-      <c r="E696" s="26"/>
+      <c r="D696" s="13"/>
+      <c r="E696" s="18"/>
     </row>
     <row r="697" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D697" s="21"/>
-      <c r="E697" s="26"/>
+      <c r="D697" s="13"/>
+      <c r="E697" s="18"/>
     </row>
     <row r="698" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D698" s="21"/>
-      <c r="E698" s="26"/>
+      <c r="D698" s="13"/>
+      <c r="E698" s="18"/>
     </row>
     <row r="699" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D699" s="21"/>
-      <c r="E699" s="26"/>
+      <c r="D699" s="13"/>
+      <c r="E699" s="18"/>
     </row>
     <row r="700" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D700" s="21"/>
-      <c r="E700" s="26"/>
+      <c r="D700" s="13"/>
+      <c r="E700" s="18"/>
     </row>
     <row r="701" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D701" s="21"/>
-      <c r="E701" s="26"/>
+      <c r="D701" s="13"/>
+      <c r="E701" s="18"/>
     </row>
     <row r="702" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D702" s="21"/>
-      <c r="E702" s="26"/>
+      <c r="D702" s="13"/>
+      <c r="E702" s="18"/>
     </row>
     <row r="703" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D703" s="21"/>
-      <c r="E703" s="26"/>
+      <c r="D703" s="13"/>
+      <c r="E703" s="18"/>
     </row>
     <row r="704" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D704" s="21"/>
-      <c r="E704" s="26"/>
+      <c r="D704" s="13"/>
+      <c r="E704" s="18"/>
     </row>
     <row r="705" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D705" s="21"/>
-      <c r="E705" s="26"/>
+      <c r="D705" s="13"/>
+      <c r="E705" s="18"/>
     </row>
     <row r="706" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D706" s="21"/>
-      <c r="E706" s="26"/>
+      <c r="D706" s="13"/>
+      <c r="E706" s="18"/>
     </row>
     <row r="707" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D707" s="21"/>
-      <c r="E707" s="26"/>
+      <c r="D707" s="13"/>
+      <c r="E707" s="18"/>
     </row>
     <row r="708" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D708" s="21"/>
-      <c r="E708" s="26"/>
+      <c r="D708" s="13"/>
+      <c r="E708" s="18"/>
     </row>
     <row r="709" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D709" s="21"/>
-      <c r="E709" s="26"/>
+      <c r="D709" s="13"/>
+      <c r="E709" s="18"/>
     </row>
     <row r="710" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D710" s="21"/>
-      <c r="E710" s="26"/>
+      <c r="D710" s="13"/>
+      <c r="E710" s="18"/>
     </row>
     <row r="711" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D711" s="21"/>
-      <c r="E711" s="26"/>
+      <c r="D711" s="13"/>
+      <c r="E711" s="18"/>
     </row>
     <row r="712" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D712" s="21"/>
-      <c r="E712" s="26"/>
+      <c r="D712" s="13"/>
+      <c r="E712" s="18"/>
     </row>
     <row r="713" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D713" s="21"/>
-      <c r="E713" s="26"/>
+      <c r="D713" s="13"/>
+      <c r="E713" s="18"/>
     </row>
     <row r="714" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D714" s="21"/>
-      <c r="E714" s="26"/>
+      <c r="D714" s="13"/>
+      <c r="E714" s="18"/>
     </row>
     <row r="715" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D715" s="21"/>
-      <c r="E715" s="26"/>
+      <c r="D715" s="13"/>
+      <c r="E715" s="18"/>
     </row>
     <row r="716" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D716" s="21"/>
-      <c r="E716" s="26"/>
+      <c r="D716" s="13"/>
+      <c r="E716" s="18"/>
     </row>
     <row r="717" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D717" s="21"/>
-      <c r="E717" s="26"/>
+      <c r="D717" s="13"/>
+      <c r="E717" s="18"/>
     </row>
     <row r="718" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D718" s="21"/>
-      <c r="E718" s="26"/>
+      <c r="D718" s="13"/>
+      <c r="E718" s="18"/>
     </row>
     <row r="719" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D719" s="21"/>
-      <c r="E719" s="26"/>
+      <c r="D719" s="13"/>
+      <c r="E719" s="18"/>
     </row>
     <row r="720" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D720" s="21"/>
-      <c r="E720" s="26"/>
+      <c r="D720" s="13"/>
+      <c r="E720" s="18"/>
     </row>
     <row r="721" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D721" s="21"/>
-      <c r="E721" s="26"/>
+      <c r="D721" s="13"/>
+      <c r="E721" s="18"/>
     </row>
     <row r="722" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D722" s="21"/>
-      <c r="E722" s="26"/>
+      <c r="D722" s="13"/>
+      <c r="E722" s="18"/>
     </row>
     <row r="723" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D723" s="21"/>
-      <c r="E723" s="26"/>
+      <c r="D723" s="13"/>
+      <c r="E723" s="18"/>
     </row>
     <row r="724" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D724" s="21"/>
-      <c r="E724" s="26"/>
+      <c r="D724" s="13"/>
+      <c r="E724" s="18"/>
     </row>
     <row r="725" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D725" s="21"/>
-      <c r="E725" s="26"/>
+      <c r="D725" s="13"/>
+      <c r="E725" s="18"/>
     </row>
     <row r="726" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D726" s="21"/>
-      <c r="E726" s="26"/>
+      <c r="D726" s="13"/>
+      <c r="E726" s="18"/>
     </row>
     <row r="727" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D727" s="21"/>
-      <c r="E727" s="26"/>
+      <c r="D727" s="13"/>
+      <c r="E727" s="18"/>
     </row>
     <row r="728" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D728" s="21"/>
-      <c r="E728" s="26"/>
+      <c r="D728" s="13"/>
+      <c r="E728" s="18"/>
     </row>
     <row r="729" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D729" s="21"/>
-      <c r="E729" s="26"/>
+      <c r="D729" s="13"/>
+      <c r="E729" s="18"/>
     </row>
     <row r="730" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D730" s="21"/>
-      <c r="E730" s="26"/>
+      <c r="D730" s="13"/>
+      <c r="E730" s="18"/>
     </row>
     <row r="731" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D731" s="21"/>
-      <c r="E731" s="26"/>
+      <c r="D731" s="13"/>
+      <c r="E731" s="18"/>
     </row>
     <row r="732" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D732" s="21"/>
-      <c r="E732" s="26"/>
+      <c r="D732" s="13"/>
+      <c r="E732" s="18"/>
     </row>
     <row r="733" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D733" s="21"/>
-      <c r="E733" s="26"/>
+      <c r="D733" s="13"/>
+      <c r="E733" s="18"/>
     </row>
     <row r="734" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D734" s="21"/>
-      <c r="E734" s="26"/>
+      <c r="D734" s="13"/>
+      <c r="E734" s="18"/>
     </row>
     <row r="735" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D735" s="21"/>
-      <c r="E735" s="26"/>
+      <c r="D735" s="13"/>
+      <c r="E735" s="18"/>
     </row>
     <row r="736" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D736" s="21"/>
-      <c r="E736" s="26"/>
+      <c r="D736" s="13"/>
+      <c r="E736" s="18"/>
     </row>
     <row r="737" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D737" s="21"/>
-      <c r="E737" s="26"/>
+      <c r="D737" s="13"/>
+      <c r="E737" s="18"/>
     </row>
     <row r="738" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D738" s="21"/>
-      <c r="E738" s="26"/>
+      <c r="D738" s="13"/>
+      <c r="E738" s="18"/>
     </row>
     <row r="739" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D739" s="21"/>
-      <c r="E739" s="26"/>
+      <c r="D739" s="13"/>
+      <c r="E739" s="18"/>
     </row>
     <row r="740" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D740" s="21"/>
-      <c r="E740" s="26"/>
+      <c r="D740" s="13"/>
+      <c r="E740" s="18"/>
     </row>
     <row r="741" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D741" s="21"/>
-      <c r="E741" s="26"/>
+      <c r="D741" s="13"/>
+      <c r="E741" s="18"/>
     </row>
     <row r="742" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D742" s="21"/>
-      <c r="E742" s="26"/>
+      <c r="D742" s="13"/>
+      <c r="E742" s="18"/>
     </row>
     <row r="743" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D743" s="21"/>
-      <c r="E743" s="26"/>
+      <c r="D743" s="13"/>
+      <c r="E743" s="18"/>
     </row>
     <row r="744" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D744" s="21"/>
-      <c r="E744" s="26"/>
+      <c r="D744" s="13"/>
+      <c r="E744" s="18"/>
     </row>
     <row r="745" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D745" s="21"/>
-      <c r="E745" s="26"/>
+      <c r="D745" s="13"/>
+      <c r="E745" s="18"/>
     </row>
     <row r="746" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D746" s="21"/>
-      <c r="E746" s="26"/>
+      <c r="D746" s="13"/>
+      <c r="E746" s="18"/>
     </row>
     <row r="747" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D747" s="21"/>
-      <c r="E747" s="26"/>
+      <c r="D747" s="13"/>
+      <c r="E747" s="18"/>
     </row>
     <row r="748" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D748" s="21"/>
-      <c r="E748" s="26"/>
+      <c r="D748" s="13"/>
+      <c r="E748" s="18"/>
     </row>
     <row r="749" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D749" s="21"/>
-      <c r="E749" s="26"/>
+      <c r="D749" s="13"/>
+      <c r="E749" s="18"/>
     </row>
     <row r="750" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D750" s="21"/>
-      <c r="E750" s="26"/>
+      <c r="D750" s="13"/>
+      <c r="E750" s="18"/>
     </row>
     <row r="751" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D751" s="21"/>
-      <c r="E751" s="26"/>
+      <c r="D751" s="13"/>
+      <c r="E751" s="18"/>
     </row>
     <row r="752" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D752" s="21"/>
-      <c r="E752" s="26"/>
+      <c r="D752" s="13"/>
+      <c r="E752" s="18"/>
     </row>
     <row r="753" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D753" s="21"/>
-      <c r="E753" s="26"/>
+      <c r="D753" s="13"/>
+      <c r="E753" s="18"/>
     </row>
     <row r="754" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D754" s="21"/>
-      <c r="E754" s="26"/>
+      <c r="D754" s="13"/>
+      <c r="E754" s="18"/>
     </row>
     <row r="755" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D755" s="21"/>
-      <c r="E755" s="26"/>
+      <c r="D755" s="13"/>
+      <c r="E755" s="18"/>
     </row>
     <row r="756" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D756" s="21"/>
-      <c r="E756" s="26"/>
+      <c r="D756" s="13"/>
+      <c r="E756" s="18"/>
     </row>
     <row r="757" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D757" s="21"/>
-      <c r="E757" s="26"/>
+      <c r="D757" s="13"/>
+      <c r="E757" s="18"/>
     </row>
     <row r="758" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D758" s="21"/>
-      <c r="E758" s="26"/>
+      <c r="D758" s="13"/>
+      <c r="E758" s="18"/>
     </row>
     <row r="759" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D759" s="21"/>
-      <c r="E759" s="26"/>
+      <c r="D759" s="13"/>
+      <c r="E759" s="18"/>
     </row>
     <row r="760" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D760" s="21"/>
-      <c r="E760" s="26"/>
+      <c r="D760" s="13"/>
+      <c r="E760" s="18"/>
     </row>
     <row r="761" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D761" s="21"/>
-      <c r="E761" s="26"/>
+      <c r="D761" s="13"/>
+      <c r="E761" s="18"/>
     </row>
     <row r="762" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D762" s="21"/>
-      <c r="E762" s="26"/>
+      <c r="D762" s="13"/>
+      <c r="E762" s="18"/>
     </row>
     <row r="763" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D763" s="21"/>
-      <c r="E763" s="26"/>
+      <c r="D763" s="13"/>
+      <c r="E763" s="18"/>
     </row>
     <row r="764" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D764" s="21"/>
-      <c r="E764" s="26"/>
+      <c r="D764" s="13"/>
+      <c r="E764" s="18"/>
     </row>
     <row r="765" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D765" s="21"/>
-      <c r="E765" s="26"/>
+      <c r="D765" s="13"/>
+      <c r="E765" s="18"/>
     </row>
     <row r="766" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D766" s="21"/>
-      <c r="E766" s="26"/>
+      <c r="D766" s="13"/>
+      <c r="E766" s="18"/>
     </row>
     <row r="767" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D767" s="21"/>
-      <c r="E767" s="26"/>
+      <c r="D767" s="13"/>
+      <c r="E767" s="18"/>
     </row>
     <row r="768" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D768" s="21"/>
-      <c r="E768" s="26"/>
+      <c r="D768" s="13"/>
+      <c r="E768" s="18"/>
     </row>
     <row r="769" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D769" s="21"/>
-      <c r="E769" s="26"/>
+      <c r="D769" s="13"/>
+      <c r="E769" s="18"/>
     </row>
     <row r="770" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D770" s="21"/>
-      <c r="E770" s="26"/>
+      <c r="D770" s="13"/>
+      <c r="E770" s="18"/>
     </row>
     <row r="771" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D771" s="21"/>
-      <c r="E771" s="26"/>
+      <c r="D771" s="13"/>
+      <c r="E771" s="18"/>
     </row>
     <row r="772" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D772" s="21"/>
-      <c r="E772" s="26"/>
+      <c r="D772" s="13"/>
+      <c r="E772" s="18"/>
     </row>
     <row r="773" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D773" s="21"/>
-      <c r="E773" s="26"/>
+      <c r="D773" s="13"/>
+      <c r="E773" s="18"/>
     </row>
     <row r="774" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D774" s="21"/>
-      <c r="E774" s="26"/>
+      <c r="D774" s="13"/>
+      <c r="E774" s="18"/>
     </row>
     <row r="775" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D775" s="21"/>
-      <c r="E775" s="26"/>
+      <c r="D775" s="13"/>
+      <c r="E775" s="18"/>
     </row>
     <row r="776" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D776" s="21"/>
-      <c r="E776" s="26"/>
+      <c r="D776" s="13"/>
+      <c r="E776" s="18"/>
     </row>
     <row r="777" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D777" s="21"/>
-      <c r="E777" s="26"/>
+      <c r="D777" s="13"/>
+      <c r="E777" s="18"/>
     </row>
     <row r="778" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D778" s="21"/>
-      <c r="E778" s="26"/>
+      <c r="D778" s="13"/>
+      <c r="E778" s="18"/>
     </row>
     <row r="779" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D779" s="21"/>
-      <c r="E779" s="26"/>
+      <c r="D779" s="13"/>
+      <c r="E779" s="18"/>
     </row>
     <row r="780" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D780" s="21"/>
-      <c r="E780" s="26"/>
+      <c r="D780" s="13"/>
+      <c r="E780" s="18"/>
     </row>
     <row r="781" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D781" s="21"/>
-      <c r="E781" s="26"/>
+      <c r="D781" s="13"/>
+      <c r="E781" s="18"/>
     </row>
     <row r="782" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D782" s="21"/>
-      <c r="E782" s="26"/>
+      <c r="D782" s="13"/>
+      <c r="E782" s="18"/>
     </row>
     <row r="783" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D783" s="21"/>
-      <c r="E783" s="26"/>
+      <c r="D783" s="13"/>
+      <c r="E783" s="18"/>
     </row>
     <row r="784" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D784" s="21"/>
-      <c r="E784" s="26"/>
+      <c r="D784" s="13"/>
+      <c r="E784" s="18"/>
     </row>
     <row r="785" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D785" s="21"/>
-      <c r="E785" s="26"/>
+      <c r="D785" s="13"/>
+      <c r="E785" s="18"/>
     </row>
     <row r="786" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D786" s="21"/>
-      <c r="E786" s="26"/>
+      <c r="D786" s="13"/>
+      <c r="E786" s="18"/>
     </row>
     <row r="787" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D787" s="21"/>
-      <c r="E787" s="26"/>
+      <c r="D787" s="13"/>
+      <c r="E787" s="18"/>
     </row>
     <row r="788" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D788" s="21"/>
-      <c r="E788" s="26"/>
+      <c r="D788" s="13"/>
+      <c r="E788" s="18"/>
     </row>
     <row r="789" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D789" s="21"/>
-      <c r="E789" s="26"/>
+      <c r="D789" s="13"/>
+      <c r="E789" s="18"/>
     </row>
     <row r="790" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D790" s="21"/>
-      <c r="E790" s="26"/>
+      <c r="D790" s="13"/>
+      <c r="E790" s="18"/>
     </row>
     <row r="791" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D791" s="21"/>
-      <c r="E791" s="26"/>
+      <c r="D791" s="13"/>
+      <c r="E791" s="18"/>
     </row>
     <row r="792" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D792" s="21"/>
-      <c r="E792" s="26"/>
+      <c r="D792" s="13"/>
+      <c r="E792" s="18"/>
     </row>
     <row r="793" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D793" s="21"/>
-      <c r="E793" s="26"/>
+      <c r="D793" s="13"/>
+      <c r="E793" s="18"/>
     </row>
     <row r="794" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D794" s="21"/>
-      <c r="E794" s="26"/>
+      <c r="D794" s="13"/>
+      <c r="E794" s="18"/>
     </row>
     <row r="795" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D795" s="21"/>
-      <c r="E795" s="26"/>
+      <c r="D795" s="13"/>
+      <c r="E795" s="18"/>
     </row>
     <row r="796" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D796" s="21"/>
-      <c r="E796" s="26"/>
+      <c r="D796" s="13"/>
+      <c r="E796" s="18"/>
     </row>
     <row r="797" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D797" s="21"/>
-      <c r="E797" s="26"/>
+      <c r="D797" s="13"/>
+      <c r="E797" s="18"/>
     </row>
     <row r="798" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D798" s="21"/>
-      <c r="E798" s="26"/>
+      <c r="D798" s="13"/>
+      <c r="E798" s="18"/>
     </row>
     <row r="799" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D799" s="21"/>
-      <c r="E799" s="26"/>
+      <c r="D799" s="13"/>
+      <c r="E799" s="18"/>
     </row>
     <row r="800" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D800" s="21"/>
-      <c r="E800" s="26"/>
+      <c r="D800" s="13"/>
+      <c r="E800" s="18"/>
     </row>
     <row r="801" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D801" s="21"/>
-      <c r="E801" s="26"/>
+      <c r="D801" s="13"/>
+      <c r="E801" s="18"/>
     </row>
     <row r="802" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D802" s="21"/>
-      <c r="E802" s="26"/>
+      <c r="D802" s="13"/>
+      <c r="E802" s="18"/>
     </row>
     <row r="803" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D803" s="21"/>
-      <c r="E803" s="26"/>
+      <c r="D803" s="13"/>
+      <c r="E803" s="18"/>
     </row>
     <row r="804" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D804" s="21"/>
-      <c r="E804" s="26"/>
+      <c r="D804" s="13"/>
+      <c r="E804" s="18"/>
     </row>
     <row r="805" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D805" s="21"/>
-      <c r="E805" s="26"/>
+      <c r="D805" s="13"/>
+      <c r="E805" s="18"/>
     </row>
     <row r="806" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D806" s="21"/>
-      <c r="E806" s="26"/>
+      <c r="D806" s="13"/>
+      <c r="E806" s="18"/>
     </row>
     <row r="807" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D807" s="21"/>
-      <c r="E807" s="26"/>
+      <c r="D807" s="13"/>
+      <c r="E807" s="18"/>
     </row>
     <row r="808" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D808" s="21"/>
-      <c r="E808" s="26"/>
+      <c r="D808" s="13"/>
+      <c r="E808" s="18"/>
     </row>
     <row r="809" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D809" s="21"/>
-      <c r="E809" s="26"/>
+      <c r="D809" s="13"/>
+      <c r="E809" s="18"/>
     </row>
     <row r="810" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D810" s="21"/>
-      <c r="E810" s="26"/>
+      <c r="D810" s="13"/>
+      <c r="E810" s="18"/>
     </row>
     <row r="811" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D811" s="21"/>
-      <c r="E811" s="26"/>
+      <c r="D811" s="13"/>
+      <c r="E811" s="18"/>
     </row>
     <row r="812" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D812" s="21"/>
-      <c r="E812" s="26"/>
+      <c r="D812" s="13"/>
+      <c r="E812" s="18"/>
     </row>
     <row r="813" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D813" s="21"/>
-      <c r="E813" s="26"/>
+      <c r="D813" s="13"/>
+      <c r="E813" s="18"/>
     </row>
     <row r="814" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D814" s="21"/>
-      <c r="E814" s="26"/>
+      <c r="D814" s="13"/>
+      <c r="E814" s="18"/>
     </row>
     <row r="815" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D815" s="21"/>
-      <c r="E815" s="26"/>
+      <c r="D815" s="13"/>
+      <c r="E815" s="18"/>
     </row>
     <row r="816" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D816" s="21"/>
-      <c r="E816" s="26"/>
+      <c r="D816" s="13"/>
+      <c r="E816" s="18"/>
     </row>
     <row r="817" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D817" s="21"/>
-      <c r="E817" s="26"/>
+      <c r="D817" s="13"/>
+      <c r="E817" s="18"/>
     </row>
     <row r="818" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D818" s="21"/>
-      <c r="E818" s="26"/>
+      <c r="D818" s="13"/>
+      <c r="E818" s="18"/>
     </row>
     <row r="819" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D819" s="21"/>
-      <c r="E819" s="26"/>
+      <c r="D819" s="13"/>
+      <c r="E819" s="18"/>
     </row>
     <row r="820" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D820" s="21"/>
-      <c r="E820" s="26"/>
+      <c r="D820" s="13"/>
+      <c r="E820" s="18"/>
     </row>
     <row r="821" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D821" s="21"/>
-      <c r="E821" s="26"/>
+      <c r="D821" s="13"/>
+      <c r="E821" s="18"/>
     </row>
     <row r="822" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D822" s="21"/>
-      <c r="E822" s="26"/>
+      <c r="D822" s="13"/>
+      <c r="E822" s="18"/>
     </row>
     <row r="823" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D823" s="21"/>
-      <c r="E823" s="26"/>
+      <c r="D823" s="13"/>
+      <c r="E823" s="18"/>
     </row>
     <row r="824" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D824" s="21"/>
-      <c r="E824" s="26"/>
+      <c r="D824" s="13"/>
+      <c r="E824" s="18"/>
     </row>
     <row r="825" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D825" s="21"/>
-      <c r="E825" s="26"/>
+      <c r="D825" s="13"/>
+      <c r="E825" s="18"/>
     </row>
     <row r="826" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D826" s="21"/>
-      <c r="E826" s="26"/>
+      <c r="D826" s="13"/>
+      <c r="E826" s="18"/>
     </row>
     <row r="827" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D827" s="21"/>
-      <c r="E827" s="26"/>
+      <c r="D827" s="13"/>
+      <c r="E827" s="18"/>
     </row>
     <row r="828" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D828" s="21"/>
-      <c r="E828" s="26"/>
+      <c r="D828" s="13"/>
+      <c r="E828" s="18"/>
     </row>
     <row r="829" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D829" s="21"/>
-      <c r="E829" s="26"/>
+      <c r="D829" s="13"/>
+      <c r="E829" s="18"/>
     </row>
     <row r="830" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D830" s="21"/>
-      <c r="E830" s="26"/>
+      <c r="D830" s="13"/>
+      <c r="E830" s="18"/>
     </row>
     <row r="831" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D831" s="21"/>
-      <c r="E831" s="26"/>
+      <c r="D831" s="13"/>
+      <c r="E831" s="18"/>
     </row>
     <row r="832" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D832" s="21"/>
-      <c r="E832" s="26"/>
+      <c r="D832" s="13"/>
+      <c r="E832" s="18"/>
     </row>
     <row r="833" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D833" s="21"/>
-      <c r="E833" s="26"/>
+      <c r="D833" s="13"/>
+      <c r="E833" s="18"/>
     </row>
     <row r="834" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D834" s="21"/>
-      <c r="E834" s="26"/>
+      <c r="D834" s="13"/>
+      <c r="E834" s="18"/>
     </row>
     <row r="835" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D835" s="21"/>
-      <c r="E835" s="26"/>
+      <c r="D835" s="13"/>
+      <c r="E835" s="18"/>
     </row>
     <row r="836" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D836" s="21"/>
-      <c r="E836" s="26"/>
+      <c r="D836" s="13"/>
+      <c r="E836" s="18"/>
     </row>
     <row r="837" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D837" s="21"/>
-      <c r="E837" s="26"/>
+      <c r="D837" s="13"/>
+      <c r="E837" s="18"/>
     </row>
     <row r="838" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D838" s="21"/>
-      <c r="E838" s="26"/>
+      <c r="D838" s="13"/>
+      <c r="E838" s="18"/>
     </row>
     <row r="839" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D839" s="21"/>
-      <c r="E839" s="26"/>
+      <c r="D839" s="13"/>
+      <c r="E839" s="18"/>
     </row>
     <row r="840" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D840" s="21"/>
-      <c r="E840" s="26"/>
+      <c r="D840" s="13"/>
+      <c r="E840" s="18"/>
     </row>
     <row r="841" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D841" s="21"/>
-      <c r="E841" s="26"/>
+      <c r="D841" s="13"/>
+      <c r="E841" s="18"/>
     </row>
     <row r="842" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D842" s="21"/>
-      <c r="E842" s="26"/>
+      <c r="D842" s="13"/>
+      <c r="E842" s="18"/>
     </row>
     <row r="843" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D843" s="21"/>
-      <c r="E843" s="26"/>
+      <c r="D843" s="13"/>
+      <c r="E843" s="18"/>
     </row>
     <row r="844" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D844" s="21"/>
-      <c r="E844" s="26"/>
+      <c r="D844" s="13"/>
+      <c r="E844" s="18"/>
     </row>
     <row r="845" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D845" s="21"/>
-      <c r="E845" s="26"/>
+      <c r="D845" s="13"/>
+      <c r="E845" s="18"/>
     </row>
     <row r="846" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D846" s="21"/>
-      <c r="E846" s="26"/>
+      <c r="D846" s="13"/>
+      <c r="E846" s="18"/>
     </row>
     <row r="847" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D847" s="21"/>
-      <c r="E847" s="26"/>
+      <c r="D847" s="13"/>
+      <c r="E847" s="18"/>
     </row>
     <row r="848" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D848" s="21"/>
-      <c r="E848" s="26"/>
+      <c r="D848" s="13"/>
+      <c r="E848" s="18"/>
     </row>
     <row r="849" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D849" s="21"/>
-      <c r="E849" s="26"/>
+      <c r="D849" s="13"/>
+      <c r="E849" s="18"/>
     </row>
     <row r="850" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D850" s="21"/>
-      <c r="E850" s="26"/>
+      <c r="D850" s="13"/>
+      <c r="E850" s="18"/>
     </row>
     <row r="851" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D851" s="21"/>
-      <c r="E851" s="26"/>
+      <c r="D851" s="13"/>
+      <c r="E851" s="18"/>
     </row>
     <row r="852" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D852" s="21"/>
-      <c r="E852" s="26"/>
+      <c r="D852" s="13"/>
+      <c r="E852" s="18"/>
     </row>
     <row r="853" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D853" s="21"/>
-      <c r="E853" s="26"/>
+      <c r="D853" s="13"/>
+      <c r="E853" s="18"/>
     </row>
     <row r="854" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D854" s="21"/>
-      <c r="E854" s="26"/>
+      <c r="D854" s="13"/>
+      <c r="E854" s="18"/>
     </row>
     <row r="855" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D855" s="21"/>
-      <c r="E855" s="26"/>
+      <c r="D855" s="13"/>
+      <c r="E855" s="18"/>
     </row>
     <row r="856" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D856" s="21"/>
-      <c r="E856" s="26"/>
+      <c r="D856" s="13"/>
+      <c r="E856" s="18"/>
     </row>
     <row r="857" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D857" s="21"/>
-      <c r="E857" s="26"/>
+      <c r="D857" s="13"/>
+      <c r="E857" s="18"/>
     </row>
     <row r="858" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D858" s="21"/>
-      <c r="E858" s="26"/>
+      <c r="D858" s="13"/>
+      <c r="E858" s="18"/>
     </row>
     <row r="859" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D859" s="21"/>
-      <c r="E859" s="26"/>
+      <c r="D859" s="13"/>
+      <c r="E859" s="18"/>
     </row>
     <row r="860" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D860" s="21"/>
-      <c r="E860" s="26"/>
+      <c r="D860" s="13"/>
+      <c r="E860" s="18"/>
     </row>
     <row r="861" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D861" s="21"/>
-      <c r="E861" s="26"/>
+      <c r="D861" s="13"/>
+      <c r="E861" s="18"/>
     </row>
     <row r="862" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D862" s="21"/>
-      <c r="E862" s="26"/>
+      <c r="D862" s="13"/>
+      <c r="E862" s="18"/>
     </row>
     <row r="863" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D863" s="21"/>
-      <c r="E863" s="26"/>
+      <c r="D863" s="13"/>
+      <c r="E863" s="18"/>
     </row>
     <row r="864" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D864" s="21"/>
-      <c r="E864" s="26"/>
+      <c r="D864" s="13"/>
+      <c r="E864" s="18"/>
     </row>
     <row r="865" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D865" s="21"/>
-      <c r="E865" s="26"/>
+      <c r="D865" s="13"/>
+      <c r="E865" s="18"/>
     </row>
     <row r="866" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D866" s="21"/>
-      <c r="E866" s="26"/>
+      <c r="D866" s="13"/>
+      <c r="E866" s="18"/>
     </row>
     <row r="867" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D867" s="21"/>
-      <c r="E867" s="26"/>
+      <c r="D867" s="13"/>
+      <c r="E867" s="18"/>
     </row>
     <row r="868" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D868" s="21"/>
-      <c r="E868" s="26"/>
+      <c r="D868" s="13"/>
+      <c r="E868" s="18"/>
     </row>
     <row r="869" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D869" s="21"/>
-      <c r="E869" s="26"/>
+      <c r="D869" s="13"/>
+      <c r="E869" s="18"/>
     </row>
     <row r="870" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D870" s="21"/>
-      <c r="E870" s="26"/>
+      <c r="D870" s="13"/>
+      <c r="E870" s="18"/>
     </row>
     <row r="871" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D871" s="21"/>
-      <c r="E871" s="26"/>
+      <c r="D871" s="13"/>
+      <c r="E871" s="18"/>
     </row>
     <row r="872" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D872" s="21"/>
-      <c r="E872" s="26"/>
+      <c r="D872" s="13"/>
+      <c r="E872" s="18"/>
     </row>
     <row r="873" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D873" s="21"/>
-      <c r="E873" s="26"/>
+      <c r="D873" s="13"/>
+      <c r="E873" s="18"/>
     </row>
     <row r="874" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D874" s="21"/>
-      <c r="E874" s="26"/>
+      <c r="D874" s="13"/>
+      <c r="E874" s="18"/>
     </row>
     <row r="875" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D875" s="21"/>
-      <c r="E875" s="26"/>
+      <c r="D875" s="13"/>
+      <c r="E875" s="18"/>
     </row>
     <row r="876" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D876" s="21"/>
-      <c r="E876" s="26"/>
+      <c r="D876" s="13"/>
+      <c r="E876" s="18"/>
     </row>
     <row r="877" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D877" s="21"/>
-      <c r="E877" s="26"/>
+      <c r="D877" s="13"/>
+      <c r="E877" s="18"/>
     </row>
     <row r="878" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D878" s="21"/>
-      <c r="E878" s="26"/>
+      <c r="D878" s="13"/>
+      <c r="E878" s="18"/>
     </row>
     <row r="879" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D879" s="21"/>
-      <c r="E879" s="26"/>
+      <c r="D879" s="13"/>
+      <c r="E879" s="18"/>
     </row>
     <row r="880" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D880" s="21"/>
-      <c r="E880" s="26"/>
+      <c r="D880" s="13"/>
+      <c r="E880" s="18"/>
     </row>
     <row r="881" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D881" s="21"/>
-      <c r="E881" s="26"/>
+      <c r="D881" s="13"/>
+      <c r="E881" s="18"/>
     </row>
     <row r="882" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D882" s="21"/>
-      <c r="E882" s="26"/>
+      <c r="D882" s="13"/>
+      <c r="E882" s="18"/>
     </row>
     <row r="883" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D883" s="21"/>
-      <c r="E883" s="26"/>
+      <c r="D883" s="13"/>
+      <c r="E883" s="18"/>
     </row>
     <row r="884" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D884" s="21"/>
-      <c r="E884" s="26"/>
+      <c r="D884" s="13"/>
+      <c r="E884" s="18"/>
     </row>
     <row r="885" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D885" s="21"/>
-      <c r="E885" s="26"/>
+      <c r="D885" s="13"/>
+      <c r="E885" s="18"/>
     </row>
     <row r="886" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D886" s="21"/>
-      <c r="E886" s="26"/>
+      <c r="D886" s="13"/>
+      <c r="E886" s="18"/>
     </row>
     <row r="887" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D887" s="21"/>
-      <c r="E887" s="26"/>
+      <c r="D887" s="13"/>
+      <c r="E887" s="18"/>
     </row>
     <row r="888" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D888" s="21"/>
-      <c r="E888" s="26"/>
+      <c r="D888" s="13"/>
+      <c r="E888" s="18"/>
     </row>
     <row r="889" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D889" s="21"/>
-      <c r="E889" s="26"/>
+      <c r="D889" s="13"/>
+      <c r="E889" s="18"/>
     </row>
     <row r="890" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D890" s="21"/>
-      <c r="E890" s="26"/>
+      <c r="D890" s="13"/>
+      <c r="E890" s="18"/>
     </row>
     <row r="891" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D891" s="21"/>
-      <c r="E891" s="26"/>
+      <c r="D891" s="13"/>
+      <c r="E891" s="18"/>
     </row>
     <row r="892" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D892" s="21"/>
-      <c r="E892" s="26"/>
+      <c r="D892" s="13"/>
+      <c r="E892" s="18"/>
     </row>
     <row r="893" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D893" s="21"/>
-      <c r="E893" s="26"/>
+      <c r="D893" s="13"/>
+      <c r="E893" s="18"/>
     </row>
     <row r="894" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D894" s="21"/>
-      <c r="E894" s="26"/>
+      <c r="D894" s="13"/>
+      <c r="E894" s="18"/>
     </row>
     <row r="895" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D895" s="21"/>
-      <c r="E895" s="26"/>
+      <c r="D895" s="13"/>
+      <c r="E895" s="18"/>
     </row>
     <row r="896" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D896" s="21"/>
-      <c r="E896" s="26"/>
+      <c r="D896" s="13"/>
+      <c r="E896" s="18"/>
     </row>
     <row r="897" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D897" s="21"/>
-      <c r="E897" s="26"/>
+      <c r="D897" s="13"/>
+      <c r="E897" s="18"/>
     </row>
     <row r="898" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D898" s="21"/>
-      <c r="E898" s="26"/>
+      <c r="D898" s="13"/>
+      <c r="E898" s="18"/>
     </row>
     <row r="899" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D899" s="21"/>
-      <c r="E899" s="26"/>
+      <c r="D899" s="13"/>
+      <c r="E899" s="18"/>
     </row>
     <row r="900" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D900" s="21"/>
-      <c r="E900" s="26"/>
+      <c r="D900" s="13"/>
+      <c r="E900" s="18"/>
     </row>
     <row r="901" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D901" s="21"/>
-      <c r="E901" s="26"/>
+      <c r="D901" s="13"/>
+      <c r="E901" s="18"/>
     </row>
     <row r="902" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D902" s="21"/>
-      <c r="E902" s="26"/>
+      <c r="D902" s="13"/>
+      <c r="E902" s="18"/>
     </row>
     <row r="903" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D903" s="21"/>
-      <c r="E903" s="26"/>
+      <c r="D903" s="13"/>
+      <c r="E903" s="18"/>
     </row>
     <row r="904" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D904" s="21"/>
-      <c r="E904" s="26"/>
+      <c r="D904" s="13"/>
+      <c r="E904" s="18"/>
     </row>
     <row r="905" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D905" s="21"/>
-      <c r="E905" s="26"/>
+      <c r="D905" s="13"/>
+      <c r="E905" s="18"/>
     </row>
     <row r="906" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D906" s="21"/>
-      <c r="E906" s="26"/>
+      <c r="D906" s="13"/>
+      <c r="E906" s="18"/>
     </row>
     <row r="907" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D907" s="21"/>
-      <c r="E907" s="26"/>
+      <c r="D907" s="13"/>
+      <c r="E907" s="18"/>
     </row>
     <row r="908" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D908" s="21"/>
-      <c r="E908" s="26"/>
+      <c r="D908" s="13"/>
+      <c r="E908" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4311,5 +4361,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Ppgz/Ppgz.Web/App_Data/plantillaoc.xlsx
+++ b/Ppgz/Ppgz.Web/App_Data/plantillaoc.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>INFORMACIÓN LEGAL:</t>
-  </si>
-  <si>
     <t>RFC:</t>
   </si>
   <si>
@@ -39,9 +36,6 @@
     <t>ALMACÉN</t>
   </si>
   <si>
-    <t>CANTIDAD</t>
-  </si>
-  <si>
     <t>PRECIO</t>
   </si>
   <si>
@@ -51,8 +45,13 @@
     <t>ORDEN #:</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Información legal …</t>
+    <t>ORDEN DE COMPRA</t>
+  </si>
+  <si>
+    <t>Información legal …</t>
+  </si>
+  <si>
+    <t>CANT</t>
   </si>
 </sst>
 </file>
@@ -111,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -168,51 +167,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -236,9 +190,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -288,26 +239,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -333,13 +287,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>898854</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>561824</xdr:rowOff>
+      <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -362,8 +316,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="247650"/>
-          <a:ext cx="1190625" cy="504674"/>
+          <a:off x="0" y="419100"/>
+          <a:ext cx="898854" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,21 +617,21 @@
   <dimension ref="A1:E908"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14" style="16" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -685,3679 +639,3679 @@
       <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>10</v>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
+        <v>9</v>
       </c>
-      <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
+      <c r="B3" s="18"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
+      <c r="A5" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
+      <c r="A6" s="8" t="s">
+        <v>6</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="13"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="13"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="13"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="13"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="13"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="13"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="13"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="13"/>
-      <c r="E16" s="18"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="13"/>
-      <c r="E17" s="18"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="13"/>
-      <c r="E18" s="18"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="13"/>
-      <c r="E19" s="18"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="13"/>
-      <c r="E20" s="18"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="13"/>
-      <c r="E21" s="18"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="13"/>
-      <c r="E22" s="18"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="13"/>
-      <c r="E23" s="18"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="13"/>
-      <c r="E24" s="18"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="13"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="13"/>
-      <c r="E26" s="18"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="13"/>
-      <c r="E27" s="18"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="13"/>
-      <c r="E28" s="18"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="13"/>
-      <c r="E29" s="18"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="13"/>
-      <c r="E30" s="18"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="13"/>
-      <c r="E31" s="18"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="13"/>
-      <c r="E32" s="18"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="13"/>
-      <c r="E33" s="18"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="13"/>
-      <c r="E34" s="18"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="13"/>
-      <c r="E35" s="18"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="13"/>
-      <c r="E36" s="18"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="17"/>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="13"/>
-      <c r="E37" s="18"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="13"/>
-      <c r="E38" s="18"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="17"/>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="13"/>
-      <c r="E39" s="18"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="17"/>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="13"/>
-      <c r="E40" s="18"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="17"/>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="13"/>
-      <c r="E41" s="18"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="13"/>
-      <c r="E42" s="18"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="17"/>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="13"/>
-      <c r="E43" s="18"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="17"/>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="13"/>
-      <c r="E44" s="18"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="17"/>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="13"/>
-      <c r="E45" s="18"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="17"/>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="13"/>
-      <c r="E46" s="18"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="17"/>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="13"/>
-      <c r="E47" s="18"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="17"/>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="13"/>
-      <c r="E48" s="18"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="17"/>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="13"/>
-      <c r="E49" s="18"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="17"/>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="13"/>
-      <c r="E50" s="18"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="17"/>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="13"/>
-      <c r="E51" s="18"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="17"/>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="13"/>
-      <c r="E52" s="18"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="17"/>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D53" s="13"/>
-      <c r="E53" s="18"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="17"/>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D54" s="13"/>
-      <c r="E54" s="18"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="17"/>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D55" s="13"/>
-      <c r="E55" s="18"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="17"/>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D56" s="13"/>
-      <c r="E56" s="18"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="17"/>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D57" s="13"/>
-      <c r="E57" s="18"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="17"/>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D58" s="13"/>
-      <c r="E58" s="18"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="17"/>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D59" s="13"/>
-      <c r="E59" s="18"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="17"/>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D60" s="13"/>
-      <c r="E60" s="18"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="17"/>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D61" s="13"/>
-      <c r="E61" s="18"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="17"/>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D62" s="13"/>
-      <c r="E62" s="18"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="17"/>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D63" s="13"/>
-      <c r="E63" s="18"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="17"/>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D64" s="13"/>
-      <c r="E64" s="18"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="17"/>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D65" s="13"/>
-      <c r="E65" s="18"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="17"/>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D66" s="13"/>
-      <c r="E66" s="18"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="17"/>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D67" s="13"/>
-      <c r="E67" s="18"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="17"/>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D68" s="13"/>
-      <c r="E68" s="18"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="17"/>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D69" s="13"/>
-      <c r="E69" s="18"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="17"/>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D70" s="13"/>
-      <c r="E70" s="18"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="17"/>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D71" s="13"/>
-      <c r="E71" s="18"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="17"/>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D72" s="13"/>
-      <c r="E72" s="18"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="17"/>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D73" s="13"/>
-      <c r="E73" s="18"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="17"/>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D74" s="13"/>
-      <c r="E74" s="18"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="17"/>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D75" s="13"/>
-      <c r="E75" s="18"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="17"/>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D76" s="13"/>
-      <c r="E76" s="18"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="17"/>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D77" s="13"/>
-      <c r="E77" s="18"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="17"/>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D78" s="13"/>
-      <c r="E78" s="18"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="17"/>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D79" s="13"/>
-      <c r="E79" s="18"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="17"/>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D80" s="13"/>
-      <c r="E80" s="18"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="17"/>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D81" s="13"/>
-      <c r="E81" s="18"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="17"/>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D82" s="13"/>
-      <c r="E82" s="18"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="17"/>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D83" s="13"/>
-      <c r="E83" s="18"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="17"/>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D84" s="13"/>
-      <c r="E84" s="18"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="17"/>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D85" s="13"/>
-      <c r="E85" s="18"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="17"/>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D86" s="13"/>
-      <c r="E86" s="18"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="17"/>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D87" s="13"/>
-      <c r="E87" s="18"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="17"/>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D88" s="13"/>
-      <c r="E88" s="18"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="17"/>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D89" s="13"/>
-      <c r="E89" s="18"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="17"/>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D90" s="13"/>
-      <c r="E90" s="18"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="17"/>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D91" s="13"/>
-      <c r="E91" s="18"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="17"/>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D92" s="13"/>
-      <c r="E92" s="18"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="17"/>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D93" s="13"/>
-      <c r="E93" s="18"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="17"/>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D94" s="13"/>
-      <c r="E94" s="18"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="17"/>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D95" s="13"/>
-      <c r="E95" s="18"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="17"/>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D96" s="13"/>
-      <c r="E96" s="18"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="17"/>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D97" s="13"/>
-      <c r="E97" s="18"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="17"/>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D98" s="13"/>
-      <c r="E98" s="18"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="17"/>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D99" s="13"/>
-      <c r="E99" s="18"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="17"/>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D100" s="13"/>
-      <c r="E100" s="18"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="17"/>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D101" s="13"/>
-      <c r="E101" s="18"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="17"/>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D102" s="13"/>
-      <c r="E102" s="18"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="17"/>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D103" s="13"/>
-      <c r="E103" s="18"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="17"/>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D104" s="13"/>
-      <c r="E104" s="18"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="17"/>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D105" s="13"/>
-      <c r="E105" s="18"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="17"/>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D106" s="13"/>
-      <c r="E106" s="18"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="17"/>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D107" s="13"/>
-      <c r="E107" s="18"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="17"/>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D108" s="13"/>
-      <c r="E108" s="18"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="17"/>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D109" s="13"/>
-      <c r="E109" s="18"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="17"/>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D110" s="13"/>
-      <c r="E110" s="18"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="17"/>
     </row>
     <row r="111" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D111" s="13"/>
-      <c r="E111" s="18"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="17"/>
     </row>
     <row r="112" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D112" s="13"/>
-      <c r="E112" s="18"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="17"/>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D113" s="13"/>
-      <c r="E113" s="18"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="17"/>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D114" s="13"/>
-      <c r="E114" s="18"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="17"/>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D115" s="13"/>
-      <c r="E115" s="18"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="17"/>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D116" s="13"/>
-      <c r="E116" s="18"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="17"/>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D117" s="13"/>
-      <c r="E117" s="18"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="17"/>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D118" s="13"/>
-      <c r="E118" s="18"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="17"/>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D119" s="13"/>
-      <c r="E119" s="18"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="17"/>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D120" s="13"/>
-      <c r="E120" s="18"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="17"/>
     </row>
     <row r="121" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D121" s="13"/>
-      <c r="E121" s="18"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="17"/>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D122" s="13"/>
-      <c r="E122" s="18"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="17"/>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D123" s="13"/>
-      <c r="E123" s="18"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="17"/>
     </row>
     <row r="124" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D124" s="13"/>
-      <c r="E124" s="18"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="17"/>
     </row>
     <row r="125" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D125" s="13"/>
-      <c r="E125" s="18"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="17"/>
     </row>
     <row r="126" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D126" s="13"/>
-      <c r="E126" s="18"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="17"/>
     </row>
     <row r="127" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D127" s="13"/>
-      <c r="E127" s="18"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="17"/>
     </row>
     <row r="128" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D128" s="13"/>
-      <c r="E128" s="18"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="17"/>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D129" s="13"/>
-      <c r="E129" s="18"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="17"/>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D130" s="13"/>
-      <c r="E130" s="18"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="17"/>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D131" s="13"/>
-      <c r="E131" s="18"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="17"/>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D132" s="13"/>
-      <c r="E132" s="18"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="17"/>
     </row>
     <row r="133" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D133" s="13"/>
-      <c r="E133" s="18"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="17"/>
     </row>
     <row r="134" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D134" s="13"/>
-      <c r="E134" s="18"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="17"/>
     </row>
     <row r="135" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D135" s="13"/>
-      <c r="E135" s="18"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="17"/>
     </row>
     <row r="136" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D136" s="13"/>
-      <c r="E136" s="18"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="17"/>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D137" s="13"/>
-      <c r="E137" s="18"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="17"/>
     </row>
     <row r="138" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D138" s="13"/>
-      <c r="E138" s="18"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="17"/>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D139" s="13"/>
-      <c r="E139" s="18"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="17"/>
     </row>
     <row r="140" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D140" s="13"/>
-      <c r="E140" s="18"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="17"/>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D141" s="13"/>
-      <c r="E141" s="18"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="17"/>
     </row>
     <row r="142" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D142" s="13"/>
-      <c r="E142" s="18"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="17"/>
     </row>
     <row r="143" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D143" s="13"/>
-      <c r="E143" s="18"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="17"/>
     </row>
     <row r="144" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D144" s="13"/>
-      <c r="E144" s="18"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="17"/>
     </row>
     <row r="145" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D145" s="13"/>
-      <c r="E145" s="18"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="17"/>
     </row>
     <row r="146" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D146" s="13"/>
-      <c r="E146" s="18"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="17"/>
     </row>
     <row r="147" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D147" s="13"/>
-      <c r="E147" s="18"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="17"/>
     </row>
     <row r="148" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D148" s="13"/>
-      <c r="E148" s="18"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="17"/>
     </row>
     <row r="149" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D149" s="13"/>
-      <c r="E149" s="18"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="17"/>
     </row>
     <row r="150" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D150" s="13"/>
-      <c r="E150" s="18"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="17"/>
     </row>
     <row r="151" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D151" s="13"/>
-      <c r="E151" s="18"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="17"/>
     </row>
     <row r="152" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D152" s="13"/>
-      <c r="E152" s="18"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="17"/>
     </row>
     <row r="153" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D153" s="13"/>
-      <c r="E153" s="18"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="17"/>
     </row>
     <row r="154" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D154" s="13"/>
-      <c r="E154" s="18"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="17"/>
     </row>
     <row r="155" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D155" s="13"/>
-      <c r="E155" s="18"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="17"/>
     </row>
     <row r="156" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D156" s="13"/>
-      <c r="E156" s="18"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="17"/>
     </row>
     <row r="157" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D157" s="13"/>
-      <c r="E157" s="18"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="17"/>
     </row>
     <row r="158" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D158" s="13"/>
-      <c r="E158" s="18"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="17"/>
     </row>
     <row r="159" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D159" s="13"/>
-      <c r="E159" s="18"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="17"/>
     </row>
     <row r="160" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D160" s="13"/>
-      <c r="E160" s="18"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="17"/>
     </row>
     <row r="161" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D161" s="13"/>
-      <c r="E161" s="18"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="17"/>
     </row>
     <row r="162" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D162" s="13"/>
-      <c r="E162" s="18"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="17"/>
     </row>
     <row r="163" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D163" s="13"/>
-      <c r="E163" s="18"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="17"/>
     </row>
     <row r="164" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D164" s="13"/>
-      <c r="E164" s="18"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="17"/>
     </row>
     <row r="165" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D165" s="13"/>
-      <c r="E165" s="18"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="17"/>
     </row>
     <row r="166" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D166" s="13"/>
-      <c r="E166" s="18"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="17"/>
     </row>
     <row r="167" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D167" s="13"/>
-      <c r="E167" s="18"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="17"/>
     </row>
     <row r="168" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D168" s="13"/>
-      <c r="E168" s="18"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="17"/>
     </row>
     <row r="169" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D169" s="13"/>
-      <c r="E169" s="18"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="17"/>
     </row>
     <row r="170" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D170" s="13"/>
-      <c r="E170" s="18"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="17"/>
     </row>
     <row r="171" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D171" s="13"/>
-      <c r="E171" s="18"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="17"/>
     </row>
     <row r="172" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D172" s="13"/>
-      <c r="E172" s="18"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="17"/>
     </row>
     <row r="173" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D173" s="13"/>
-      <c r="E173" s="18"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="17"/>
     </row>
     <row r="174" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D174" s="13"/>
-      <c r="E174" s="18"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="17"/>
     </row>
     <row r="175" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D175" s="13"/>
-      <c r="E175" s="18"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="17"/>
     </row>
     <row r="176" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D176" s="13"/>
-      <c r="E176" s="18"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="17"/>
     </row>
     <row r="177" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D177" s="13"/>
-      <c r="E177" s="18"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="17"/>
     </row>
     <row r="178" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D178" s="13"/>
-      <c r="E178" s="18"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="17"/>
     </row>
     <row r="179" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D179" s="13"/>
-      <c r="E179" s="18"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="17"/>
     </row>
     <row r="180" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D180" s="13"/>
-      <c r="E180" s="18"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="17"/>
     </row>
     <row r="181" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D181" s="13"/>
-      <c r="E181" s="18"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="17"/>
     </row>
     <row r="182" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D182" s="13"/>
-      <c r="E182" s="18"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="17"/>
     </row>
     <row r="183" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D183" s="13"/>
-      <c r="E183" s="18"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="17"/>
     </row>
     <row r="184" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D184" s="13"/>
-      <c r="E184" s="18"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="17"/>
     </row>
     <row r="185" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D185" s="13"/>
-      <c r="E185" s="18"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="17"/>
     </row>
     <row r="186" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D186" s="13"/>
-      <c r="E186" s="18"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="17"/>
     </row>
     <row r="187" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D187" s="13"/>
-      <c r="E187" s="18"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="17"/>
     </row>
     <row r="188" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D188" s="13"/>
-      <c r="E188" s="18"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="17"/>
     </row>
     <row r="189" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D189" s="13"/>
-      <c r="E189" s="18"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="17"/>
     </row>
     <row r="190" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D190" s="13"/>
-      <c r="E190" s="18"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="17"/>
     </row>
     <row r="191" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D191" s="13"/>
-      <c r="E191" s="18"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="17"/>
     </row>
     <row r="192" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D192" s="13"/>
-      <c r="E192" s="18"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="17"/>
     </row>
     <row r="193" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D193" s="13"/>
-      <c r="E193" s="18"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="17"/>
     </row>
     <row r="194" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D194" s="13"/>
-      <c r="E194" s="18"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="17"/>
     </row>
     <row r="195" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D195" s="13"/>
-      <c r="E195" s="18"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="17"/>
     </row>
     <row r="196" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D196" s="13"/>
-      <c r="E196" s="18"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="17"/>
     </row>
     <row r="197" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D197" s="13"/>
-      <c r="E197" s="18"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="17"/>
     </row>
     <row r="198" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D198" s="13"/>
-      <c r="E198" s="18"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="17"/>
     </row>
     <row r="199" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D199" s="13"/>
-      <c r="E199" s="18"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="17"/>
     </row>
     <row r="200" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D200" s="13"/>
-      <c r="E200" s="18"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="17"/>
     </row>
     <row r="201" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D201" s="13"/>
-      <c r="E201" s="18"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="17"/>
     </row>
     <row r="202" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D202" s="13"/>
-      <c r="E202" s="18"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="17"/>
     </row>
     <row r="203" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D203" s="13"/>
-      <c r="E203" s="18"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="17"/>
     </row>
     <row r="204" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D204" s="13"/>
-      <c r="E204" s="18"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="17"/>
     </row>
     <row r="205" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D205" s="13"/>
-      <c r="E205" s="18"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="17"/>
     </row>
     <row r="206" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D206" s="13"/>
-      <c r="E206" s="18"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="17"/>
     </row>
     <row r="207" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D207" s="13"/>
-      <c r="E207" s="18"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="17"/>
     </row>
     <row r="208" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D208" s="13"/>
-      <c r="E208" s="18"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="17"/>
     </row>
     <row r="209" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D209" s="13"/>
-      <c r="E209" s="18"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="17"/>
     </row>
     <row r="210" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D210" s="13"/>
-      <c r="E210" s="18"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="17"/>
     </row>
     <row r="211" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D211" s="13"/>
-      <c r="E211" s="18"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="17"/>
     </row>
     <row r="212" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D212" s="13"/>
-      <c r="E212" s="18"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="17"/>
     </row>
     <row r="213" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D213" s="13"/>
-      <c r="E213" s="18"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="17"/>
     </row>
     <row r="214" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D214" s="13"/>
-      <c r="E214" s="18"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="17"/>
     </row>
     <row r="215" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D215" s="13"/>
-      <c r="E215" s="18"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="17"/>
     </row>
     <row r="216" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D216" s="13"/>
-      <c r="E216" s="18"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="17"/>
     </row>
     <row r="217" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D217" s="13"/>
-      <c r="E217" s="18"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="17"/>
     </row>
     <row r="218" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D218" s="13"/>
-      <c r="E218" s="18"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="17"/>
     </row>
     <row r="219" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D219" s="13"/>
-      <c r="E219" s="18"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="17"/>
     </row>
     <row r="220" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D220" s="13"/>
-      <c r="E220" s="18"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="17"/>
     </row>
     <row r="221" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D221" s="13"/>
-      <c r="E221" s="18"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="17"/>
     </row>
     <row r="222" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D222" s="13"/>
-      <c r="E222" s="18"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="17"/>
     </row>
     <row r="223" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D223" s="13"/>
-      <c r="E223" s="18"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="17"/>
     </row>
     <row r="224" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D224" s="13"/>
-      <c r="E224" s="18"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="17"/>
     </row>
     <row r="225" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D225" s="13"/>
-      <c r="E225" s="18"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="17"/>
     </row>
     <row r="226" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D226" s="13"/>
-      <c r="E226" s="18"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="17"/>
     </row>
     <row r="227" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D227" s="13"/>
-      <c r="E227" s="18"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="17"/>
     </row>
     <row r="228" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D228" s="13"/>
-      <c r="E228" s="18"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="17"/>
     </row>
     <row r="229" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D229" s="13"/>
-      <c r="E229" s="18"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="17"/>
     </row>
     <row r="230" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D230" s="13"/>
-      <c r="E230" s="18"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="17"/>
     </row>
     <row r="231" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D231" s="13"/>
-      <c r="E231" s="18"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="17"/>
     </row>
     <row r="232" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D232" s="13"/>
-      <c r="E232" s="18"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="17"/>
     </row>
     <row r="233" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D233" s="13"/>
-      <c r="E233" s="18"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="17"/>
     </row>
     <row r="234" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D234" s="13"/>
-      <c r="E234" s="18"/>
+      <c r="D234" s="12"/>
+      <c r="E234" s="17"/>
     </row>
     <row r="235" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D235" s="13"/>
-      <c r="E235" s="18"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="17"/>
     </row>
     <row r="236" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D236" s="13"/>
-      <c r="E236" s="18"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="17"/>
     </row>
     <row r="237" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D237" s="13"/>
-      <c r="E237" s="18"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="17"/>
     </row>
     <row r="238" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D238" s="13"/>
-      <c r="E238" s="18"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="17"/>
     </row>
     <row r="239" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D239" s="13"/>
-      <c r="E239" s="18"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="17"/>
     </row>
     <row r="240" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D240" s="13"/>
-      <c r="E240" s="18"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="17"/>
     </row>
     <row r="241" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D241" s="13"/>
-      <c r="E241" s="18"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="17"/>
     </row>
     <row r="242" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D242" s="13"/>
-      <c r="E242" s="18"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="17"/>
     </row>
     <row r="243" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D243" s="13"/>
-      <c r="E243" s="18"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="17"/>
     </row>
     <row r="244" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D244" s="13"/>
-      <c r="E244" s="18"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="17"/>
     </row>
     <row r="245" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D245" s="13"/>
-      <c r="E245" s="18"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="17"/>
     </row>
     <row r="246" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D246" s="13"/>
-      <c r="E246" s="18"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="17"/>
     </row>
     <row r="247" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D247" s="13"/>
-      <c r="E247" s="18"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="17"/>
     </row>
     <row r="248" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D248" s="13"/>
-      <c r="E248" s="18"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="17"/>
     </row>
     <row r="249" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D249" s="13"/>
-      <c r="E249" s="18"/>
+      <c r="D249" s="12"/>
+      <c r="E249" s="17"/>
     </row>
     <row r="250" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D250" s="13"/>
-      <c r="E250" s="18"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="17"/>
     </row>
     <row r="251" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D251" s="13"/>
-      <c r="E251" s="18"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="17"/>
     </row>
     <row r="252" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D252" s="13"/>
-      <c r="E252" s="18"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="17"/>
     </row>
     <row r="253" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D253" s="13"/>
-      <c r="E253" s="18"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="17"/>
     </row>
     <row r="254" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D254" s="13"/>
-      <c r="E254" s="18"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="17"/>
     </row>
     <row r="255" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D255" s="13"/>
-      <c r="E255" s="18"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="17"/>
     </row>
     <row r="256" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D256" s="13"/>
-      <c r="E256" s="18"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="17"/>
     </row>
     <row r="257" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D257" s="13"/>
-      <c r="E257" s="18"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="17"/>
     </row>
     <row r="258" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D258" s="13"/>
-      <c r="E258" s="18"/>
+      <c r="D258" s="12"/>
+      <c r="E258" s="17"/>
     </row>
     <row r="259" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D259" s="13"/>
-      <c r="E259" s="18"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="17"/>
     </row>
     <row r="260" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D260" s="13"/>
-      <c r="E260" s="18"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="17"/>
     </row>
     <row r="261" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D261" s="13"/>
-      <c r="E261" s="18"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="17"/>
     </row>
     <row r="262" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D262" s="13"/>
-      <c r="E262" s="18"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="17"/>
     </row>
     <row r="263" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D263" s="13"/>
-      <c r="E263" s="18"/>
+      <c r="D263" s="12"/>
+      <c r="E263" s="17"/>
     </row>
     <row r="264" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D264" s="13"/>
-      <c r="E264" s="18"/>
+      <c r="D264" s="12"/>
+      <c r="E264" s="17"/>
     </row>
     <row r="265" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D265" s="13"/>
-      <c r="E265" s="18"/>
+      <c r="D265" s="12"/>
+      <c r="E265" s="17"/>
     </row>
     <row r="266" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D266" s="13"/>
-      <c r="E266" s="18"/>
+      <c r="D266" s="12"/>
+      <c r="E266" s="17"/>
     </row>
     <row r="267" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D267" s="13"/>
-      <c r="E267" s="18"/>
+      <c r="D267" s="12"/>
+      <c r="E267" s="17"/>
     </row>
     <row r="268" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D268" s="13"/>
-      <c r="E268" s="18"/>
+      <c r="D268" s="12"/>
+      <c r="E268" s="17"/>
     </row>
     <row r="269" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D269" s="13"/>
-      <c r="E269" s="18"/>
+      <c r="D269" s="12"/>
+      <c r="E269" s="17"/>
     </row>
     <row r="270" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D270" s="13"/>
-      <c r="E270" s="18"/>
+      <c r="D270" s="12"/>
+      <c r="E270" s="17"/>
     </row>
     <row r="271" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D271" s="13"/>
-      <c r="E271" s="18"/>
+      <c r="D271" s="12"/>
+      <c r="E271" s="17"/>
     </row>
     <row r="272" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D272" s="13"/>
-      <c r="E272" s="18"/>
+      <c r="D272" s="12"/>
+      <c r="E272" s="17"/>
     </row>
     <row r="273" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D273" s="13"/>
-      <c r="E273" s="18"/>
+      <c r="D273" s="12"/>
+      <c r="E273" s="17"/>
     </row>
     <row r="274" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D274" s="13"/>
-      <c r="E274" s="18"/>
+      <c r="D274" s="12"/>
+      <c r="E274" s="17"/>
     </row>
     <row r="275" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D275" s="13"/>
-      <c r="E275" s="18"/>
+      <c r="D275" s="12"/>
+      <c r="E275" s="17"/>
     </row>
     <row r="276" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D276" s="13"/>
-      <c r="E276" s="18"/>
+      <c r="D276" s="12"/>
+      <c r="E276" s="17"/>
     </row>
     <row r="277" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D277" s="13"/>
-      <c r="E277" s="18"/>
+      <c r="D277" s="12"/>
+      <c r="E277" s="17"/>
     </row>
     <row r="278" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D278" s="13"/>
-      <c r="E278" s="18"/>
+      <c r="D278" s="12"/>
+      <c r="E278" s="17"/>
     </row>
     <row r="279" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D279" s="13"/>
-      <c r="E279" s="18"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="17"/>
     </row>
     <row r="280" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D280" s="13"/>
-      <c r="E280" s="18"/>
+      <c r="D280" s="12"/>
+      <c r="E280" s="17"/>
     </row>
     <row r="281" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D281" s="13"/>
-      <c r="E281" s="18"/>
+      <c r="D281" s="12"/>
+      <c r="E281" s="17"/>
     </row>
     <row r="282" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D282" s="13"/>
-      <c r="E282" s="18"/>
+      <c r="D282" s="12"/>
+      <c r="E282" s="17"/>
     </row>
     <row r="283" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D283" s="13"/>
-      <c r="E283" s="18"/>
+      <c r="D283" s="12"/>
+      <c r="E283" s="17"/>
     </row>
     <row r="284" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D284" s="13"/>
-      <c r="E284" s="18"/>
+      <c r="D284" s="12"/>
+      <c r="E284" s="17"/>
     </row>
     <row r="285" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D285" s="13"/>
-      <c r="E285" s="18"/>
+      <c r="D285" s="12"/>
+      <c r="E285" s="17"/>
     </row>
     <row r="286" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D286" s="13"/>
-      <c r="E286" s="18"/>
+      <c r="D286" s="12"/>
+      <c r="E286" s="17"/>
     </row>
     <row r="287" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D287" s="13"/>
-      <c r="E287" s="18"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="17"/>
     </row>
     <row r="288" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D288" s="13"/>
-      <c r="E288" s="18"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="17"/>
     </row>
     <row r="289" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D289" s="13"/>
-      <c r="E289" s="18"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="17"/>
     </row>
     <row r="290" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D290" s="13"/>
-      <c r="E290" s="18"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="17"/>
     </row>
     <row r="291" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D291" s="13"/>
-      <c r="E291" s="18"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="17"/>
     </row>
     <row r="292" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D292" s="13"/>
-      <c r="E292" s="18"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="17"/>
     </row>
     <row r="293" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D293" s="13"/>
-      <c r="E293" s="18"/>
+      <c r="D293" s="12"/>
+      <c r="E293" s="17"/>
     </row>
     <row r="294" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D294" s="13"/>
-      <c r="E294" s="18"/>
+      <c r="D294" s="12"/>
+      <c r="E294" s="17"/>
     </row>
     <row r="295" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D295" s="13"/>
-      <c r="E295" s="18"/>
+      <c r="D295" s="12"/>
+      <c r="E295" s="17"/>
     </row>
     <row r="296" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D296" s="13"/>
-      <c r="E296" s="18"/>
+      <c r="D296" s="12"/>
+      <c r="E296" s="17"/>
     </row>
     <row r="297" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D297" s="13"/>
-      <c r="E297" s="18"/>
+      <c r="D297" s="12"/>
+      <c r="E297" s="17"/>
     </row>
     <row r="298" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D298" s="13"/>
-      <c r="E298" s="18"/>
+      <c r="D298" s="12"/>
+      <c r="E298" s="17"/>
     </row>
     <row r="299" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D299" s="13"/>
-      <c r="E299" s="18"/>
+      <c r="D299" s="12"/>
+      <c r="E299" s="17"/>
     </row>
     <row r="300" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D300" s="13"/>
-      <c r="E300" s="18"/>
+      <c r="D300" s="12"/>
+      <c r="E300" s="17"/>
     </row>
     <row r="301" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D301" s="13"/>
-      <c r="E301" s="18"/>
+      <c r="D301" s="12"/>
+      <c r="E301" s="17"/>
     </row>
     <row r="302" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D302" s="13"/>
-      <c r="E302" s="18"/>
+      <c r="D302" s="12"/>
+      <c r="E302" s="17"/>
     </row>
     <row r="303" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D303" s="13"/>
-      <c r="E303" s="18"/>
+      <c r="D303" s="12"/>
+      <c r="E303" s="17"/>
     </row>
     <row r="304" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D304" s="13"/>
-      <c r="E304" s="18"/>
+      <c r="D304" s="12"/>
+      <c r="E304" s="17"/>
     </row>
     <row r="305" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D305" s="13"/>
-      <c r="E305" s="18"/>
+      <c r="D305" s="12"/>
+      <c r="E305" s="17"/>
     </row>
     <row r="306" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D306" s="13"/>
-      <c r="E306" s="18"/>
+      <c r="D306" s="12"/>
+      <c r="E306" s="17"/>
     </row>
     <row r="307" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D307" s="13"/>
-      <c r="E307" s="18"/>
+      <c r="D307" s="12"/>
+      <c r="E307" s="17"/>
     </row>
     <row r="308" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D308" s="13"/>
-      <c r="E308" s="18"/>
+      <c r="D308" s="12"/>
+      <c r="E308" s="17"/>
     </row>
     <row r="309" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D309" s="13"/>
-      <c r="E309" s="18"/>
+      <c r="D309" s="12"/>
+      <c r="E309" s="17"/>
     </row>
     <row r="310" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D310" s="13"/>
-      <c r="E310" s="18"/>
+      <c r="D310" s="12"/>
+      <c r="E310" s="17"/>
     </row>
     <row r="311" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D311" s="13"/>
-      <c r="E311" s="18"/>
+      <c r="D311" s="12"/>
+      <c r="E311" s="17"/>
     </row>
     <row r="312" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D312" s="13"/>
-      <c r="E312" s="18"/>
+      <c r="D312" s="12"/>
+      <c r="E312" s="17"/>
     </row>
     <row r="313" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D313" s="13"/>
-      <c r="E313" s="18"/>
+      <c r="D313" s="12"/>
+      <c r="E313" s="17"/>
     </row>
     <row r="314" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D314" s="13"/>
-      <c r="E314" s="18"/>
+      <c r="D314" s="12"/>
+      <c r="E314" s="17"/>
     </row>
     <row r="315" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D315" s="13"/>
-      <c r="E315" s="18"/>
+      <c r="D315" s="12"/>
+      <c r="E315" s="17"/>
     </row>
     <row r="316" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D316" s="13"/>
-      <c r="E316" s="18"/>
+      <c r="D316" s="12"/>
+      <c r="E316" s="17"/>
     </row>
     <row r="317" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D317" s="13"/>
-      <c r="E317" s="18"/>
+      <c r="D317" s="12"/>
+      <c r="E317" s="17"/>
     </row>
     <row r="318" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D318" s="13"/>
-      <c r="E318" s="18"/>
+      <c r="D318" s="12"/>
+      <c r="E318" s="17"/>
     </row>
     <row r="319" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D319" s="13"/>
-      <c r="E319" s="18"/>
+      <c r="D319" s="12"/>
+      <c r="E319" s="17"/>
     </row>
     <row r="320" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D320" s="13"/>
-      <c r="E320" s="18"/>
+      <c r="D320" s="12"/>
+      <c r="E320" s="17"/>
     </row>
     <row r="321" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D321" s="13"/>
-      <c r="E321" s="18"/>
+      <c r="D321" s="12"/>
+      <c r="E321" s="17"/>
     </row>
     <row r="322" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D322" s="13"/>
-      <c r="E322" s="18"/>
+      <c r="D322" s="12"/>
+      <c r="E322" s="17"/>
     </row>
     <row r="323" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D323" s="13"/>
-      <c r="E323" s="18"/>
+      <c r="D323" s="12"/>
+      <c r="E323" s="17"/>
     </row>
     <row r="324" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D324" s="13"/>
-      <c r="E324" s="18"/>
+      <c r="D324" s="12"/>
+      <c r="E324" s="17"/>
     </row>
     <row r="325" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D325" s="13"/>
-      <c r="E325" s="18"/>
+      <c r="D325" s="12"/>
+      <c r="E325" s="17"/>
     </row>
     <row r="326" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D326" s="13"/>
-      <c r="E326" s="18"/>
+      <c r="D326" s="12"/>
+      <c r="E326" s="17"/>
     </row>
     <row r="327" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D327" s="13"/>
-      <c r="E327" s="18"/>
+      <c r="D327" s="12"/>
+      <c r="E327" s="17"/>
     </row>
     <row r="328" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D328" s="13"/>
-      <c r="E328" s="18"/>
+      <c r="D328" s="12"/>
+      <c r="E328" s="17"/>
     </row>
     <row r="329" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D329" s="13"/>
-      <c r="E329" s="18"/>
+      <c r="D329" s="12"/>
+      <c r="E329" s="17"/>
     </row>
     <row r="330" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D330" s="13"/>
-      <c r="E330" s="18"/>
+      <c r="D330" s="12"/>
+      <c r="E330" s="17"/>
     </row>
     <row r="331" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D331" s="13"/>
-      <c r="E331" s="18"/>
+      <c r="D331" s="12"/>
+      <c r="E331" s="17"/>
     </row>
     <row r="332" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D332" s="13"/>
-      <c r="E332" s="18"/>
+      <c r="D332" s="12"/>
+      <c r="E332" s="17"/>
     </row>
     <row r="333" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D333" s="13"/>
-      <c r="E333" s="18"/>
+      <c r="D333" s="12"/>
+      <c r="E333" s="17"/>
     </row>
     <row r="334" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D334" s="13"/>
-      <c r="E334" s="18"/>
+      <c r="D334" s="12"/>
+      <c r="E334" s="17"/>
     </row>
     <row r="335" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D335" s="13"/>
-      <c r="E335" s="18"/>
+      <c r="D335" s="12"/>
+      <c r="E335" s="17"/>
     </row>
     <row r="336" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D336" s="13"/>
-      <c r="E336" s="18"/>
+      <c r="D336" s="12"/>
+      <c r="E336" s="17"/>
     </row>
     <row r="337" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D337" s="13"/>
-      <c r="E337" s="18"/>
+      <c r="D337" s="12"/>
+      <c r="E337" s="17"/>
     </row>
     <row r="338" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D338" s="13"/>
-      <c r="E338" s="18"/>
+      <c r="D338" s="12"/>
+      <c r="E338" s="17"/>
     </row>
     <row r="339" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D339" s="13"/>
-      <c r="E339" s="18"/>
+      <c r="D339" s="12"/>
+      <c r="E339" s="17"/>
     </row>
     <row r="340" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D340" s="13"/>
-      <c r="E340" s="18"/>
+      <c r="D340" s="12"/>
+      <c r="E340" s="17"/>
     </row>
     <row r="341" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D341" s="13"/>
-      <c r="E341" s="18"/>
+      <c r="D341" s="12"/>
+      <c r="E341" s="17"/>
     </row>
     <row r="342" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D342" s="13"/>
-      <c r="E342" s="18"/>
+      <c r="D342" s="12"/>
+      <c r="E342" s="17"/>
     </row>
     <row r="343" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D343" s="13"/>
-      <c r="E343" s="18"/>
+      <c r="D343" s="12"/>
+      <c r="E343" s="17"/>
     </row>
     <row r="344" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D344" s="13"/>
-      <c r="E344" s="18"/>
+      <c r="D344" s="12"/>
+      <c r="E344" s="17"/>
     </row>
     <row r="345" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D345" s="13"/>
-      <c r="E345" s="18"/>
+      <c r="D345" s="12"/>
+      <c r="E345" s="17"/>
     </row>
     <row r="346" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D346" s="13"/>
-      <c r="E346" s="18"/>
+      <c r="D346" s="12"/>
+      <c r="E346" s="17"/>
     </row>
     <row r="347" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D347" s="13"/>
-      <c r="E347" s="18"/>
+      <c r="D347" s="12"/>
+      <c r="E347" s="17"/>
     </row>
     <row r="348" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D348" s="13"/>
-      <c r="E348" s="18"/>
+      <c r="D348" s="12"/>
+      <c r="E348" s="17"/>
     </row>
     <row r="349" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D349" s="13"/>
-      <c r="E349" s="18"/>
+      <c r="D349" s="12"/>
+      <c r="E349" s="17"/>
     </row>
     <row r="350" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D350" s="13"/>
-      <c r="E350" s="18"/>
+      <c r="D350" s="12"/>
+      <c r="E350" s="17"/>
     </row>
     <row r="351" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D351" s="13"/>
-      <c r="E351" s="18"/>
+      <c r="D351" s="12"/>
+      <c r="E351" s="17"/>
     </row>
     <row r="352" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D352" s="13"/>
-      <c r="E352" s="18"/>
+      <c r="D352" s="12"/>
+      <c r="E352" s="17"/>
     </row>
     <row r="353" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D353" s="13"/>
-      <c r="E353" s="18"/>
+      <c r="D353" s="12"/>
+      <c r="E353" s="17"/>
     </row>
     <row r="354" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D354" s="13"/>
-      <c r="E354" s="18"/>
+      <c r="D354" s="12"/>
+      <c r="E354" s="17"/>
     </row>
     <row r="355" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D355" s="13"/>
-      <c r="E355" s="18"/>
+      <c r="D355" s="12"/>
+      <c r="E355" s="17"/>
     </row>
     <row r="356" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D356" s="13"/>
-      <c r="E356" s="18"/>
+      <c r="D356" s="12"/>
+      <c r="E356" s="17"/>
     </row>
     <row r="357" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D357" s="13"/>
-      <c r="E357" s="18"/>
+      <c r="D357" s="12"/>
+      <c r="E357" s="17"/>
     </row>
     <row r="358" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D358" s="13"/>
-      <c r="E358" s="18"/>
+      <c r="D358" s="12"/>
+      <c r="E358" s="17"/>
     </row>
     <row r="359" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D359" s="13"/>
-      <c r="E359" s="18"/>
+      <c r="D359" s="12"/>
+      <c r="E359" s="17"/>
     </row>
     <row r="360" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D360" s="13"/>
-      <c r="E360" s="18"/>
+      <c r="D360" s="12"/>
+      <c r="E360" s="17"/>
     </row>
     <row r="361" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D361" s="13"/>
-      <c r="E361" s="18"/>
+      <c r="D361" s="12"/>
+      <c r="E361" s="17"/>
     </row>
     <row r="362" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D362" s="13"/>
-      <c r="E362" s="18"/>
+      <c r="D362" s="12"/>
+      <c r="E362" s="17"/>
     </row>
     <row r="363" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D363" s="13"/>
-      <c r="E363" s="18"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="17"/>
     </row>
     <row r="364" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D364" s="13"/>
-      <c r="E364" s="18"/>
+      <c r="D364" s="12"/>
+      <c r="E364" s="17"/>
     </row>
     <row r="365" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D365" s="13"/>
-      <c r="E365" s="18"/>
+      <c r="D365" s="12"/>
+      <c r="E365" s="17"/>
     </row>
     <row r="366" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D366" s="13"/>
-      <c r="E366" s="18"/>
+      <c r="D366" s="12"/>
+      <c r="E366" s="17"/>
     </row>
     <row r="367" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D367" s="13"/>
-      <c r="E367" s="18"/>
+      <c r="D367" s="12"/>
+      <c r="E367" s="17"/>
     </row>
     <row r="368" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D368" s="13"/>
-      <c r="E368" s="18"/>
+      <c r="D368" s="12"/>
+      <c r="E368" s="17"/>
     </row>
     <row r="369" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D369" s="13"/>
-      <c r="E369" s="18"/>
+      <c r="D369" s="12"/>
+      <c r="E369" s="17"/>
     </row>
     <row r="370" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D370" s="13"/>
-      <c r="E370" s="18"/>
+      <c r="D370" s="12"/>
+      <c r="E370" s="17"/>
     </row>
     <row r="371" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D371" s="13"/>
-      <c r="E371" s="18"/>
+      <c r="D371" s="12"/>
+      <c r="E371" s="17"/>
     </row>
     <row r="372" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D372" s="13"/>
-      <c r="E372" s="18"/>
+      <c r="D372" s="12"/>
+      <c r="E372" s="17"/>
     </row>
     <row r="373" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D373" s="13"/>
-      <c r="E373" s="18"/>
+      <c r="D373" s="12"/>
+      <c r="E373" s="17"/>
     </row>
     <row r="374" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D374" s="13"/>
-      <c r="E374" s="18"/>
+      <c r="D374" s="12"/>
+      <c r="E374" s="17"/>
     </row>
     <row r="375" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D375" s="13"/>
-      <c r="E375" s="18"/>
+      <c r="D375" s="12"/>
+      <c r="E375" s="17"/>
     </row>
     <row r="376" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D376" s="13"/>
-      <c r="E376" s="18"/>
+      <c r="D376" s="12"/>
+      <c r="E376" s="17"/>
     </row>
     <row r="377" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D377" s="13"/>
-      <c r="E377" s="18"/>
+      <c r="D377" s="12"/>
+      <c r="E377" s="17"/>
     </row>
     <row r="378" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D378" s="13"/>
-      <c r="E378" s="18"/>
+      <c r="D378" s="12"/>
+      <c r="E378" s="17"/>
     </row>
     <row r="379" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D379" s="13"/>
-      <c r="E379" s="18"/>
+      <c r="D379" s="12"/>
+      <c r="E379" s="17"/>
     </row>
     <row r="380" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D380" s="13"/>
-      <c r="E380" s="18"/>
+      <c r="D380" s="12"/>
+      <c r="E380" s="17"/>
     </row>
     <row r="381" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D381" s="13"/>
-      <c r="E381" s="18"/>
+      <c r="D381" s="12"/>
+      <c r="E381" s="17"/>
     </row>
     <row r="382" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D382" s="13"/>
-      <c r="E382" s="18"/>
+      <c r="D382" s="12"/>
+      <c r="E382" s="17"/>
     </row>
     <row r="383" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D383" s="13"/>
-      <c r="E383" s="18"/>
+      <c r="D383" s="12"/>
+      <c r="E383" s="17"/>
     </row>
     <row r="384" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D384" s="13"/>
-      <c r="E384" s="18"/>
+      <c r="D384" s="12"/>
+      <c r="E384" s="17"/>
     </row>
     <row r="385" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D385" s="13"/>
-      <c r="E385" s="18"/>
+      <c r="D385" s="12"/>
+      <c r="E385" s="17"/>
     </row>
     <row r="386" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D386" s="13"/>
-      <c r="E386" s="18"/>
+      <c r="D386" s="12"/>
+      <c r="E386" s="17"/>
     </row>
     <row r="387" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D387" s="13"/>
-      <c r="E387" s="18"/>
+      <c r="D387" s="12"/>
+      <c r="E387" s="17"/>
     </row>
     <row r="388" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D388" s="13"/>
-      <c r="E388" s="18"/>
+      <c r="D388" s="12"/>
+      <c r="E388" s="17"/>
     </row>
     <row r="389" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D389" s="13"/>
-      <c r="E389" s="18"/>
+      <c r="D389" s="12"/>
+      <c r="E389" s="17"/>
     </row>
     <row r="390" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D390" s="13"/>
-      <c r="E390" s="18"/>
+      <c r="D390" s="12"/>
+      <c r="E390" s="17"/>
     </row>
     <row r="391" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D391" s="13"/>
-      <c r="E391" s="18"/>
+      <c r="D391" s="12"/>
+      <c r="E391" s="17"/>
     </row>
     <row r="392" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D392" s="13"/>
-      <c r="E392" s="18"/>
+      <c r="D392" s="12"/>
+      <c r="E392" s="17"/>
     </row>
     <row r="393" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D393" s="13"/>
-      <c r="E393" s="18"/>
+      <c r="D393" s="12"/>
+      <c r="E393" s="17"/>
     </row>
     <row r="394" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D394" s="13"/>
-      <c r="E394" s="18"/>
+      <c r="D394" s="12"/>
+      <c r="E394" s="17"/>
     </row>
     <row r="395" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D395" s="13"/>
-      <c r="E395" s="18"/>
+      <c r="D395" s="12"/>
+      <c r="E395" s="17"/>
     </row>
     <row r="396" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D396" s="13"/>
-      <c r="E396" s="18"/>
+      <c r="D396" s="12"/>
+      <c r="E396" s="17"/>
     </row>
     <row r="397" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D397" s="13"/>
-      <c r="E397" s="18"/>
+      <c r="D397" s="12"/>
+      <c r="E397" s="17"/>
     </row>
     <row r="398" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D398" s="13"/>
-      <c r="E398" s="18"/>
+      <c r="D398" s="12"/>
+      <c r="E398" s="17"/>
     </row>
     <row r="399" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D399" s="13"/>
-      <c r="E399" s="18"/>
+      <c r="D399" s="12"/>
+      <c r="E399" s="17"/>
     </row>
     <row r="400" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D400" s="13"/>
-      <c r="E400" s="18"/>
+      <c r="D400" s="12"/>
+      <c r="E400" s="17"/>
     </row>
     <row r="401" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D401" s="13"/>
-      <c r="E401" s="18"/>
+      <c r="D401" s="12"/>
+      <c r="E401" s="17"/>
     </row>
     <row r="402" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D402" s="13"/>
-      <c r="E402" s="18"/>
+      <c r="D402" s="12"/>
+      <c r="E402" s="17"/>
     </row>
     <row r="403" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D403" s="13"/>
-      <c r="E403" s="18"/>
+      <c r="D403" s="12"/>
+      <c r="E403" s="17"/>
     </row>
     <row r="404" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D404" s="13"/>
-      <c r="E404" s="18"/>
+      <c r="D404" s="12"/>
+      <c r="E404" s="17"/>
     </row>
     <row r="405" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D405" s="13"/>
-      <c r="E405" s="18"/>
+      <c r="D405" s="12"/>
+      <c r="E405" s="17"/>
     </row>
     <row r="406" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D406" s="13"/>
-      <c r="E406" s="18"/>
+      <c r="D406" s="12"/>
+      <c r="E406" s="17"/>
     </row>
     <row r="407" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D407" s="13"/>
-      <c r="E407" s="18"/>
+      <c r="D407" s="12"/>
+      <c r="E407" s="17"/>
     </row>
     <row r="408" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D408" s="13"/>
-      <c r="E408" s="18"/>
+      <c r="D408" s="12"/>
+      <c r="E408" s="17"/>
     </row>
     <row r="409" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D409" s="13"/>
-      <c r="E409" s="18"/>
+      <c r="D409" s="12"/>
+      <c r="E409" s="17"/>
     </row>
     <row r="410" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D410" s="13"/>
-      <c r="E410" s="18"/>
+      <c r="D410" s="12"/>
+      <c r="E410" s="17"/>
     </row>
     <row r="411" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D411" s="13"/>
-      <c r="E411" s="18"/>
+      <c r="D411" s="12"/>
+      <c r="E411" s="17"/>
     </row>
     <row r="412" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D412" s="13"/>
-      <c r="E412" s="18"/>
+      <c r="D412" s="12"/>
+      <c r="E412" s="17"/>
     </row>
     <row r="413" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D413" s="13"/>
-      <c r="E413" s="18"/>
+      <c r="D413" s="12"/>
+      <c r="E413" s="17"/>
     </row>
     <row r="414" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D414" s="13"/>
-      <c r="E414" s="18"/>
+      <c r="D414" s="12"/>
+      <c r="E414" s="17"/>
     </row>
     <row r="415" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D415" s="13"/>
-      <c r="E415" s="18"/>
+      <c r="D415" s="12"/>
+      <c r="E415" s="17"/>
     </row>
     <row r="416" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D416" s="13"/>
-      <c r="E416" s="18"/>
+      <c r="D416" s="12"/>
+      <c r="E416" s="17"/>
     </row>
     <row r="417" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D417" s="13"/>
-      <c r="E417" s="18"/>
+      <c r="D417" s="12"/>
+      <c r="E417" s="17"/>
     </row>
     <row r="418" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D418" s="13"/>
-      <c r="E418" s="18"/>
+      <c r="D418" s="12"/>
+      <c r="E418" s="17"/>
     </row>
     <row r="419" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D419" s="13"/>
-      <c r="E419" s="18"/>
+      <c r="D419" s="12"/>
+      <c r="E419" s="17"/>
     </row>
     <row r="420" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D420" s="13"/>
-      <c r="E420" s="18"/>
+      <c r="D420" s="12"/>
+      <c r="E420" s="17"/>
     </row>
     <row r="421" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D421" s="13"/>
-      <c r="E421" s="18"/>
+      <c r="D421" s="12"/>
+      <c r="E421" s="17"/>
     </row>
     <row r="422" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D422" s="13"/>
-      <c r="E422" s="18"/>
+      <c r="D422" s="12"/>
+      <c r="E422" s="17"/>
     </row>
     <row r="423" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D423" s="13"/>
-      <c r="E423" s="18"/>
+      <c r="D423" s="12"/>
+      <c r="E423" s="17"/>
     </row>
     <row r="424" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D424" s="13"/>
-      <c r="E424" s="18"/>
+      <c r="D424" s="12"/>
+      <c r="E424" s="17"/>
     </row>
     <row r="425" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D425" s="13"/>
-      <c r="E425" s="18"/>
+      <c r="D425" s="12"/>
+      <c r="E425" s="17"/>
     </row>
     <row r="426" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D426" s="13"/>
-      <c r="E426" s="18"/>
+      <c r="D426" s="12"/>
+      <c r="E426" s="17"/>
     </row>
     <row r="427" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D427" s="13"/>
-      <c r="E427" s="18"/>
+      <c r="D427" s="12"/>
+      <c r="E427" s="17"/>
     </row>
     <row r="428" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D428" s="13"/>
-      <c r="E428" s="18"/>
+      <c r="D428" s="12"/>
+      <c r="E428" s="17"/>
     </row>
     <row r="429" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D429" s="13"/>
-      <c r="E429" s="18"/>
+      <c r="D429" s="12"/>
+      <c r="E429" s="17"/>
     </row>
     <row r="430" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D430" s="13"/>
-      <c r="E430" s="18"/>
+      <c r="D430" s="12"/>
+      <c r="E430" s="17"/>
     </row>
     <row r="431" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D431" s="13"/>
-      <c r="E431" s="18"/>
+      <c r="D431" s="12"/>
+      <c r="E431" s="17"/>
     </row>
     <row r="432" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D432" s="13"/>
-      <c r="E432" s="18"/>
+      <c r="D432" s="12"/>
+      <c r="E432" s="17"/>
     </row>
     <row r="433" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D433" s="13"/>
-      <c r="E433" s="18"/>
+      <c r="D433" s="12"/>
+      <c r="E433" s="17"/>
     </row>
     <row r="434" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D434" s="13"/>
-      <c r="E434" s="18"/>
+      <c r="D434" s="12"/>
+      <c r="E434" s="17"/>
     </row>
     <row r="435" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D435" s="13"/>
-      <c r="E435" s="18"/>
+      <c r="D435" s="12"/>
+      <c r="E435" s="17"/>
     </row>
     <row r="436" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D436" s="13"/>
-      <c r="E436" s="18"/>
+      <c r="D436" s="12"/>
+      <c r="E436" s="17"/>
     </row>
     <row r="437" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D437" s="13"/>
-      <c r="E437" s="18"/>
+      <c r="D437" s="12"/>
+      <c r="E437" s="17"/>
     </row>
     <row r="438" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D438" s="13"/>
-      <c r="E438" s="18"/>
+      <c r="D438" s="12"/>
+      <c r="E438" s="17"/>
     </row>
     <row r="439" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D439" s="13"/>
-      <c r="E439" s="18"/>
+      <c r="D439" s="12"/>
+      <c r="E439" s="17"/>
     </row>
     <row r="440" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D440" s="13"/>
-      <c r="E440" s="18"/>
+      <c r="D440" s="12"/>
+      <c r="E440" s="17"/>
     </row>
     <row r="441" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D441" s="13"/>
-      <c r="E441" s="18"/>
+      <c r="D441" s="12"/>
+      <c r="E441" s="17"/>
     </row>
     <row r="442" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D442" s="13"/>
-      <c r="E442" s="18"/>
+      <c r="D442" s="12"/>
+      <c r="E442" s="17"/>
     </row>
     <row r="443" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D443" s="13"/>
-      <c r="E443" s="18"/>
+      <c r="D443" s="12"/>
+      <c r="E443" s="17"/>
     </row>
     <row r="444" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D444" s="13"/>
-      <c r="E444" s="18"/>
+      <c r="D444" s="12"/>
+      <c r="E444" s="17"/>
     </row>
     <row r="445" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D445" s="13"/>
-      <c r="E445" s="18"/>
+      <c r="D445" s="12"/>
+      <c r="E445" s="17"/>
     </row>
     <row r="446" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D446" s="13"/>
-      <c r="E446" s="18"/>
+      <c r="D446" s="12"/>
+      <c r="E446" s="17"/>
     </row>
     <row r="447" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D447" s="13"/>
-      <c r="E447" s="18"/>
+      <c r="D447" s="12"/>
+      <c r="E447" s="17"/>
     </row>
     <row r="448" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D448" s="13"/>
-      <c r="E448" s="18"/>
+      <c r="D448" s="12"/>
+      <c r="E448" s="17"/>
     </row>
     <row r="449" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D449" s="13"/>
-      <c r="E449" s="18"/>
+      <c r="D449" s="12"/>
+      <c r="E449" s="17"/>
     </row>
     <row r="450" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D450" s="13"/>
-      <c r="E450" s="18"/>
+      <c r="D450" s="12"/>
+      <c r="E450" s="17"/>
     </row>
     <row r="451" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D451" s="13"/>
-      <c r="E451" s="18"/>
+      <c r="D451" s="12"/>
+      <c r="E451" s="17"/>
     </row>
     <row r="452" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D452" s="13"/>
-      <c r="E452" s="18"/>
+      <c r="D452" s="12"/>
+      <c r="E452" s="17"/>
     </row>
     <row r="453" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D453" s="13"/>
-      <c r="E453" s="18"/>
+      <c r="D453" s="12"/>
+      <c r="E453" s="17"/>
     </row>
     <row r="454" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D454" s="13"/>
-      <c r="E454" s="18"/>
+      <c r="D454" s="12"/>
+      <c r="E454" s="17"/>
     </row>
     <row r="455" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D455" s="13"/>
-      <c r="E455" s="18"/>
+      <c r="D455" s="12"/>
+      <c r="E455" s="17"/>
     </row>
     <row r="456" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D456" s="13"/>
-      <c r="E456" s="18"/>
+      <c r="D456" s="12"/>
+      <c r="E456" s="17"/>
     </row>
     <row r="457" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D457" s="13"/>
-      <c r="E457" s="18"/>
+      <c r="D457" s="12"/>
+      <c r="E457" s="17"/>
     </row>
     <row r="458" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D458" s="13"/>
-      <c r="E458" s="18"/>
+      <c r="D458" s="12"/>
+      <c r="E458" s="17"/>
     </row>
     <row r="459" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D459" s="13"/>
-      <c r="E459" s="18"/>
+      <c r="D459" s="12"/>
+      <c r="E459" s="17"/>
     </row>
     <row r="460" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D460" s="13"/>
-      <c r="E460" s="18"/>
+      <c r="D460" s="12"/>
+      <c r="E460" s="17"/>
     </row>
     <row r="461" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D461" s="13"/>
-      <c r="E461" s="18"/>
+      <c r="D461" s="12"/>
+      <c r="E461" s="17"/>
     </row>
     <row r="462" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D462" s="13"/>
-      <c r="E462" s="18"/>
+      <c r="D462" s="12"/>
+      <c r="E462" s="17"/>
     </row>
     <row r="463" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D463" s="13"/>
-      <c r="E463" s="18"/>
+      <c r="D463" s="12"/>
+      <c r="E463" s="17"/>
     </row>
     <row r="464" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D464" s="13"/>
-      <c r="E464" s="18"/>
+      <c r="D464" s="12"/>
+      <c r="E464" s="17"/>
     </row>
     <row r="465" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D465" s="13"/>
-      <c r="E465" s="18"/>
+      <c r="D465" s="12"/>
+      <c r="E465" s="17"/>
     </row>
     <row r="466" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D466" s="13"/>
-      <c r="E466" s="18"/>
+      <c r="D466" s="12"/>
+      <c r="E466" s="17"/>
     </row>
     <row r="467" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D467" s="13"/>
-      <c r="E467" s="18"/>
+      <c r="D467" s="12"/>
+      <c r="E467" s="17"/>
     </row>
     <row r="468" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D468" s="13"/>
-      <c r="E468" s="18"/>
+      <c r="D468" s="12"/>
+      <c r="E468" s="17"/>
     </row>
     <row r="469" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D469" s="13"/>
-      <c r="E469" s="18"/>
+      <c r="D469" s="12"/>
+      <c r="E469" s="17"/>
     </row>
     <row r="470" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D470" s="13"/>
-      <c r="E470" s="18"/>
+      <c r="D470" s="12"/>
+      <c r="E470" s="17"/>
     </row>
     <row r="471" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D471" s="13"/>
-      <c r="E471" s="18"/>
+      <c r="D471" s="12"/>
+      <c r="E471" s="17"/>
     </row>
     <row r="472" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D472" s="13"/>
-      <c r="E472" s="18"/>
+      <c r="D472" s="12"/>
+      <c r="E472" s="17"/>
     </row>
     <row r="473" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D473" s="13"/>
-      <c r="E473" s="18"/>
+      <c r="D473" s="12"/>
+      <c r="E473" s="17"/>
     </row>
     <row r="474" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D474" s="13"/>
-      <c r="E474" s="18"/>
+      <c r="D474" s="12"/>
+      <c r="E474" s="17"/>
     </row>
     <row r="475" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D475" s="13"/>
-      <c r="E475" s="18"/>
+      <c r="D475" s="12"/>
+      <c r="E475" s="17"/>
     </row>
     <row r="476" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D476" s="13"/>
-      <c r="E476" s="18"/>
+      <c r="D476" s="12"/>
+      <c r="E476" s="17"/>
     </row>
     <row r="477" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D477" s="13"/>
-      <c r="E477" s="18"/>
+      <c r="D477" s="12"/>
+      <c r="E477" s="17"/>
     </row>
     <row r="478" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D478" s="13"/>
-      <c r="E478" s="18"/>
+      <c r="D478" s="12"/>
+      <c r="E478" s="17"/>
     </row>
     <row r="479" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D479" s="13"/>
-      <c r="E479" s="18"/>
+      <c r="D479" s="12"/>
+      <c r="E479" s="17"/>
     </row>
     <row r="480" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D480" s="13"/>
-      <c r="E480" s="18"/>
+      <c r="D480" s="12"/>
+      <c r="E480" s="17"/>
     </row>
     <row r="481" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D481" s="13"/>
-      <c r="E481" s="18"/>
+      <c r="D481" s="12"/>
+      <c r="E481" s="17"/>
     </row>
     <row r="482" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D482" s="13"/>
-      <c r="E482" s="18"/>
+      <c r="D482" s="12"/>
+      <c r="E482" s="17"/>
     </row>
     <row r="483" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D483" s="13"/>
-      <c r="E483" s="18"/>
+      <c r="D483" s="12"/>
+      <c r="E483" s="17"/>
     </row>
     <row r="484" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D484" s="13"/>
-      <c r="E484" s="18"/>
+      <c r="D484" s="12"/>
+      <c r="E484" s="17"/>
     </row>
     <row r="485" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D485" s="13"/>
-      <c r="E485" s="18"/>
+      <c r="D485" s="12"/>
+      <c r="E485" s="17"/>
     </row>
     <row r="486" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D486" s="13"/>
-      <c r="E486" s="18"/>
+      <c r="D486" s="12"/>
+      <c r="E486" s="17"/>
     </row>
     <row r="487" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D487" s="13"/>
-      <c r="E487" s="18"/>
+      <c r="D487" s="12"/>
+      <c r="E487" s="17"/>
     </row>
     <row r="488" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D488" s="13"/>
-      <c r="E488" s="18"/>
+      <c r="D488" s="12"/>
+      <c r="E488" s="17"/>
     </row>
     <row r="489" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D489" s="13"/>
-      <c r="E489" s="18"/>
+      <c r="D489" s="12"/>
+      <c r="E489" s="17"/>
     </row>
     <row r="490" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D490" s="13"/>
-      <c r="E490" s="18"/>
+      <c r="D490" s="12"/>
+      <c r="E490" s="17"/>
     </row>
     <row r="491" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D491" s="13"/>
-      <c r="E491" s="18"/>
+      <c r="D491" s="12"/>
+      <c r="E491" s="17"/>
     </row>
     <row r="492" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D492" s="13"/>
-      <c r="E492" s="18"/>
+      <c r="D492" s="12"/>
+      <c r="E492" s="17"/>
     </row>
     <row r="493" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D493" s="13"/>
-      <c r="E493" s="18"/>
+      <c r="D493" s="12"/>
+      <c r="E493" s="17"/>
     </row>
     <row r="494" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D494" s="13"/>
-      <c r="E494" s="18"/>
+      <c r="D494" s="12"/>
+      <c r="E494" s="17"/>
     </row>
     <row r="495" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D495" s="13"/>
-      <c r="E495" s="18"/>
+      <c r="D495" s="12"/>
+      <c r="E495" s="17"/>
     </row>
     <row r="496" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D496" s="13"/>
-      <c r="E496" s="18"/>
+      <c r="D496" s="12"/>
+      <c r="E496" s="17"/>
     </row>
     <row r="497" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D497" s="13"/>
-      <c r="E497" s="18"/>
+      <c r="D497" s="12"/>
+      <c r="E497" s="17"/>
     </row>
     <row r="498" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D498" s="13"/>
-      <c r="E498" s="18"/>
+      <c r="D498" s="12"/>
+      <c r="E498" s="17"/>
     </row>
     <row r="499" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D499" s="13"/>
-      <c r="E499" s="18"/>
+      <c r="D499" s="12"/>
+      <c r="E499" s="17"/>
     </row>
     <row r="500" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D500" s="13"/>
-      <c r="E500" s="18"/>
+      <c r="D500" s="12"/>
+      <c r="E500" s="17"/>
     </row>
     <row r="501" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D501" s="13"/>
-      <c r="E501" s="18"/>
+      <c r="D501" s="12"/>
+      <c r="E501" s="17"/>
     </row>
     <row r="502" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D502" s="13"/>
-      <c r="E502" s="18"/>
+      <c r="D502" s="12"/>
+      <c r="E502" s="17"/>
     </row>
     <row r="503" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D503" s="13"/>
-      <c r="E503" s="18"/>
+      <c r="D503" s="12"/>
+      <c r="E503" s="17"/>
     </row>
     <row r="504" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D504" s="13"/>
-      <c r="E504" s="18"/>
+      <c r="D504" s="12"/>
+      <c r="E504" s="17"/>
     </row>
     <row r="505" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D505" s="13"/>
-      <c r="E505" s="18"/>
+      <c r="D505" s="12"/>
+      <c r="E505" s="17"/>
     </row>
     <row r="506" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D506" s="13"/>
-      <c r="E506" s="18"/>
+      <c r="D506" s="12"/>
+      <c r="E506" s="17"/>
     </row>
     <row r="507" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D507" s="13"/>
-      <c r="E507" s="18"/>
+      <c r="D507" s="12"/>
+      <c r="E507" s="17"/>
     </row>
     <row r="508" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D508" s="13"/>
-      <c r="E508" s="18"/>
+      <c r="D508" s="12"/>
+      <c r="E508" s="17"/>
     </row>
     <row r="509" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D509" s="13"/>
-      <c r="E509" s="18"/>
+      <c r="D509" s="12"/>
+      <c r="E509" s="17"/>
     </row>
     <row r="510" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D510" s="13"/>
-      <c r="E510" s="18"/>
+      <c r="D510" s="12"/>
+      <c r="E510" s="17"/>
     </row>
     <row r="511" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D511" s="13"/>
-      <c r="E511" s="18"/>
+      <c r="D511" s="12"/>
+      <c r="E511" s="17"/>
     </row>
     <row r="512" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D512" s="13"/>
-      <c r="E512" s="18"/>
+      <c r="D512" s="12"/>
+      <c r="E512" s="17"/>
     </row>
     <row r="513" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D513" s="13"/>
-      <c r="E513" s="18"/>
+      <c r="D513" s="12"/>
+      <c r="E513" s="17"/>
     </row>
     <row r="514" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D514" s="13"/>
-      <c r="E514" s="18"/>
+      <c r="D514" s="12"/>
+      <c r="E514" s="17"/>
     </row>
     <row r="515" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D515" s="13"/>
-      <c r="E515" s="18"/>
+      <c r="D515" s="12"/>
+      <c r="E515" s="17"/>
     </row>
     <row r="516" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D516" s="13"/>
-      <c r="E516" s="18"/>
+      <c r="D516" s="12"/>
+      <c r="E516" s="17"/>
     </row>
     <row r="517" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D517" s="13"/>
-      <c r="E517" s="18"/>
+      <c r="D517" s="12"/>
+      <c r="E517" s="17"/>
     </row>
     <row r="518" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D518" s="13"/>
-      <c r="E518" s="18"/>
+      <c r="D518" s="12"/>
+      <c r="E518" s="17"/>
     </row>
     <row r="519" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D519" s="13"/>
-      <c r="E519" s="18"/>
+      <c r="D519" s="12"/>
+      <c r="E519" s="17"/>
     </row>
     <row r="520" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D520" s="13"/>
-      <c r="E520" s="18"/>
+      <c r="D520" s="12"/>
+      <c r="E520" s="17"/>
     </row>
     <row r="521" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D521" s="13"/>
-      <c r="E521" s="18"/>
+      <c r="D521" s="12"/>
+      <c r="E521" s="17"/>
     </row>
     <row r="522" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D522" s="13"/>
-      <c r="E522" s="18"/>
+      <c r="D522" s="12"/>
+      <c r="E522" s="17"/>
     </row>
     <row r="523" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D523" s="13"/>
-      <c r="E523" s="18"/>
+      <c r="D523" s="12"/>
+      <c r="E523" s="17"/>
     </row>
     <row r="524" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D524" s="13"/>
-      <c r="E524" s="18"/>
+      <c r="D524" s="12"/>
+      <c r="E524" s="17"/>
     </row>
     <row r="525" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D525" s="13"/>
-      <c r="E525" s="18"/>
+      <c r="D525" s="12"/>
+      <c r="E525" s="17"/>
     </row>
     <row r="526" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D526" s="13"/>
-      <c r="E526" s="18"/>
+      <c r="D526" s="12"/>
+      <c r="E526" s="17"/>
     </row>
     <row r="527" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D527" s="13"/>
-      <c r="E527" s="18"/>
+      <c r="D527" s="12"/>
+      <c r="E527" s="17"/>
     </row>
     <row r="528" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D528" s="13"/>
-      <c r="E528" s="18"/>
+      <c r="D528" s="12"/>
+      <c r="E528" s="17"/>
     </row>
     <row r="529" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D529" s="13"/>
-      <c r="E529" s="18"/>
+      <c r="D529" s="12"/>
+      <c r="E529" s="17"/>
     </row>
     <row r="530" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D530" s="13"/>
-      <c r="E530" s="18"/>
+      <c r="D530" s="12"/>
+      <c r="E530" s="17"/>
     </row>
     <row r="531" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D531" s="13"/>
-      <c r="E531" s="18"/>
+      <c r="D531" s="12"/>
+      <c r="E531" s="17"/>
     </row>
     <row r="532" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D532" s="13"/>
-      <c r="E532" s="18"/>
+      <c r="D532" s="12"/>
+      <c r="E532" s="17"/>
     </row>
     <row r="533" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D533" s="13"/>
-      <c r="E533" s="18"/>
+      <c r="D533" s="12"/>
+      <c r="E533" s="17"/>
     </row>
     <row r="534" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D534" s="13"/>
-      <c r="E534" s="18"/>
+      <c r="D534" s="12"/>
+      <c r="E534" s="17"/>
     </row>
     <row r="535" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D535" s="13"/>
-      <c r="E535" s="18"/>
+      <c r="D535" s="12"/>
+      <c r="E535" s="17"/>
     </row>
     <row r="536" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D536" s="13"/>
-      <c r="E536" s="18"/>
+      <c r="D536" s="12"/>
+      <c r="E536" s="17"/>
     </row>
     <row r="537" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D537" s="13"/>
-      <c r="E537" s="18"/>
+      <c r="D537" s="12"/>
+      <c r="E537" s="17"/>
     </row>
     <row r="538" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D538" s="13"/>
-      <c r="E538" s="18"/>
+      <c r="D538" s="12"/>
+      <c r="E538" s="17"/>
     </row>
     <row r="539" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D539" s="13"/>
-      <c r="E539" s="18"/>
+      <c r="D539" s="12"/>
+      <c r="E539" s="17"/>
     </row>
     <row r="540" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D540" s="13"/>
-      <c r="E540" s="18"/>
+      <c r="D540" s="12"/>
+      <c r="E540" s="17"/>
     </row>
     <row r="541" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D541" s="13"/>
-      <c r="E541" s="18"/>
+      <c r="D541" s="12"/>
+      <c r="E541" s="17"/>
     </row>
     <row r="542" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D542" s="13"/>
-      <c r="E542" s="18"/>
+      <c r="D542" s="12"/>
+      <c r="E542" s="17"/>
     </row>
     <row r="543" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D543" s="13"/>
-      <c r="E543" s="18"/>
+      <c r="D543" s="12"/>
+      <c r="E543" s="17"/>
     </row>
     <row r="544" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D544" s="13"/>
-      <c r="E544" s="18"/>
+      <c r="D544" s="12"/>
+      <c r="E544" s="17"/>
     </row>
     <row r="545" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D545" s="13"/>
-      <c r="E545" s="18"/>
+      <c r="D545" s="12"/>
+      <c r="E545" s="17"/>
     </row>
     <row r="546" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D546" s="13"/>
-      <c r="E546" s="18"/>
+      <c r="D546" s="12"/>
+      <c r="E546" s="17"/>
     </row>
     <row r="547" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D547" s="13"/>
-      <c r="E547" s="18"/>
+      <c r="D547" s="12"/>
+      <c r="E547" s="17"/>
     </row>
     <row r="548" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D548" s="13"/>
-      <c r="E548" s="18"/>
+      <c r="D548" s="12"/>
+      <c r="E548" s="17"/>
     </row>
     <row r="549" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D549" s="13"/>
-      <c r="E549" s="18"/>
+      <c r="D549" s="12"/>
+      <c r="E549" s="17"/>
     </row>
     <row r="550" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D550" s="13"/>
-      <c r="E550" s="18"/>
+      <c r="D550" s="12"/>
+      <c r="E550" s="17"/>
     </row>
     <row r="551" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D551" s="13"/>
-      <c r="E551" s="18"/>
+      <c r="D551" s="12"/>
+      <c r="E551" s="17"/>
     </row>
     <row r="552" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D552" s="13"/>
-      <c r="E552" s="18"/>
+      <c r="D552" s="12"/>
+      <c r="E552" s="17"/>
     </row>
     <row r="553" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D553" s="13"/>
-      <c r="E553" s="18"/>
+      <c r="D553" s="12"/>
+      <c r="E553" s="17"/>
     </row>
     <row r="554" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D554" s="13"/>
-      <c r="E554" s="18"/>
+      <c r="D554" s="12"/>
+      <c r="E554" s="17"/>
     </row>
     <row r="555" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D555" s="13"/>
-      <c r="E555" s="18"/>
+      <c r="D555" s="12"/>
+      <c r="E555" s="17"/>
     </row>
     <row r="556" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D556" s="13"/>
-      <c r="E556" s="18"/>
+      <c r="D556" s="12"/>
+      <c r="E556" s="17"/>
     </row>
     <row r="557" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D557" s="13"/>
-      <c r="E557" s="18"/>
+      <c r="D557" s="12"/>
+      <c r="E557" s="17"/>
     </row>
     <row r="558" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D558" s="13"/>
-      <c r="E558" s="18"/>
+      <c r="D558" s="12"/>
+      <c r="E558" s="17"/>
     </row>
     <row r="559" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D559" s="13"/>
-      <c r="E559" s="18"/>
+      <c r="D559" s="12"/>
+      <c r="E559" s="17"/>
     </row>
     <row r="560" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D560" s="13"/>
-      <c r="E560" s="18"/>
+      <c r="D560" s="12"/>
+      <c r="E560" s="17"/>
     </row>
     <row r="561" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D561" s="13"/>
-      <c r="E561" s="18"/>
+      <c r="D561" s="12"/>
+      <c r="E561" s="17"/>
     </row>
     <row r="562" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D562" s="13"/>
-      <c r="E562" s="18"/>
+      <c r="D562" s="12"/>
+      <c r="E562" s="17"/>
     </row>
     <row r="563" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D563" s="13"/>
-      <c r="E563" s="18"/>
+      <c r="D563" s="12"/>
+      <c r="E563" s="17"/>
     </row>
     <row r="564" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D564" s="13"/>
-      <c r="E564" s="18"/>
+      <c r="D564" s="12"/>
+      <c r="E564" s="17"/>
     </row>
     <row r="565" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D565" s="13"/>
-      <c r="E565" s="18"/>
+      <c r="D565" s="12"/>
+      <c r="E565" s="17"/>
     </row>
     <row r="566" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D566" s="13"/>
-      <c r="E566" s="18"/>
+      <c r="D566" s="12"/>
+      <c r="E566" s="17"/>
     </row>
     <row r="567" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D567" s="13"/>
-      <c r="E567" s="18"/>
+      <c r="D567" s="12"/>
+      <c r="E567" s="17"/>
     </row>
     <row r="568" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D568" s="13"/>
-      <c r="E568" s="18"/>
+      <c r="D568" s="12"/>
+      <c r="E568" s="17"/>
     </row>
     <row r="569" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D569" s="13"/>
-      <c r="E569" s="18"/>
+      <c r="D569" s="12"/>
+      <c r="E569" s="17"/>
     </row>
     <row r="570" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D570" s="13"/>
-      <c r="E570" s="18"/>
+      <c r="D570" s="12"/>
+      <c r="E570" s="17"/>
     </row>
     <row r="571" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D571" s="13"/>
-      <c r="E571" s="18"/>
+      <c r="D571" s="12"/>
+      <c r="E571" s="17"/>
     </row>
     <row r="572" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D572" s="13"/>
-      <c r="E572" s="18"/>
+      <c r="D572" s="12"/>
+      <c r="E572" s="17"/>
     </row>
     <row r="573" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D573" s="13"/>
-      <c r="E573" s="18"/>
+      <c r="D573" s="12"/>
+      <c r="E573" s="17"/>
     </row>
     <row r="574" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D574" s="13"/>
-      <c r="E574" s="18"/>
+      <c r="D574" s="12"/>
+      <c r="E574" s="17"/>
     </row>
     <row r="575" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D575" s="13"/>
-      <c r="E575" s="18"/>
+      <c r="D575" s="12"/>
+      <c r="E575" s="17"/>
     </row>
     <row r="576" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D576" s="13"/>
-      <c r="E576" s="18"/>
+      <c r="D576" s="12"/>
+      <c r="E576" s="17"/>
     </row>
     <row r="577" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D577" s="13"/>
-      <c r="E577" s="18"/>
+      <c r="D577" s="12"/>
+      <c r="E577" s="17"/>
     </row>
     <row r="578" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D578" s="13"/>
-      <c r="E578" s="18"/>
+      <c r="D578" s="12"/>
+      <c r="E578" s="17"/>
     </row>
     <row r="579" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D579" s="13"/>
-      <c r="E579" s="18"/>
+      <c r="D579" s="12"/>
+      <c r="E579" s="17"/>
     </row>
     <row r="580" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D580" s="13"/>
-      <c r="E580" s="18"/>
+      <c r="D580" s="12"/>
+      <c r="E580" s="17"/>
     </row>
     <row r="581" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D581" s="13"/>
-      <c r="E581" s="18"/>
+      <c r="D581" s="12"/>
+      <c r="E581" s="17"/>
     </row>
     <row r="582" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D582" s="13"/>
-      <c r="E582" s="18"/>
+      <c r="D582" s="12"/>
+      <c r="E582" s="17"/>
     </row>
     <row r="583" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D583" s="13"/>
-      <c r="E583" s="18"/>
+      <c r="D583" s="12"/>
+      <c r="E583" s="17"/>
     </row>
     <row r="584" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D584" s="13"/>
-      <c r="E584" s="18"/>
+      <c r="D584" s="12"/>
+      <c r="E584" s="17"/>
     </row>
     <row r="585" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D585" s="13"/>
-      <c r="E585" s="18"/>
+      <c r="D585" s="12"/>
+      <c r="E585" s="17"/>
     </row>
     <row r="586" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D586" s="13"/>
-      <c r="E586" s="18"/>
+      <c r="D586" s="12"/>
+      <c r="E586" s="17"/>
     </row>
     <row r="587" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D587" s="13"/>
-      <c r="E587" s="18"/>
+      <c r="D587" s="12"/>
+      <c r="E587" s="17"/>
     </row>
     <row r="588" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D588" s="13"/>
-      <c r="E588" s="18"/>
+      <c r="D588" s="12"/>
+      <c r="E588" s="17"/>
     </row>
     <row r="589" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D589" s="13"/>
-      <c r="E589" s="18"/>
+      <c r="D589" s="12"/>
+      <c r="E589" s="17"/>
     </row>
     <row r="590" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D590" s="13"/>
-      <c r="E590" s="18"/>
+      <c r="D590" s="12"/>
+      <c r="E590" s="17"/>
     </row>
     <row r="591" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D591" s="13"/>
-      <c r="E591" s="18"/>
+      <c r="D591" s="12"/>
+      <c r="E591" s="17"/>
     </row>
     <row r="592" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D592" s="13"/>
-      <c r="E592" s="18"/>
+      <c r="D592" s="12"/>
+      <c r="E592" s="17"/>
     </row>
     <row r="593" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D593" s="13"/>
-      <c r="E593" s="18"/>
+      <c r="D593" s="12"/>
+      <c r="E593" s="17"/>
     </row>
     <row r="594" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D594" s="13"/>
-      <c r="E594" s="18"/>
+      <c r="D594" s="12"/>
+      <c r="E594" s="17"/>
     </row>
     <row r="595" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D595" s="13"/>
-      <c r="E595" s="18"/>
+      <c r="D595" s="12"/>
+      <c r="E595" s="17"/>
     </row>
     <row r="596" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D596" s="13"/>
-      <c r="E596" s="18"/>
+      <c r="D596" s="12"/>
+      <c r="E596" s="17"/>
     </row>
     <row r="597" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D597" s="13"/>
-      <c r="E597" s="18"/>
+      <c r="D597" s="12"/>
+      <c r="E597" s="17"/>
     </row>
     <row r="598" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D598" s="13"/>
-      <c r="E598" s="18"/>
+      <c r="D598" s="12"/>
+      <c r="E598" s="17"/>
     </row>
     <row r="599" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D599" s="13"/>
-      <c r="E599" s="18"/>
+      <c r="D599" s="12"/>
+      <c r="E599" s="17"/>
     </row>
     <row r="600" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D600" s="13"/>
-      <c r="E600" s="18"/>
+      <c r="D600" s="12"/>
+      <c r="E600" s="17"/>
     </row>
     <row r="601" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D601" s="13"/>
-      <c r="E601" s="18"/>
+      <c r="D601" s="12"/>
+      <c r="E601" s="17"/>
     </row>
     <row r="602" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D602" s="13"/>
-      <c r="E602" s="18"/>
+      <c r="D602" s="12"/>
+      <c r="E602" s="17"/>
     </row>
     <row r="603" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D603" s="13"/>
-      <c r="E603" s="18"/>
+      <c r="D603" s="12"/>
+      <c r="E603" s="17"/>
     </row>
     <row r="604" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D604" s="13"/>
-      <c r="E604" s="18"/>
+      <c r="D604" s="12"/>
+      <c r="E604" s="17"/>
     </row>
     <row r="605" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D605" s="13"/>
-      <c r="E605" s="18"/>
+      <c r="D605" s="12"/>
+      <c r="E605" s="17"/>
     </row>
     <row r="606" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D606" s="13"/>
-      <c r="E606" s="18"/>
+      <c r="D606" s="12"/>
+      <c r="E606" s="17"/>
     </row>
     <row r="607" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D607" s="13"/>
-      <c r="E607" s="18"/>
+      <c r="D607" s="12"/>
+      <c r="E607" s="17"/>
     </row>
     <row r="608" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D608" s="13"/>
-      <c r="E608" s="18"/>
+      <c r="D608" s="12"/>
+      <c r="E608" s="17"/>
     </row>
     <row r="609" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D609" s="13"/>
-      <c r="E609" s="18"/>
+      <c r="D609" s="12"/>
+      <c r="E609" s="17"/>
     </row>
     <row r="610" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D610" s="13"/>
-      <c r="E610" s="18"/>
+      <c r="D610" s="12"/>
+      <c r="E610" s="17"/>
     </row>
     <row r="611" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D611" s="13"/>
-      <c r="E611" s="18"/>
+      <c r="D611" s="12"/>
+      <c r="E611" s="17"/>
     </row>
     <row r="612" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D612" s="13"/>
-      <c r="E612" s="18"/>
+      <c r="D612" s="12"/>
+      <c r="E612" s="17"/>
     </row>
     <row r="613" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D613" s="13"/>
-      <c r="E613" s="18"/>
+      <c r="D613" s="12"/>
+      <c r="E613" s="17"/>
     </row>
     <row r="614" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D614" s="13"/>
-      <c r="E614" s="18"/>
+      <c r="D614" s="12"/>
+      <c r="E614" s="17"/>
     </row>
     <row r="615" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D615" s="13"/>
-      <c r="E615" s="18"/>
+      <c r="D615" s="12"/>
+      <c r="E615" s="17"/>
     </row>
     <row r="616" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D616" s="13"/>
-      <c r="E616" s="18"/>
+      <c r="D616" s="12"/>
+      <c r="E616" s="17"/>
     </row>
     <row r="617" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D617" s="13"/>
-      <c r="E617" s="18"/>
+      <c r="D617" s="12"/>
+      <c r="E617" s="17"/>
     </row>
     <row r="618" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D618" s="13"/>
-      <c r="E618" s="18"/>
+      <c r="D618" s="12"/>
+      <c r="E618" s="17"/>
     </row>
     <row r="619" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D619" s="13"/>
-      <c r="E619" s="18"/>
+      <c r="D619" s="12"/>
+      <c r="E619" s="17"/>
     </row>
     <row r="620" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D620" s="13"/>
-      <c r="E620" s="18"/>
+      <c r="D620" s="12"/>
+      <c r="E620" s="17"/>
     </row>
     <row r="621" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D621" s="13"/>
-      <c r="E621" s="18"/>
+      <c r="D621" s="12"/>
+      <c r="E621" s="17"/>
     </row>
     <row r="622" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D622" s="13"/>
-      <c r="E622" s="18"/>
+      <c r="D622" s="12"/>
+      <c r="E622" s="17"/>
     </row>
     <row r="623" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D623" s="13"/>
-      <c r="E623" s="18"/>
+      <c r="D623" s="12"/>
+      <c r="E623" s="17"/>
     </row>
     <row r="624" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D624" s="13"/>
-      <c r="E624" s="18"/>
+      <c r="D624" s="12"/>
+      <c r="E624" s="17"/>
     </row>
     <row r="625" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D625" s="13"/>
-      <c r="E625" s="18"/>
+      <c r="D625" s="12"/>
+      <c r="E625" s="17"/>
     </row>
     <row r="626" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D626" s="13"/>
-      <c r="E626" s="18"/>
+      <c r="D626" s="12"/>
+      <c r="E626" s="17"/>
     </row>
     <row r="627" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D627" s="13"/>
-      <c r="E627" s="18"/>
+      <c r="D627" s="12"/>
+      <c r="E627" s="17"/>
     </row>
     <row r="628" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D628" s="13"/>
-      <c r="E628" s="18"/>
+      <c r="D628" s="12"/>
+      <c r="E628" s="17"/>
     </row>
     <row r="629" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D629" s="13"/>
-      <c r="E629" s="18"/>
+      <c r="D629" s="12"/>
+      <c r="E629" s="17"/>
     </row>
     <row r="630" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D630" s="13"/>
-      <c r="E630" s="18"/>
+      <c r="D630" s="12"/>
+      <c r="E630" s="17"/>
     </row>
     <row r="631" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D631" s="13"/>
-      <c r="E631" s="18"/>
+      <c r="D631" s="12"/>
+      <c r="E631" s="17"/>
     </row>
     <row r="632" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D632" s="13"/>
-      <c r="E632" s="18"/>
+      <c r="D632" s="12"/>
+      <c r="E632" s="17"/>
     </row>
     <row r="633" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D633" s="13"/>
-      <c r="E633" s="18"/>
+      <c r="D633" s="12"/>
+      <c r="E633" s="17"/>
     </row>
     <row r="634" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D634" s="13"/>
-      <c r="E634" s="18"/>
+      <c r="D634" s="12"/>
+      <c r="E634" s="17"/>
     </row>
     <row r="635" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D635" s="13"/>
-      <c r="E635" s="18"/>
+      <c r="D635" s="12"/>
+      <c r="E635" s="17"/>
     </row>
     <row r="636" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D636" s="13"/>
-      <c r="E636" s="18"/>
+      <c r="D636" s="12"/>
+      <c r="E636" s="17"/>
     </row>
     <row r="637" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D637" s="13"/>
-      <c r="E637" s="18"/>
+      <c r="D637" s="12"/>
+      <c r="E637" s="17"/>
     </row>
     <row r="638" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D638" s="13"/>
-      <c r="E638" s="18"/>
+      <c r="D638" s="12"/>
+      <c r="E638" s="17"/>
     </row>
     <row r="639" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D639" s="13"/>
-      <c r="E639" s="18"/>
+      <c r="D639" s="12"/>
+      <c r="E639" s="17"/>
     </row>
     <row r="640" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D640" s="13"/>
-      <c r="E640" s="18"/>
+      <c r="D640" s="12"/>
+      <c r="E640" s="17"/>
     </row>
     <row r="641" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D641" s="13"/>
-      <c r="E641" s="18"/>
+      <c r="D641" s="12"/>
+      <c r="E641" s="17"/>
     </row>
     <row r="642" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D642" s="13"/>
-      <c r="E642" s="18"/>
+      <c r="D642" s="12"/>
+      <c r="E642" s="17"/>
     </row>
     <row r="643" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D643" s="13"/>
-      <c r="E643" s="18"/>
+      <c r="D643" s="12"/>
+      <c r="E643" s="17"/>
     </row>
     <row r="644" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D644" s="13"/>
-      <c r="E644" s="18"/>
+      <c r="D644" s="12"/>
+      <c r="E644" s="17"/>
     </row>
     <row r="645" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D645" s="13"/>
-      <c r="E645" s="18"/>
+      <c r="D645" s="12"/>
+      <c r="E645" s="17"/>
     </row>
     <row r="646" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D646" s="13"/>
-      <c r="E646" s="18"/>
+      <c r="D646" s="12"/>
+      <c r="E646" s="17"/>
     </row>
     <row r="647" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D647" s="13"/>
-      <c r="E647" s="18"/>
+      <c r="D647" s="12"/>
+      <c r="E647" s="17"/>
     </row>
     <row r="648" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D648" s="13"/>
-      <c r="E648" s="18"/>
+      <c r="D648" s="12"/>
+      <c r="E648" s="17"/>
     </row>
     <row r="649" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D649" s="13"/>
-      <c r="E649" s="18"/>
+      <c r="D649" s="12"/>
+      <c r="E649" s="17"/>
     </row>
     <row r="650" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D650" s="13"/>
-      <c r="E650" s="18"/>
+      <c r="D650" s="12"/>
+      <c r="E650" s="17"/>
     </row>
     <row r="651" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D651" s="13"/>
-      <c r="E651" s="18"/>
+      <c r="D651" s="12"/>
+      <c r="E651" s="17"/>
     </row>
     <row r="652" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D652" s="13"/>
-      <c r="E652" s="18"/>
+      <c r="D652" s="12"/>
+      <c r="E652" s="17"/>
     </row>
     <row r="653" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D653" s="13"/>
-      <c r="E653" s="18"/>
+      <c r="D653" s="12"/>
+      <c r="E653" s="17"/>
     </row>
     <row r="654" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D654" s="13"/>
-      <c r="E654" s="18"/>
+      <c r="D654" s="12"/>
+      <c r="E654" s="17"/>
     </row>
     <row r="655" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D655" s="13"/>
-      <c r="E655" s="18"/>
+      <c r="D655" s="12"/>
+      <c r="E655" s="17"/>
     </row>
     <row r="656" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D656" s="13"/>
-      <c r="E656" s="18"/>
+      <c r="D656" s="12"/>
+      <c r="E656" s="17"/>
     </row>
     <row r="657" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D657" s="13"/>
-      <c r="E657" s="18"/>
+      <c r="D657" s="12"/>
+      <c r="E657" s="17"/>
     </row>
     <row r="658" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D658" s="13"/>
-      <c r="E658" s="18"/>
+      <c r="D658" s="12"/>
+      <c r="E658" s="17"/>
     </row>
     <row r="659" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D659" s="13"/>
-      <c r="E659" s="18"/>
+      <c r="D659" s="12"/>
+      <c r="E659" s="17"/>
     </row>
     <row r="660" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D660" s="13"/>
-      <c r="E660" s="18"/>
+      <c r="D660" s="12"/>
+      <c r="E660" s="17"/>
     </row>
     <row r="661" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D661" s="13"/>
-      <c r="E661" s="18"/>
+      <c r="D661" s="12"/>
+      <c r="E661" s="17"/>
     </row>
     <row r="662" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D662" s="13"/>
-      <c r="E662" s="18"/>
+      <c r="D662" s="12"/>
+      <c r="E662" s="17"/>
     </row>
     <row r="663" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D663" s="13"/>
-      <c r="E663" s="18"/>
+      <c r="D663" s="12"/>
+      <c r="E663" s="17"/>
     </row>
     <row r="664" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D664" s="13"/>
-      <c r="E664" s="18"/>
+      <c r="D664" s="12"/>
+      <c r="E664" s="17"/>
     </row>
     <row r="665" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D665" s="13"/>
-      <c r="E665" s="18"/>
+      <c r="D665" s="12"/>
+      <c r="E665" s="17"/>
     </row>
     <row r="666" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D666" s="13"/>
-      <c r="E666" s="18"/>
+      <c r="D666" s="12"/>
+      <c r="E666" s="17"/>
     </row>
     <row r="667" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D667" s="13"/>
-      <c r="E667" s="18"/>
+      <c r="D667" s="12"/>
+      <c r="E667" s="17"/>
     </row>
     <row r="668" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D668" s="13"/>
-      <c r="E668" s="18"/>
+      <c r="D668" s="12"/>
+      <c r="E668" s="17"/>
     </row>
     <row r="669" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D669" s="13"/>
-      <c r="E669" s="18"/>
+      <c r="D669" s="12"/>
+      <c r="E669" s="17"/>
     </row>
     <row r="670" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D670" s="13"/>
-      <c r="E670" s="18"/>
+      <c r="D670" s="12"/>
+      <c r="E670" s="17"/>
     </row>
     <row r="671" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D671" s="13"/>
-      <c r="E671" s="18"/>
+      <c r="D671" s="12"/>
+      <c r="E671" s="17"/>
     </row>
     <row r="672" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D672" s="13"/>
-      <c r="E672" s="18"/>
+      <c r="D672" s="12"/>
+      <c r="E672" s="17"/>
     </row>
     <row r="673" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D673" s="13"/>
-      <c r="E673" s="18"/>
+      <c r="D673" s="12"/>
+      <c r="E673" s="17"/>
     </row>
     <row r="674" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D674" s="13"/>
-      <c r="E674" s="18"/>
+      <c r="D674" s="12"/>
+      <c r="E674" s="17"/>
     </row>
     <row r="675" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D675" s="13"/>
-      <c r="E675" s="18"/>
+      <c r="D675" s="12"/>
+      <c r="E675" s="17"/>
     </row>
     <row r="676" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D676" s="13"/>
-      <c r="E676" s="18"/>
+      <c r="D676" s="12"/>
+      <c r="E676" s="17"/>
     </row>
     <row r="677" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D677" s="13"/>
-      <c r="E677" s="18"/>
+      <c r="D677" s="12"/>
+      <c r="E677" s="17"/>
     </row>
     <row r="678" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D678" s="13"/>
-      <c r="E678" s="18"/>
+      <c r="D678" s="12"/>
+      <c r="E678" s="17"/>
     </row>
     <row r="679" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D679" s="13"/>
-      <c r="E679" s="18"/>
+      <c r="D679" s="12"/>
+      <c r="E679" s="17"/>
     </row>
     <row r="680" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D680" s="13"/>
-      <c r="E680" s="18"/>
+      <c r="D680" s="12"/>
+      <c r="E680" s="17"/>
     </row>
     <row r="681" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D681" s="13"/>
-      <c r="E681" s="18"/>
+      <c r="D681" s="12"/>
+      <c r="E681" s="17"/>
     </row>
     <row r="682" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D682" s="13"/>
-      <c r="E682" s="18"/>
+      <c r="D682" s="12"/>
+      <c r="E682" s="17"/>
     </row>
     <row r="683" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D683" s="13"/>
-      <c r="E683" s="18"/>
+      <c r="D683" s="12"/>
+      <c r="E683" s="17"/>
     </row>
     <row r="684" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D684" s="13"/>
-      <c r="E684" s="18"/>
+      <c r="D684" s="12"/>
+      <c r="E684" s="17"/>
     </row>
     <row r="685" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D685" s="13"/>
-      <c r="E685" s="18"/>
+      <c r="D685" s="12"/>
+      <c r="E685" s="17"/>
     </row>
     <row r="686" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D686" s="13"/>
-      <c r="E686" s="18"/>
+      <c r="D686" s="12"/>
+      <c r="E686" s="17"/>
     </row>
     <row r="687" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D687" s="13"/>
-      <c r="E687" s="18"/>
+      <c r="D687" s="12"/>
+      <c r="E687" s="17"/>
     </row>
     <row r="688" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D688" s="13"/>
-      <c r="E688" s="18"/>
+      <c r="D688" s="12"/>
+      <c r="E688" s="17"/>
     </row>
     <row r="689" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D689" s="13"/>
-      <c r="E689" s="18"/>
+      <c r="D689" s="12"/>
+      <c r="E689" s="17"/>
     </row>
     <row r="690" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D690" s="13"/>
-      <c r="E690" s="18"/>
+      <c r="D690" s="12"/>
+      <c r="E690" s="17"/>
     </row>
     <row r="691" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D691" s="13"/>
-      <c r="E691" s="18"/>
+      <c r="D691" s="12"/>
+      <c r="E691" s="17"/>
     </row>
     <row r="692" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D692" s="13"/>
-      <c r="E692" s="18"/>
+      <c r="D692" s="12"/>
+      <c r="E692" s="17"/>
     </row>
     <row r="693" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D693" s="13"/>
-      <c r="E693" s="18"/>
+      <c r="D693" s="12"/>
+      <c r="E693" s="17"/>
     </row>
     <row r="694" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D694" s="13"/>
-      <c r="E694" s="18"/>
+      <c r="D694" s="12"/>
+      <c r="E694" s="17"/>
     </row>
     <row r="695" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D695" s="13"/>
-      <c r="E695" s="18"/>
+      <c r="D695" s="12"/>
+      <c r="E695" s="17"/>
     </row>
     <row r="696" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D696" s="13"/>
-      <c r="E696" s="18"/>
+      <c r="D696" s="12"/>
+      <c r="E696" s="17"/>
     </row>
     <row r="697" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D697" s="13"/>
-      <c r="E697" s="18"/>
+      <c r="D697" s="12"/>
+      <c r="E697" s="17"/>
     </row>
     <row r="698" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D698" s="13"/>
-      <c r="E698" s="18"/>
+      <c r="D698" s="12"/>
+      <c r="E698" s="17"/>
     </row>
     <row r="699" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D699" s="13"/>
-      <c r="E699" s="18"/>
+      <c r="D699" s="12"/>
+      <c r="E699" s="17"/>
     </row>
     <row r="700" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D700" s="13"/>
-      <c r="E700" s="18"/>
+      <c r="D700" s="12"/>
+      <c r="E700" s="17"/>
     </row>
     <row r="701" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D701" s="13"/>
-      <c r="E701" s="18"/>
+      <c r="D701" s="12"/>
+      <c r="E701" s="17"/>
     </row>
     <row r="702" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D702" s="13"/>
-      <c r="E702" s="18"/>
+      <c r="D702" s="12"/>
+      <c r="E702" s="17"/>
     </row>
     <row r="703" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D703" s="13"/>
-      <c r="E703" s="18"/>
+      <c r="D703" s="12"/>
+      <c r="E703" s="17"/>
     </row>
     <row r="704" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D704" s="13"/>
-      <c r="E704" s="18"/>
+      <c r="D704" s="12"/>
+      <c r="E704" s="17"/>
     </row>
     <row r="705" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D705" s="13"/>
-      <c r="E705" s="18"/>
+      <c r="D705" s="12"/>
+      <c r="E705" s="17"/>
     </row>
     <row r="706" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D706" s="13"/>
-      <c r="E706" s="18"/>
+      <c r="D706" s="12"/>
+      <c r="E706" s="17"/>
     </row>
     <row r="707" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D707" s="13"/>
-      <c r="E707" s="18"/>
+      <c r="D707" s="12"/>
+      <c r="E707" s="17"/>
     </row>
     <row r="708" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D708" s="13"/>
-      <c r="E708" s="18"/>
+      <c r="D708" s="12"/>
+      <c r="E708" s="17"/>
     </row>
     <row r="709" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D709" s="13"/>
-      <c r="E709" s="18"/>
+      <c r="D709" s="12"/>
+      <c r="E709" s="17"/>
     </row>
     <row r="710" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D710" s="13"/>
-      <c r="E710" s="18"/>
+      <c r="D710" s="12"/>
+      <c r="E710" s="17"/>
     </row>
     <row r="711" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D711" s="13"/>
-      <c r="E711" s="18"/>
+      <c r="D711" s="12"/>
+      <c r="E711" s="17"/>
     </row>
     <row r="712" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D712" s="13"/>
-      <c r="E712" s="18"/>
+      <c r="D712" s="12"/>
+      <c r="E712" s="17"/>
     </row>
     <row r="713" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D713" s="13"/>
-      <c r="E713" s="18"/>
+      <c r="D713" s="12"/>
+      <c r="E713" s="17"/>
     </row>
     <row r="714" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D714" s="13"/>
-      <c r="E714" s="18"/>
+      <c r="D714" s="12"/>
+      <c r="E714" s="17"/>
     </row>
     <row r="715" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D715" s="13"/>
-      <c r="E715" s="18"/>
+      <c r="D715" s="12"/>
+      <c r="E715" s="17"/>
     </row>
     <row r="716" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D716" s="13"/>
-      <c r="E716" s="18"/>
+      <c r="D716" s="12"/>
+      <c r="E716" s="17"/>
     </row>
     <row r="717" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D717" s="13"/>
-      <c r="E717" s="18"/>
+      <c r="D717" s="12"/>
+      <c r="E717" s="17"/>
     </row>
     <row r="718" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D718" s="13"/>
-      <c r="E718" s="18"/>
+      <c r="D718" s="12"/>
+      <c r="E718" s="17"/>
     </row>
     <row r="719" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D719" s="13"/>
-      <c r="E719" s="18"/>
+      <c r="D719" s="12"/>
+      <c r="E719" s="17"/>
     </row>
     <row r="720" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D720" s="13"/>
-      <c r="E720" s="18"/>
+      <c r="D720" s="12"/>
+      <c r="E720" s="17"/>
     </row>
     <row r="721" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D721" s="13"/>
-      <c r="E721" s="18"/>
+      <c r="D721" s="12"/>
+      <c r="E721" s="17"/>
     </row>
     <row r="722" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D722" s="13"/>
-      <c r="E722" s="18"/>
+      <c r="D722" s="12"/>
+      <c r="E722" s="17"/>
     </row>
     <row r="723" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D723" s="13"/>
-      <c r="E723" s="18"/>
+      <c r="D723" s="12"/>
+      <c r="E723" s="17"/>
     </row>
     <row r="724" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D724" s="13"/>
-      <c r="E724" s="18"/>
+      <c r="D724" s="12"/>
+      <c r="E724" s="17"/>
     </row>
     <row r="725" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D725" s="13"/>
-      <c r="E725" s="18"/>
+      <c r="D725" s="12"/>
+      <c r="E725" s="17"/>
     </row>
     <row r="726" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D726" s="13"/>
-      <c r="E726" s="18"/>
+      <c r="D726" s="12"/>
+      <c r="E726" s="17"/>
     </row>
     <row r="727" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D727" s="13"/>
-      <c r="E727" s="18"/>
+      <c r="D727" s="12"/>
+      <c r="E727" s="17"/>
     </row>
     <row r="728" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D728" s="13"/>
-      <c r="E728" s="18"/>
+      <c r="D728" s="12"/>
+      <c r="E728" s="17"/>
     </row>
     <row r="729" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D729" s="13"/>
-      <c r="E729" s="18"/>
+      <c r="D729" s="12"/>
+      <c r="E729" s="17"/>
     </row>
     <row r="730" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D730" s="13"/>
-      <c r="E730" s="18"/>
+      <c r="D730" s="12"/>
+      <c r="E730" s="17"/>
     </row>
     <row r="731" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D731" s="13"/>
-      <c r="E731" s="18"/>
+      <c r="D731" s="12"/>
+      <c r="E731" s="17"/>
     </row>
     <row r="732" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D732" s="13"/>
-      <c r="E732" s="18"/>
+      <c r="D732" s="12"/>
+      <c r="E732" s="17"/>
     </row>
     <row r="733" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D733" s="13"/>
-      <c r="E733" s="18"/>
+      <c r="D733" s="12"/>
+      <c r="E733" s="17"/>
     </row>
     <row r="734" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D734" s="13"/>
-      <c r="E734" s="18"/>
+      <c r="D734" s="12"/>
+      <c r="E734" s="17"/>
     </row>
     <row r="735" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D735" s="13"/>
-      <c r="E735" s="18"/>
+      <c r="D735" s="12"/>
+      <c r="E735" s="17"/>
     </row>
     <row r="736" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D736" s="13"/>
-      <c r="E736" s="18"/>
+      <c r="D736" s="12"/>
+      <c r="E736" s="17"/>
     </row>
     <row r="737" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D737" s="13"/>
-      <c r="E737" s="18"/>
+      <c r="D737" s="12"/>
+      <c r="E737" s="17"/>
     </row>
     <row r="738" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D738" s="13"/>
-      <c r="E738" s="18"/>
+      <c r="D738" s="12"/>
+      <c r="E738" s="17"/>
     </row>
     <row r="739" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D739" s="13"/>
-      <c r="E739" s="18"/>
+      <c r="D739" s="12"/>
+      <c r="E739" s="17"/>
     </row>
     <row r="740" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D740" s="13"/>
-      <c r="E740" s="18"/>
+      <c r="D740" s="12"/>
+      <c r="E740" s="17"/>
     </row>
     <row r="741" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D741" s="13"/>
-      <c r="E741" s="18"/>
+      <c r="D741" s="12"/>
+      <c r="E741" s="17"/>
     </row>
     <row r="742" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D742" s="13"/>
-      <c r="E742" s="18"/>
+      <c r="D742" s="12"/>
+      <c r="E742" s="17"/>
     </row>
     <row r="743" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D743" s="13"/>
-      <c r="E743" s="18"/>
+      <c r="D743" s="12"/>
+      <c r="E743" s="17"/>
     </row>
     <row r="744" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D744" s="13"/>
-      <c r="E744" s="18"/>
+      <c r="D744" s="12"/>
+      <c r="E744" s="17"/>
     </row>
     <row r="745" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D745" s="13"/>
-      <c r="E745" s="18"/>
+      <c r="D745" s="12"/>
+      <c r="E745" s="17"/>
     </row>
     <row r="746" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D746" s="13"/>
-      <c r="E746" s="18"/>
+      <c r="D746" s="12"/>
+      <c r="E746" s="17"/>
     </row>
     <row r="747" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D747" s="13"/>
-      <c r="E747" s="18"/>
+      <c r="D747" s="12"/>
+      <c r="E747" s="17"/>
     </row>
     <row r="748" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D748" s="13"/>
-      <c r="E748" s="18"/>
+      <c r="D748" s="12"/>
+      <c r="E748" s="17"/>
     </row>
     <row r="749" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D749" s="13"/>
-      <c r="E749" s="18"/>
+      <c r="D749" s="12"/>
+      <c r="E749" s="17"/>
     </row>
     <row r="750" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D750" s="13"/>
-      <c r="E750" s="18"/>
+      <c r="D750" s="12"/>
+      <c r="E750" s="17"/>
     </row>
     <row r="751" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D751" s="13"/>
-      <c r="E751" s="18"/>
+      <c r="D751" s="12"/>
+      <c r="E751" s="17"/>
     </row>
     <row r="752" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D752" s="13"/>
-      <c r="E752" s="18"/>
+      <c r="D752" s="12"/>
+      <c r="E752" s="17"/>
     </row>
     <row r="753" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D753" s="13"/>
-      <c r="E753" s="18"/>
+      <c r="D753" s="12"/>
+      <c r="E753" s="17"/>
     </row>
     <row r="754" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D754" s="13"/>
-      <c r="E754" s="18"/>
+      <c r="D754" s="12"/>
+      <c r="E754" s="17"/>
     </row>
     <row r="755" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D755" s="13"/>
-      <c r="E755" s="18"/>
+      <c r="D755" s="12"/>
+      <c r="E755" s="17"/>
     </row>
     <row r="756" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D756" s="13"/>
-      <c r="E756" s="18"/>
+      <c r="D756" s="12"/>
+      <c r="E756" s="17"/>
     </row>
     <row r="757" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D757" s="13"/>
-      <c r="E757" s="18"/>
+      <c r="D757" s="12"/>
+      <c r="E757" s="17"/>
     </row>
     <row r="758" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D758" s="13"/>
-      <c r="E758" s="18"/>
+      <c r="D758" s="12"/>
+      <c r="E758" s="17"/>
     </row>
     <row r="759" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D759" s="13"/>
-      <c r="E759" s="18"/>
+      <c r="D759" s="12"/>
+      <c r="E759" s="17"/>
     </row>
     <row r="760" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D760" s="13"/>
-      <c r="E760" s="18"/>
+      <c r="D760" s="12"/>
+      <c r="E760" s="17"/>
     </row>
     <row r="761" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D761" s="13"/>
-      <c r="E761" s="18"/>
+      <c r="D761" s="12"/>
+      <c r="E761" s="17"/>
     </row>
     <row r="762" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D762" s="13"/>
-      <c r="E762" s="18"/>
+      <c r="D762" s="12"/>
+      <c r="E762" s="17"/>
     </row>
     <row r="763" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D763" s="13"/>
-      <c r="E763" s="18"/>
+      <c r="D763" s="12"/>
+      <c r="E763" s="17"/>
     </row>
     <row r="764" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D764" s="13"/>
-      <c r="E764" s="18"/>
+      <c r="D764" s="12"/>
+      <c r="E764" s="17"/>
     </row>
     <row r="765" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D765" s="13"/>
-      <c r="E765" s="18"/>
+      <c r="D765" s="12"/>
+      <c r="E765" s="17"/>
     </row>
     <row r="766" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D766" s="13"/>
-      <c r="E766" s="18"/>
+      <c r="D766" s="12"/>
+      <c r="E766" s="17"/>
     </row>
     <row r="767" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D767" s="13"/>
-      <c r="E767" s="18"/>
+      <c r="D767" s="12"/>
+      <c r="E767" s="17"/>
     </row>
     <row r="768" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D768" s="13"/>
-      <c r="E768" s="18"/>
+      <c r="D768" s="12"/>
+      <c r="E768" s="17"/>
     </row>
     <row r="769" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D769" s="13"/>
-      <c r="E769" s="18"/>
+      <c r="D769" s="12"/>
+      <c r="E769" s="17"/>
     </row>
     <row r="770" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D770" s="13"/>
-      <c r="E770" s="18"/>
+      <c r="D770" s="12"/>
+      <c r="E770" s="17"/>
     </row>
     <row r="771" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D771" s="13"/>
-      <c r="E771" s="18"/>
+      <c r="D771" s="12"/>
+      <c r="E771" s="17"/>
     </row>
     <row r="772" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D772" s="13"/>
-      <c r="E772" s="18"/>
+      <c r="D772" s="12"/>
+      <c r="E772" s="17"/>
     </row>
     <row r="773" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D773" s="13"/>
-      <c r="E773" s="18"/>
+      <c r="D773" s="12"/>
+      <c r="E773" s="17"/>
     </row>
     <row r="774" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D774" s="13"/>
-      <c r="E774" s="18"/>
+      <c r="D774" s="12"/>
+      <c r="E774" s="17"/>
     </row>
     <row r="775" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D775" s="13"/>
-      <c r="E775" s="18"/>
+      <c r="D775" s="12"/>
+      <c r="E775" s="17"/>
     </row>
     <row r="776" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D776" s="13"/>
-      <c r="E776" s="18"/>
+      <c r="D776" s="12"/>
+      <c r="E776" s="17"/>
     </row>
     <row r="777" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D777" s="13"/>
-      <c r="E777" s="18"/>
+      <c r="D777" s="12"/>
+      <c r="E777" s="17"/>
     </row>
     <row r="778" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D778" s="13"/>
-      <c r="E778" s="18"/>
+      <c r="D778" s="12"/>
+      <c r="E778" s="17"/>
     </row>
     <row r="779" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D779" s="13"/>
-      <c r="E779" s="18"/>
+      <c r="D779" s="12"/>
+      <c r="E779" s="17"/>
     </row>
     <row r="780" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D780" s="13"/>
-      <c r="E780" s="18"/>
+      <c r="D780" s="12"/>
+      <c r="E780" s="17"/>
     </row>
     <row r="781" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D781" s="13"/>
-      <c r="E781" s="18"/>
+      <c r="D781" s="12"/>
+      <c r="E781" s="17"/>
     </row>
     <row r="782" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D782" s="13"/>
-      <c r="E782" s="18"/>
+      <c r="D782" s="12"/>
+      <c r="E782" s="17"/>
     </row>
     <row r="783" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D783" s="13"/>
-      <c r="E783" s="18"/>
+      <c r="D783" s="12"/>
+      <c r="E783" s="17"/>
     </row>
     <row r="784" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D784" s="13"/>
-      <c r="E784" s="18"/>
+      <c r="D784" s="12"/>
+      <c r="E784" s="17"/>
     </row>
     <row r="785" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D785" s="13"/>
-      <c r="E785" s="18"/>
+      <c r="D785" s="12"/>
+      <c r="E785" s="17"/>
     </row>
     <row r="786" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D786" s="13"/>
-      <c r="E786" s="18"/>
+      <c r="D786" s="12"/>
+      <c r="E786" s="17"/>
     </row>
     <row r="787" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D787" s="13"/>
-      <c r="E787" s="18"/>
+      <c r="D787" s="12"/>
+      <c r="E787" s="17"/>
     </row>
     <row r="788" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D788" s="13"/>
-      <c r="E788" s="18"/>
+      <c r="D788" s="12"/>
+      <c r="E788" s="17"/>
     </row>
     <row r="789" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D789" s="13"/>
-      <c r="E789" s="18"/>
+      <c r="D789" s="12"/>
+      <c r="E789" s="17"/>
     </row>
     <row r="790" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D790" s="13"/>
-      <c r="E790" s="18"/>
+      <c r="D790" s="12"/>
+      <c r="E790" s="17"/>
     </row>
     <row r="791" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D791" s="13"/>
-      <c r="E791" s="18"/>
+      <c r="D791" s="12"/>
+      <c r="E791" s="17"/>
     </row>
     <row r="792" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D792" s="13"/>
-      <c r="E792" s="18"/>
+      <c r="D792" s="12"/>
+      <c r="E792" s="17"/>
     </row>
     <row r="793" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D793" s="13"/>
-      <c r="E793" s="18"/>
+      <c r="D793" s="12"/>
+      <c r="E793" s="17"/>
     </row>
     <row r="794" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D794" s="13"/>
-      <c r="E794" s="18"/>
+      <c r="D794" s="12"/>
+      <c r="E794" s="17"/>
     </row>
     <row r="795" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D795" s="13"/>
-      <c r="E795" s="18"/>
+      <c r="D795" s="12"/>
+      <c r="E795" s="17"/>
     </row>
     <row r="796" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D796" s="13"/>
-      <c r="E796" s="18"/>
+      <c r="D796" s="12"/>
+      <c r="E796" s="17"/>
     </row>
     <row r="797" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D797" s="13"/>
-      <c r="E797" s="18"/>
+      <c r="D797" s="12"/>
+      <c r="E797" s="17"/>
     </row>
     <row r="798" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D798" s="13"/>
-      <c r="E798" s="18"/>
+      <c r="D798" s="12"/>
+      <c r="E798" s="17"/>
     </row>
     <row r="799" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D799" s="13"/>
-      <c r="E799" s="18"/>
+      <c r="D799" s="12"/>
+      <c r="E799" s="17"/>
     </row>
     <row r="800" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D800" s="13"/>
-      <c r="E800" s="18"/>
+      <c r="D800" s="12"/>
+      <c r="E800" s="17"/>
     </row>
     <row r="801" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D801" s="13"/>
-      <c r="E801" s="18"/>
+      <c r="D801" s="12"/>
+      <c r="E801" s="17"/>
     </row>
     <row r="802" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D802" s="13"/>
-      <c r="E802" s="18"/>
+      <c r="D802" s="12"/>
+      <c r="E802" s="17"/>
     </row>
     <row r="803" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D803" s="13"/>
-      <c r="E803" s="18"/>
+      <c r="D803" s="12"/>
+      <c r="E803" s="17"/>
     </row>
     <row r="804" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D804" s="13"/>
-      <c r="E804" s="18"/>
+      <c r="D804" s="12"/>
+      <c r="E804" s="17"/>
     </row>
     <row r="805" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D805" s="13"/>
-      <c r="E805" s="18"/>
+      <c r="D805" s="12"/>
+      <c r="E805" s="17"/>
     </row>
     <row r="806" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D806" s="13"/>
-      <c r="E806" s="18"/>
+      <c r="D806" s="12"/>
+      <c r="E806" s="17"/>
     </row>
     <row r="807" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D807" s="13"/>
-      <c r="E807" s="18"/>
+      <c r="D807" s="12"/>
+      <c r="E807" s="17"/>
     </row>
     <row r="808" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D808" s="13"/>
-      <c r="E808" s="18"/>
+      <c r="D808" s="12"/>
+      <c r="E808" s="17"/>
     </row>
     <row r="809" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D809" s="13"/>
-      <c r="E809" s="18"/>
+      <c r="D809" s="12"/>
+      <c r="E809" s="17"/>
     </row>
     <row r="810" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D810" s="13"/>
-      <c r="E810" s="18"/>
+      <c r="D810" s="12"/>
+      <c r="E810" s="17"/>
     </row>
     <row r="811" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D811" s="13"/>
-      <c r="E811" s="18"/>
+      <c r="D811" s="12"/>
+      <c r="E811" s="17"/>
     </row>
     <row r="812" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D812" s="13"/>
-      <c r="E812" s="18"/>
+      <c r="D812" s="12"/>
+      <c r="E812" s="17"/>
     </row>
     <row r="813" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D813" s="13"/>
-      <c r="E813" s="18"/>
+      <c r="D813" s="12"/>
+      <c r="E813" s="17"/>
     </row>
     <row r="814" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D814" s="13"/>
-      <c r="E814" s="18"/>
+      <c r="D814" s="12"/>
+      <c r="E814" s="17"/>
     </row>
     <row r="815" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D815" s="13"/>
-      <c r="E815" s="18"/>
+      <c r="D815" s="12"/>
+      <c r="E815" s="17"/>
     </row>
     <row r="816" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D816" s="13"/>
-      <c r="E816" s="18"/>
+      <c r="D816" s="12"/>
+      <c r="E816" s="17"/>
     </row>
     <row r="817" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D817" s="13"/>
-      <c r="E817" s="18"/>
+      <c r="D817" s="12"/>
+      <c r="E817" s="17"/>
     </row>
     <row r="818" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D818" s="13"/>
-      <c r="E818" s="18"/>
+      <c r="D818" s="12"/>
+      <c r="E818" s="17"/>
     </row>
     <row r="819" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D819" s="13"/>
-      <c r="E819" s="18"/>
+      <c r="D819" s="12"/>
+      <c r="E819" s="17"/>
     </row>
     <row r="820" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D820" s="13"/>
-      <c r="E820" s="18"/>
+      <c r="D820" s="12"/>
+      <c r="E820" s="17"/>
     </row>
     <row r="821" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D821" s="13"/>
-      <c r="E821" s="18"/>
+      <c r="D821" s="12"/>
+      <c r="E821" s="17"/>
     </row>
     <row r="822" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D822" s="13"/>
-      <c r="E822" s="18"/>
+      <c r="D822" s="12"/>
+      <c r="E822" s="17"/>
     </row>
     <row r="823" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D823" s="13"/>
-      <c r="E823" s="18"/>
+      <c r="D823" s="12"/>
+      <c r="E823" s="17"/>
     </row>
     <row r="824" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D824" s="13"/>
-      <c r="E824" s="18"/>
+      <c r="D824" s="12"/>
+      <c r="E824" s="17"/>
     </row>
     <row r="825" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D825" s="13"/>
-      <c r="E825" s="18"/>
+      <c r="D825" s="12"/>
+      <c r="E825" s="17"/>
     </row>
     <row r="826" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D826" s="13"/>
-      <c r="E826" s="18"/>
+      <c r="D826" s="12"/>
+      <c r="E826" s="17"/>
     </row>
     <row r="827" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D827" s="13"/>
-      <c r="E827" s="18"/>
+      <c r="D827" s="12"/>
+      <c r="E827" s="17"/>
     </row>
     <row r="828" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D828" s="13"/>
-      <c r="E828" s="18"/>
+      <c r="D828" s="12"/>
+      <c r="E828" s="17"/>
     </row>
     <row r="829" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D829" s="13"/>
-      <c r="E829" s="18"/>
+      <c r="D829" s="12"/>
+      <c r="E829" s="17"/>
     </row>
     <row r="830" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D830" s="13"/>
-      <c r="E830" s="18"/>
+      <c r="D830" s="12"/>
+      <c r="E830" s="17"/>
     </row>
     <row r="831" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D831" s="13"/>
-      <c r="E831" s="18"/>
+      <c r="D831" s="12"/>
+      <c r="E831" s="17"/>
     </row>
     <row r="832" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D832" s="13"/>
-      <c r="E832" s="18"/>
+      <c r="D832" s="12"/>
+      <c r="E832" s="17"/>
     </row>
     <row r="833" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D833" s="13"/>
-      <c r="E833" s="18"/>
+      <c r="D833" s="12"/>
+      <c r="E833" s="17"/>
     </row>
     <row r="834" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D834" s="13"/>
-      <c r="E834" s="18"/>
+      <c r="D834" s="12"/>
+      <c r="E834" s="17"/>
     </row>
     <row r="835" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D835" s="13"/>
-      <c r="E835" s="18"/>
+      <c r="D835" s="12"/>
+      <c r="E835" s="17"/>
     </row>
     <row r="836" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D836" s="13"/>
-      <c r="E836" s="18"/>
+      <c r="D836" s="12"/>
+      <c r="E836" s="17"/>
     </row>
     <row r="837" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D837" s="13"/>
-      <c r="E837" s="18"/>
+      <c r="D837" s="12"/>
+      <c r="E837" s="17"/>
     </row>
     <row r="838" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D838" s="13"/>
-      <c r="E838" s="18"/>
+      <c r="D838" s="12"/>
+      <c r="E838" s="17"/>
     </row>
     <row r="839" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D839" s="13"/>
-      <c r="E839" s="18"/>
+      <c r="D839" s="12"/>
+      <c r="E839" s="17"/>
     </row>
     <row r="840" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D840" s="13"/>
-      <c r="E840" s="18"/>
+      <c r="D840" s="12"/>
+      <c r="E840" s="17"/>
     </row>
     <row r="841" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D841" s="13"/>
-      <c r="E841" s="18"/>
+      <c r="D841" s="12"/>
+      <c r="E841" s="17"/>
     </row>
     <row r="842" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D842" s="13"/>
-      <c r="E842" s="18"/>
+      <c r="D842" s="12"/>
+      <c r="E842" s="17"/>
     </row>
     <row r="843" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D843" s="13"/>
-      <c r="E843" s="18"/>
+      <c r="D843" s="12"/>
+      <c r="E843" s="17"/>
     </row>
     <row r="844" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D844" s="13"/>
-      <c r="E844" s="18"/>
+      <c r="D844" s="12"/>
+      <c r="E844" s="17"/>
     </row>
     <row r="845" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D845" s="13"/>
-      <c r="E845" s="18"/>
+      <c r="D845" s="12"/>
+      <c r="E845" s="17"/>
     </row>
     <row r="846" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D846" s="13"/>
-      <c r="E846" s="18"/>
+      <c r="D846" s="12"/>
+      <c r="E846" s="17"/>
     </row>
     <row r="847" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D847" s="13"/>
-      <c r="E847" s="18"/>
+      <c r="D847" s="12"/>
+      <c r="E847" s="17"/>
     </row>
     <row r="848" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D848" s="13"/>
-      <c r="E848" s="18"/>
+      <c r="D848" s="12"/>
+      <c r="E848" s="17"/>
     </row>
     <row r="849" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D849" s="13"/>
-      <c r="E849" s="18"/>
+      <c r="D849" s="12"/>
+      <c r="E849" s="17"/>
     </row>
     <row r="850" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D850" s="13"/>
-      <c r="E850" s="18"/>
+      <c r="D850" s="12"/>
+      <c r="E850" s="17"/>
     </row>
     <row r="851" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D851" s="13"/>
-      <c r="E851" s="18"/>
+      <c r="D851" s="12"/>
+      <c r="E851" s="17"/>
     </row>
     <row r="852" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D852" s="13"/>
-      <c r="E852" s="18"/>
+      <c r="D852" s="12"/>
+      <c r="E852" s="17"/>
     </row>
     <row r="853" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D853" s="13"/>
-      <c r="E853" s="18"/>
+      <c r="D853" s="12"/>
+      <c r="E853" s="17"/>
     </row>
     <row r="854" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D854" s="13"/>
-      <c r="E854" s="18"/>
+      <c r="D854" s="12"/>
+      <c r="E854" s="17"/>
     </row>
     <row r="855" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D855" s="13"/>
-      <c r="E855" s="18"/>
+      <c r="D855" s="12"/>
+      <c r="E855" s="17"/>
     </row>
     <row r="856" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D856" s="13"/>
-      <c r="E856" s="18"/>
+      <c r="D856" s="12"/>
+      <c r="E856" s="17"/>
     </row>
     <row r="857" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D857" s="13"/>
-      <c r="E857" s="18"/>
+      <c r="D857" s="12"/>
+      <c r="E857" s="17"/>
     </row>
     <row r="858" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D858" s="13"/>
-      <c r="E858" s="18"/>
+      <c r="D858" s="12"/>
+      <c r="E858" s="17"/>
     </row>
     <row r="859" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D859" s="13"/>
-      <c r="E859" s="18"/>
+      <c r="D859" s="12"/>
+      <c r="E859" s="17"/>
     </row>
     <row r="860" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D860" s="13"/>
-      <c r="E860" s="18"/>
+      <c r="D860" s="12"/>
+      <c r="E860" s="17"/>
     </row>
     <row r="861" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D861" s="13"/>
-      <c r="E861" s="18"/>
+      <c r="D861" s="12"/>
+      <c r="E861" s="17"/>
     </row>
     <row r="862" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D862" s="13"/>
-      <c r="E862" s="18"/>
+      <c r="D862" s="12"/>
+      <c r="E862" s="17"/>
     </row>
     <row r="863" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D863" s="13"/>
-      <c r="E863" s="18"/>
+      <c r="D863" s="12"/>
+      <c r="E863" s="17"/>
     </row>
     <row r="864" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D864" s="13"/>
-      <c r="E864" s="18"/>
+      <c r="D864" s="12"/>
+      <c r="E864" s="17"/>
     </row>
     <row r="865" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D865" s="13"/>
-      <c r="E865" s="18"/>
+      <c r="D865" s="12"/>
+      <c r="E865" s="17"/>
     </row>
     <row r="866" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D866" s="13"/>
-      <c r="E866" s="18"/>
+      <c r="D866" s="12"/>
+      <c r="E866" s="17"/>
     </row>
     <row r="867" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D867" s="13"/>
-      <c r="E867" s="18"/>
+      <c r="D867" s="12"/>
+      <c r="E867" s="17"/>
     </row>
     <row r="868" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D868" s="13"/>
-      <c r="E868" s="18"/>
+      <c r="D868" s="12"/>
+      <c r="E868" s="17"/>
     </row>
     <row r="869" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D869" s="13"/>
-      <c r="E869" s="18"/>
+      <c r="D869" s="12"/>
+      <c r="E869" s="17"/>
     </row>
     <row r="870" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D870" s="13"/>
-      <c r="E870" s="18"/>
+      <c r="D870" s="12"/>
+      <c r="E870" s="17"/>
     </row>
     <row r="871" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D871" s="13"/>
-      <c r="E871" s="18"/>
+      <c r="D871" s="12"/>
+      <c r="E871" s="17"/>
     </row>
     <row r="872" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D872" s="13"/>
-      <c r="E872" s="18"/>
+      <c r="D872" s="12"/>
+      <c r="E872" s="17"/>
     </row>
     <row r="873" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D873" s="13"/>
-      <c r="E873" s="18"/>
+      <c r="D873" s="12"/>
+      <c r="E873" s="17"/>
     </row>
     <row r="874" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D874" s="13"/>
-      <c r="E874" s="18"/>
+      <c r="D874" s="12"/>
+      <c r="E874" s="17"/>
     </row>
     <row r="875" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D875" s="13"/>
-      <c r="E875" s="18"/>
+      <c r="D875" s="12"/>
+      <c r="E875" s="17"/>
     </row>
     <row r="876" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D876" s="13"/>
-      <c r="E876" s="18"/>
+      <c r="D876" s="12"/>
+      <c r="E876" s="17"/>
     </row>
     <row r="877" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D877" s="13"/>
-      <c r="E877" s="18"/>
+      <c r="D877" s="12"/>
+      <c r="E877" s="17"/>
     </row>
     <row r="878" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D878" s="13"/>
-      <c r="E878" s="18"/>
+      <c r="D878" s="12"/>
+      <c r="E878" s="17"/>
     </row>
     <row r="879" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D879" s="13"/>
-      <c r="E879" s="18"/>
+      <c r="D879" s="12"/>
+      <c r="E879" s="17"/>
     </row>
     <row r="880" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D880" s="13"/>
-      <c r="E880" s="18"/>
+      <c r="D880" s="12"/>
+      <c r="E880" s="17"/>
     </row>
     <row r="881" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D881" s="13"/>
-      <c r="E881" s="18"/>
+      <c r="D881" s="12"/>
+      <c r="E881" s="17"/>
     </row>
     <row r="882" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D882" s="13"/>
-      <c r="E882" s="18"/>
+      <c r="D882" s="12"/>
+      <c r="E882" s="17"/>
     </row>
     <row r="883" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D883" s="13"/>
-      <c r="E883" s="18"/>
+      <c r="D883" s="12"/>
+      <c r="E883" s="17"/>
     </row>
     <row r="884" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D884" s="13"/>
-      <c r="E884" s="18"/>
+      <c r="D884" s="12"/>
+      <c r="E884" s="17"/>
     </row>
     <row r="885" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D885" s="13"/>
-      <c r="E885" s="18"/>
+      <c r="D885" s="12"/>
+      <c r="E885" s="17"/>
     </row>
     <row r="886" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D886" s="13"/>
-      <c r="E886" s="18"/>
+      <c r="D886" s="12"/>
+      <c r="E886" s="17"/>
     </row>
     <row r="887" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D887" s="13"/>
-      <c r="E887" s="18"/>
+      <c r="D887" s="12"/>
+      <c r="E887" s="17"/>
     </row>
     <row r="888" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D888" s="13"/>
-      <c r="E888" s="18"/>
+      <c r="D888" s="12"/>
+      <c r="E888" s="17"/>
     </row>
     <row r="889" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D889" s="13"/>
-      <c r="E889" s="18"/>
+      <c r="D889" s="12"/>
+      <c r="E889" s="17"/>
     </row>
     <row r="890" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D890" s="13"/>
-      <c r="E890" s="18"/>
+      <c r="D890" s="12"/>
+      <c r="E890" s="17"/>
     </row>
     <row r="891" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D891" s="13"/>
-      <c r="E891" s="18"/>
+      <c r="D891" s="12"/>
+      <c r="E891" s="17"/>
     </row>
     <row r="892" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D892" s="13"/>
-      <c r="E892" s="18"/>
+      <c r="D892" s="12"/>
+      <c r="E892" s="17"/>
     </row>
     <row r="893" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D893" s="13"/>
-      <c r="E893" s="18"/>
+      <c r="D893" s="12"/>
+      <c r="E893" s="17"/>
     </row>
     <row r="894" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D894" s="13"/>
-      <c r="E894" s="18"/>
+      <c r="D894" s="12"/>
+      <c r="E894" s="17"/>
     </row>
     <row r="895" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D895" s="13"/>
-      <c r="E895" s="18"/>
+      <c r="D895" s="12"/>
+      <c r="E895" s="17"/>
     </row>
     <row r="896" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D896" s="13"/>
-      <c r="E896" s="18"/>
+      <c r="D896" s="12"/>
+      <c r="E896" s="17"/>
     </row>
     <row r="897" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D897" s="13"/>
-      <c r="E897" s="18"/>
+      <c r="D897" s="12"/>
+      <c r="E897" s="17"/>
     </row>
     <row r="898" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D898" s="13"/>
-      <c r="E898" s="18"/>
+      <c r="D898" s="12"/>
+      <c r="E898" s="17"/>
     </row>
     <row r="899" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D899" s="13"/>
-      <c r="E899" s="18"/>
+      <c r="D899" s="12"/>
+      <c r="E899" s="17"/>
     </row>
     <row r="900" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D900" s="13"/>
-      <c r="E900" s="18"/>
+      <c r="D900" s="12"/>
+      <c r="E900" s="17"/>
     </row>
     <row r="901" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D901" s="13"/>
-      <c r="E901" s="18"/>
+      <c r="D901" s="12"/>
+      <c r="E901" s="17"/>
     </row>
     <row r="902" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D902" s="13"/>
-      <c r="E902" s="18"/>
+      <c r="D902" s="12"/>
+      <c r="E902" s="17"/>
     </row>
     <row r="903" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D903" s="13"/>
-      <c r="E903" s="18"/>
+      <c r="D903" s="12"/>
+      <c r="E903" s="17"/>
     </row>
     <row r="904" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D904" s="13"/>
-      <c r="E904" s="18"/>
+      <c r="D904" s="12"/>
+      <c r="E904" s="17"/>
     </row>
     <row r="905" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D905" s="13"/>
-      <c r="E905" s="18"/>
+      <c r="D905" s="12"/>
+      <c r="E905" s="17"/>
     </row>
     <row r="906" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D906" s="13"/>
-      <c r="E906" s="18"/>
+      <c r="D906" s="12"/>
+      <c r="E906" s="17"/>
     </row>
     <row r="907" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D907" s="13"/>
-      <c r="E907" s="18"/>
+      <c r="D907" s="12"/>
+      <c r="E907" s="17"/>
     </row>
     <row r="908" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D908" s="13"/>
-      <c r="E908" s="18"/>
+      <c r="D908" s="12"/>
+      <c r="E908" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ppgz/Ppgz.Web/App_Data/plantillaoc.xlsx
+++ b/Ppgz/Ppgz.Web/App_Data/plantillaoc.xlsx
@@ -33,9 +33,6 @@
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
-    <t>ALMACÉN</t>
-  </si>
-  <si>
     <t>PRECIO</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>CANT</t>
+  </si>
+  <si>
+    <t>DESTINO</t>
   </si>
 </sst>
 </file>
@@ -239,20 +239,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,6 +256,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,22 +630,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -655,8 +655,8 @@
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -667,7 +667,7 @@
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="9"/>
@@ -676,7 +676,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="9"/>
@@ -698,13 +698,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
